--- a/res/環境設定.xlsx
+++ b/res/環境設定.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\svn\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\0407\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8EC934-028A-440D-A22E-7B422730EA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CF74C7-D3FD-4F06-91E3-8BBA072363ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25000" windowHeight="15620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="６.DOCKER" sheetId="1" r:id="rId4"/>
     <sheet name="８.GITより環境構築" sheetId="7" r:id="rId5"/>
     <sheet name="８.データインポート" sheetId="8" r:id="rId6"/>
+    <sheet name="JVM 变更" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="165">
   <si>
     <t>MYSQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -897,12 +898,58 @@
     <t xml:space="preserve">   docker exec -it mysql-container bash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>内存8G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WINDOW SYSTEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆</t>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helloKit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat helloKit = new Cat();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int a = 2;</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLASS定义，方法，常量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM（512M）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512M内存（分配多大内存可以自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,8 +1102,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1075,8 +1135,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1121,12 +1211,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1157,6 +1327,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4326,14 +4524,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="15.4140625" customWidth="1"/>
     <col min="4" max="4" width="34.25" customWidth="1"/>
     <col min="5" max="5" width="76.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:5" ht="18">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4347,7 +4545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:5" ht="18">
       <c r="B3">
         <v>1</v>
       </c>
@@ -4361,7 +4559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5">
       <c r="B4">
         <v>2</v>
       </c>
@@ -4375,7 +4573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:5" ht="18">
       <c r="B5">
         <v>3</v>
       </c>
@@ -4389,7 +4587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5">
       <c r="B6">
         <v>4</v>
       </c>
@@ -4403,7 +4601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:5" ht="18">
       <c r="B7">
         <v>5</v>
       </c>
@@ -4417,7 +4615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5">
       <c r="B8">
         <v>6</v>
       </c>
@@ -4431,7 +4629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:5" ht="18">
       <c r="B9">
         <v>7</v>
       </c>
@@ -4445,7 +4643,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:5" ht="18">
       <c r="B10">
         <v>8</v>
       </c>
@@ -4456,12 +4654,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5">
       <c r="B11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5">
       <c r="B12">
         <v>10</v>
       </c>
@@ -4488,9 +4686,9 @@
   <sheetViews>
     <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
@@ -4514,14 +4712,14 @@
       <selection activeCell="P90" sqref="P90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="137" spans="19:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="19:23">
       <c r="S137" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="19:23" ht="20" x14ac:dyDescent="0.4">
+    <row r="138" spans="19:23" ht="20">
       <c r="S138" s="7" t="s">
         <v>33</v>
       </c>
@@ -4530,7 +4728,7 @@
       <c r="V138" s="7"/>
       <c r="W138" s="7"/>
     </row>
-    <row r="139" spans="19:23" ht="20" x14ac:dyDescent="0.4">
+    <row r="139" spans="19:23" ht="20">
       <c r="S139" s="8" t="s">
         <v>34</v>
       </c>
@@ -4539,19 +4737,19 @@
       <c r="V139" s="7"/>
       <c r="W139" s="7"/>
     </row>
-    <row r="140" spans="19:23" ht="20" x14ac:dyDescent="0.4">
+    <row r="140" spans="19:23" ht="20">
       <c r="S140" s="7"/>
       <c r="T140" s="7"/>
       <c r="U140" s="7"/>
       <c r="V140" s="7"/>
       <c r="W140" s="7"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:3">
       <c r="B166" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:3">
       <c r="C167" t="s">
         <v>36</v>
       </c>
@@ -4571,47 +4769,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="4.08203125" customWidth="1"/>
     <col min="2" max="2" width="151.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="18">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="B5" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.5">
       <c r="B6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.5">
       <c r="B8" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16.5">
       <c r="A9" t="s">
         <v>148</v>
       </c>
@@ -4619,7 +4817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16.5">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -4627,12 +4825,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.5">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -4640,7 +4838,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="14.5">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -4648,107 +4846,107 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="16.5">
       <c r="B14" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="B15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="14.5">
       <c r="B16" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="B17" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="B18" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="B19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="B21" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" s="1" customFormat="1" ht="18">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="B29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="B31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="B33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="B34" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="B35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="B37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="B39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="B41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>148</v>
       </c>
@@ -4756,17 +4954,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="B44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>149</v>
       </c>
@@ -4774,533 +4972,533 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="B46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="B48" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="19"/>
     </row>
-    <row r="59" spans="2:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="14.5" thickBot="1"/>
+    <row r="60" spans="2:2">
       <c r="B60" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="17"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="15"/>
     </row>
-    <row r="72" spans="2:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" ht="14.5" thickBot="1">
       <c r="B72" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="14.5" thickBot="1"/>
+    <row r="75" spans="2:2">
       <c r="B75" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2">
       <c r="B76" s="15"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2">
       <c r="B77" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2">
       <c r="B78" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2">
       <c r="B79" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2">
       <c r="B80" s="15"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2">
       <c r="B81" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2">
       <c r="B82" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2">
       <c r="B83" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2">
       <c r="B84" s="15"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2">
       <c r="B85" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2">
       <c r="B86" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2">
       <c r="B87" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2">
       <c r="B88" s="15"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2">
       <c r="B89" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2">
       <c r="B90" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2">
       <c r="B91" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2">
       <c r="B92" s="15"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2">
       <c r="B93" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2">
       <c r="B94" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2">
       <c r="B95" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2">
       <c r="B96" s="15"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2">
       <c r="B97" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2">
       <c r="B98" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2">
       <c r="B99" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2">
       <c r="B100" s="15"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2">
       <c r="B101" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2">
       <c r="B102" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2">
       <c r="B103" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2">
       <c r="B104" s="15"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2">
       <c r="B105" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2">
       <c r="B106" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2">
       <c r="B107" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2">
       <c r="B108" s="15"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2">
       <c r="B109" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2">
       <c r="B110" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2">
       <c r="B111" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2">
       <c r="B112" s="15"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2">
       <c r="B113" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2">
       <c r="B114" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2">
       <c r="B115" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2">
       <c r="B116" s="15"/>
     </row>
-    <row r="117" spans="2:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" ht="14.5" thickBot="1">
       <c r="B117" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" ht="14.5" thickBot="1"/>
+    <row r="119" spans="2:2">
       <c r="B119" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2">
       <c r="B120" s="15"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2">
       <c r="B121" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2">
       <c r="B122" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2">
       <c r="B123" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2">
       <c r="B124" s="15"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2">
       <c r="B125" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2">
       <c r="B126" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2">
       <c r="B127" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2">
       <c r="B128" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2">
       <c r="B129" s="15"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2">
       <c r="B130" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2">
       <c r="B131" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2">
       <c r="B132" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2">
       <c r="B133" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2">
       <c r="B134" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2">
       <c r="B135" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2">
       <c r="B136" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2">
       <c r="B137" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2">
       <c r="B138" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2">
       <c r="B139" s="15"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2">
       <c r="B140" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2">
       <c r="B141" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2">
       <c r="B142" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2">
       <c r="B143" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2">
       <c r="B144" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2">
       <c r="B145" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2">
       <c r="B146" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2">
       <c r="B147" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2">
       <c r="B148" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2">
       <c r="B149" s="15"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2">
       <c r="B150" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2">
       <c r="B151" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2">
       <c r="B152" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2">
       <c r="B153" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2">
       <c r="B154" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2">
       <c r="B155" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2">
       <c r="B156" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2">
       <c r="B157" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2">
       <c r="B158" s="15"/>
     </row>
-    <row r="159" spans="2:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:2" ht="14.5" thickBot="1">
       <c r="B159" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2">
       <c r="B163" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2">
       <c r="B164" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2">
       <c r="B165" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2">
       <c r="B166" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2">
       <c r="B167" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2">
       <c r="B168" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2">
       <c r="B169" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2">
       <c r="B170" t="s">
         <v>135</v>
       </c>
@@ -5320,14 +5518,14 @@
       <selection activeCell="W93" sqref="W93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="50" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="23:23">
       <c r="W50" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:2">
       <c r="B502" t="s">
         <v>141</v>
       </c>
@@ -5348,9 +5546,9 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>142</v>
       </c>
@@ -5360,4 +5558,290 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28B40E5-3CE0-4B31-BB49-CE06C58128C0}">
+  <dimension ref="B1:R32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="2:18" ht="14.5" thickBot="1">
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+    </row>
+    <row r="10" spans="2:18" ht="14.5" thickBot="1">
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="H10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="14.5" thickBot="1">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="35"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="2:18" ht="14.5" thickBot="1">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="2:18" ht="20.5" thickBot="1">
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="E15" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="37"/>
+      <c r="P15" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="37"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="37"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="37"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="37"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="37"/>
+    </row>
+    <row r="26" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="39"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/res/環境設定.xlsx
+++ b/res/環境設定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\0407\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CF74C7-D3FD-4F06-91E3-8BBA072363ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E61B1-B749-4AA4-BA77-65AE8337240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25000" windowHeight="15620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1348,7 +1348,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5564,8 +5564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28B40E5-3CE0-4B31-BB49-CE06C58128C0}">
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/res/環境設定.xlsx
+++ b/res/環境設定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\0407\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E61B1-B749-4AA4-BA77-65AE8337240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE3FDD9-AED6-4060-98B4-FC445D83EB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25000" windowHeight="15620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="166">
   <si>
     <t>MYSQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,6 +942,10 @@
   </si>
   <si>
     <t>512M内存（分配多大内存可以自定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java Virtual Machine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5564,8 +5568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28B40E5-3CE0-4B31-BB49-CE06C58128C0}">
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5632,6 +5636,9 @@
         <v>163</v>
       </c>
       <c r="C12" s="35"/>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
       <c r="H12" s="36"/>
       <c r="I12" s="34" t="s">
         <v>157</v>

--- a/res/環境設定.xlsx
+++ b/res/環境設定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\0407\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE3FDD9-AED6-4060-98B4-FC445D83EB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E8722E-0DD9-4361-907E-610CC3462FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="690" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="８.GITより環境構築" sheetId="7" r:id="rId5"/>
     <sheet name="８.データインポート" sheetId="8" r:id="rId6"/>
     <sheet name="JVM 变更" sheetId="9" r:id="rId7"/>
+    <sheet name="数据库" sheetId="11" r:id="rId8"/>
+    <sheet name="jquery plugin" sheetId="12" r:id="rId9"/>
+    <sheet name="SQL表" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="340">
   <si>
     <t>MYSQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -948,12 +951,4772 @@
     <t>Java Virtual Machine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MYSQL数据库系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   mysql -uroot -p123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORACLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲骨文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYBASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日兴证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POSTGRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费开源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1G以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600M以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130M左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系型数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS SQL Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提：DOCKER已经启动，并且MYSQL数据库服务也启动了</t>
+  </si>
+  <si>
+    <t>// 在DOS命令里执行下面代码，进入MYSQL控制台</t>
+  </si>
+  <si>
+    <t>docker exec -it mysql-container bash</t>
+  </si>
+  <si>
+    <t>// 进入MYSQL</t>
+  </si>
+  <si>
+    <t>mysql -uroot -p123456</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>SET utf8mb4;</t>
+  </si>
+  <si>
+    <t>// 切换数据库</t>
+  </si>
+  <si>
+    <t>USE `testz3`;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 建数据库</t>
+  </si>
+  <si>
+    <t>TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIRTHDAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">性别 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEACHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">数字 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>中文名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>／日本名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英語名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS `TEACHER`;</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `TEACHER` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `salary` int(8) DEFAULT NULL COMMENT 'my salary',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `birthday` datetime DEFAULT NULL COMMENT 'my birthday',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `sex` char(2) DEFAULT NULL COMMENT 'my sex',</t>
+  </si>
+  <si>
+    <t>// 在指定数据库下建表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT EXISTS `testz3` CHARACTER </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制（图片，内存数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变长字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定长字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">默认值 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  `name` varchar(60) DEFAULT NULL COMMENT 'my name',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目逻辑名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT 'my name'</t>
+  </si>
+  <si>
+    <t>项目1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。。。。</t>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  PRIMARY KEY (`id`) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMARY KEY (`id`) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMARY KEY (`name`,`xxx`) </t>
+  </si>
+  <si>
+    <t>) COMMENT='teacher talbe';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表的逻辑名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT='teacher talbe';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `id` int unsigned NOT NULL AUTO_INCREMENT COMMENT 'NO',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  AUTO_INCREMENT 自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL语言：DDL、DML、DQL、DCL详解</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/391552199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-- ctrl + q  SQL整形</t>
+  </si>
+  <si>
+    <r>
+      <t>INSERT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TEACHER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>birthday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VALUES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'wang5'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>32000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'2023-10-04'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 当执行更新或删除操作时，要写where,要写where,要写where</t>
+  </si>
+  <si>
+    <r>
+      <t>update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'zhang 33'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>24</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 全表检索</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 带条件检索工资大于30000并且是女的记录</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 检索工资15000和30000之间的记录</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30000</t>
+    </r>
+  </si>
+  <si>
+    <t>-- between</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>between</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>desc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>desc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cnt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 检索男女的最少工资</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> minsalary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 检索人名 去重复记录</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>distinct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 检索人名的人数</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cnt  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cnt</t>
+    </r>
+  </si>
+  <si>
+    <t>-- union all 不会去重复记录</t>
+  </si>
+  <si>
+    <t>-- union 会去重复记录</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'zhang3'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'li4'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'wang5'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>all</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'zhang3'</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 模糊查询 曖昧検索</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'%a%'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'__a%'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>-- 显示性别</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>distinct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">sex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>distinct</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>when</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'man'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>when</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'women'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex_en</t>
+    </r>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    teacher</t>
+  </si>
+  <si>
+    <t>-- 分页 取前5条</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 取6-10条</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>------  左连 右连</t>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>identify_card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'my name'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>birthday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> datetime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'my birthday'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ENGINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">InnoDB  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'在留カード money '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>year_money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'my name'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'my salary'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ENGINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">InnoDB  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'国民年金year money talbe'</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 检索在留卡里所有人的年金交付情况</t>
+  </si>
+  <si>
+    <t>-- 多表连接  直连</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>birthday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">money </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>identify_card i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>year_money y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 多表连接  外连 （左外连，右外连（不用））</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">identify_card i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 检索在留卡里所有人的年金交付情况 (年金大于100000)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">identify_card i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100000</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 注意  副表的查询条件 要放在 on 后面，不能放在where 语句里面，如果副表的条件放在where 里面，就自动变成直连</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">identify_card i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100000</t>
+    </r>
+  </si>
+  <si>
+    <t>https://jqueryui.com/</t>
+  </si>
+  <si>
+    <t>https://datatables.net/</t>
+  </si>
+  <si>
+    <t>https://lokeshdhakar.com/projects/lightbox2/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1119,8 +5882,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF35A16B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0080FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF2800"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1169,8 +5962,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1295,12 +6106,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1359,6 +6185,42 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4684,6 +9546,22 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CB6A37-6B8F-4970-9855-A2ADD57F14A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4228DB11-97C3-4198-83E3-682344B90C28}">
   <dimension ref="B2"/>
@@ -4771,9 +9649,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B170"/>
+  <dimension ref="A2:B172"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -4895,39 +9773,39 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="1" customFormat="1" ht="18">
-      <c r="A24" s="2" t="s">
+    <row r="23" spans="1:2">
+      <c r="B23" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="1" customFormat="1" ht="18">
+      <c r="A26" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" s="13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4935,27 +9813,24 @@
         <v>42</v>
       </c>
     </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="37" spans="1:2">
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4964,16 +9839,16 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="B44" t="s">
+      <c r="A44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4981,34 +9856,37 @@
         <v>42</v>
       </c>
     </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="57" spans="2:2">
@@ -5017,493 +9895,503 @@
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="19"/>
-    </row>
-    <row r="59" spans="2:2" ht="14.5" thickBot="1"/>
+      <c r="B58" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="19"/>
+    </row>
+    <row r="61" spans="2:2" ht="14.5" thickBot="1"/>
+    <row r="62" spans="2:2">
+      <c r="B62" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="15"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="B63" s="15"/>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="16" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="17" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="17"/>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="B69" s="17"/>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="15"/>
-    </row>
-    <row r="72" spans="2:2" ht="14.5" thickBot="1">
-      <c r="B72" s="18" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" s="15"/>
+    </row>
+    <row r="74" spans="2:2" ht="14.5" thickBot="1">
+      <c r="B74" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="14.5" thickBot="1"/>
-    <row r="75" spans="2:2">
-      <c r="B75" s="14" t="s">
+    <row r="76" spans="2:2" ht="14.5" thickBot="1"/>
+    <row r="77" spans="2:2">
+      <c r="B77" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="15"/>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="B78" s="15"/>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="15"/>
+      <c r="B80" s="15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="15" t="s">
-        <v>65</v>
-      </c>
+      <c r="B82" s="15"/>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="15" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="15"/>
+      <c r="B84" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="15" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="15" t="s">
-        <v>67</v>
-      </c>
+      <c r="B86" s="15"/>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="15"/>
+      <c r="B88" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="15" t="s">
-        <v>70</v>
-      </c>
+      <c r="B90" s="15"/>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="15"/>
+      <c r="B92" s="15" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="15" t="s">
-        <v>73</v>
-      </c>
+      <c r="B94" s="15"/>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="15"/>
+      <c r="B96" s="15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="15" t="s">
-        <v>76</v>
-      </c>
+      <c r="B98" s="15"/>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="15"/>
+      <c r="B100" s="15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="B102" s="15"/>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="15"/>
+      <c r="B104" s="15" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="B106" s="15"/>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="15"/>
+      <c r="B108" s="15" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="15" t="s">
-        <v>85</v>
-      </c>
+      <c r="B110" s="15"/>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="15"/>
+      <c r="B112" s="15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="15" t="s">
-        <v>88</v>
-      </c>
+      <c r="B114" s="15"/>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="15"/>
-    </row>
-    <row r="117" spans="2:2" ht="14.5" thickBot="1">
-      <c r="B117" s="18" t="s">
+    <row r="118" spans="2:2">
+      <c r="B118" s="15"/>
+    </row>
+    <row r="119" spans="2:2" ht="14.5" thickBot="1">
+      <c r="B119" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="14.5" thickBot="1"/>
-    <row r="119" spans="2:2">
-      <c r="B119" s="14" t="s">
+    <row r="120" spans="2:2" ht="14.5" thickBot="1"/>
+    <row r="121" spans="2:2">
+      <c r="B121" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="15"/>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="15" t="s">
-        <v>93</v>
-      </c>
+      <c r="B122" s="15"/>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="15"/>
+      <c r="B124" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="15" t="s">
-        <v>96</v>
-      </c>
+      <c r="B126" s="15"/>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="15"/>
+      <c r="B129" s="15" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="15" t="s">
-        <v>100</v>
-      </c>
+      <c r="B131" s="15"/>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="15"/>
+      <c r="B139" s="15" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="15" t="s">
-        <v>109</v>
-      </c>
+      <c r="B141" s="15"/>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="15" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="15" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="15" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="15"/>
+      <c r="B149" s="15" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="15" t="s">
-        <v>115</v>
-      </c>
+      <c r="B151" s="15"/>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="15"/>
-    </row>
-    <row r="159" spans="2:2" ht="14.5" thickBot="1">
-      <c r="B159" s="18" t="s">
+    <row r="160" spans="2:2">
+      <c r="B160" s="15"/>
+    </row>
+    <row r="161" spans="2:2" ht="14.5" thickBot="1">
+      <c r="B161" s="18" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5568,8 +10456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28B40E5-3CE0-4B31-BB49-CE06C58128C0}">
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5768,7 +10656,9 @@
       <c r="N21" s="37"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="C22" s="21"/>
       <c r="H22" s="36"/>
       <c r="I22" s="44"/>
@@ -5851,4 +10741,1277 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E22C802-6E9F-48D8-8E12-93B11F3F26BA}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A2:I210"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="22.08203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="14.5" thickBot="1">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1">
+      <c r="B15" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="61"/>
+      <c r="C29" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="C30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="D37" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="E38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="C39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="H39" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="I39" s="58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="C40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="I40" s="58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="D41" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="H41" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="I41" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="E42" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="E43">
+        <v>101</v>
+      </c>
+      <c r="F43" t="s">
+        <v>212</v>
+      </c>
+      <c r="G43">
+        <v>100000</v>
+      </c>
+      <c r="H43" s="59">
+        <v>38106</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="E44">
+        <v>102</v>
+      </c>
+      <c r="F44" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44">
+        <v>20000</v>
+      </c>
+      <c r="H44" s="59">
+        <v>37010</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="E45" s="66">
+        <v>101</v>
+      </c>
+      <c r="F45" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="G45" s="66">
+        <v>100000</v>
+      </c>
+      <c r="H45" s="67">
+        <v>38106</v>
+      </c>
+      <c r="I45" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="48" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="50"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="64"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="53"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="53"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="53"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="53"/>
+    </row>
+    <row r="56" spans="2:7" ht="14.5" thickBot="1">
+      <c r="B56" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="57"/>
+    </row>
+    <row r="58" spans="2:7" ht="14.5" thickBot="1">
+      <c r="B58" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="C59" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="50"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="C60" s="51"/>
+      <c r="D60" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="C61" s="51"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="53"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="C62" s="51"/>
+      <c r="D62" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="E62" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="C63" s="51"/>
+      <c r="E63" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="F63" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="G63" s="53"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="C64" s="51"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="C65" s="51"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="G65" s="53"/>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="C66" s="51"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="G66" s="53"/>
+    </row>
+    <row r="67" spans="3:7">
+      <c r="C67" s="51"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="F67" s="52"/>
+      <c r="G67" s="53"/>
+    </row>
+    <row r="68" spans="3:7">
+      <c r="C68" s="51"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="C69" s="51"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="53"/>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70" s="51"/>
+      <c r="D70" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+    </row>
+    <row r="71" spans="3:7">
+      <c r="C71" s="51"/>
+      <c r="D71" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="F71" s="52"/>
+      <c r="G71" s="53"/>
+    </row>
+    <row r="72" spans="3:7">
+      <c r="C72" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
+    </row>
+    <row r="73" spans="3:7" ht="14.5" thickBot="1">
+      <c r="C73" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="57"/>
+    </row>
+    <row r="75" spans="3:7">
+      <c r="C75" t="s">
+        <v>250</v>
+      </c>
+      <c r="D75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7">
+      <c r="D76" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7">
+      <c r="C78" t="s">
+        <v>256</v>
+      </c>
+      <c r="D78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="68"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="69" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="70" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="70" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="69" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="70" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="70" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="71"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="71"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="69" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="70" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="71"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="69" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="70" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="71"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="71"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="71"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="69" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="70" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="71"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="70" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="71"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="69" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="71"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="70" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="71"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="69" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="70" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="71"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="70" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="71"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="71"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="69" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="69" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="71"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="70" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="71"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="72" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="70" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="70" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="70" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="72" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="70" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="70" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="70" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="71"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="70" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="71"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="71"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="69" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="70" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="70" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="71"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="71"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="69" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="70" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="71"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="70" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="73" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="73" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="73" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="73" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="73" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="70" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="73" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="69" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="70" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="71"/>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="70" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="71"/>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="71"/>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="69" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="71"/>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="71"/>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="73" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="73" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="72" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="71"/>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="70" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="73" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="73" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="72" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="71"/>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="71"/>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="71"/>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="69" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="71"/>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="69" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="70" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="73" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="70" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="71"/>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="69" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="70" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="73" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="71"/>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="71"/>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="69" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="69" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="70" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="73" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="71"/>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="71"/>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="71"/>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="69" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="69" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="69" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="70" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="73" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="70" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B82" r:id="rId1" xr:uid="{651EADAE-C75F-4A66-835E-762E568671B0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E853B1-8FB3-40E7-8C54-828EB0BC902C}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/res/環境設定.xlsx
+++ b/res/環境設定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\0407\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E8722E-0DD9-4361-907E-610CC3462FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4423F652-3E5B-4A5F-86A9-3889E1BB90E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="690" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="360">
   <si>
     <t>MYSQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2224,15 +2224,279 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cnt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 检索男女的最少工资</t>
+  </si>
+  <si>
+    <t>-- 检索人名 去重复记录</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>distinct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 检索人名的人数</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF808080"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <t>-- union all 不会去重复记录</t>
+  </si>
+  <si>
+    <t>-- union 会去重复记录</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -2260,6 +2524,2880 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'zhang3'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'li4'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'wang5'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> age</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>all</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'zhang3'</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 模糊查询 曖昧検索</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'%a%'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'__a%'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>-- 显示性别</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>distinct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">sex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>distinct</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>when</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'man'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>when</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'women'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    teacher</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 取6-10条</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>------  左连 右连</t>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>identify_card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'my name'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>birthday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> datetime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'my birthday'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ENGINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">InnoDB  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'在留カード money '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>year_money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'my name'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'my salary'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ENGINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">InnoDB  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'国民年金year money talbe'</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 检索在留卡里所有人的年金交付情况</t>
+  </si>
+  <si>
+    <t>-- 多表连接  直连</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>birthday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">money </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>identify_card i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>year_money y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 多表连接  外连 （左外连，右外连（不用））</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">identify_card i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 检索在留卡里所有人的年金交付情况 (年金大于100000)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">identify_card i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100000</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 注意  副表的查询条件 要放在 on 后面，不能放在where 语句里面，如果副表的条件放在where 里面，就自动变成直连</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">identify_card i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100000</t>
+    </r>
+  </si>
+  <si>
+    <t>https://jqueryui.com/</t>
+  </si>
+  <si>
+    <t>https://datatables.net/</t>
+  </si>
+  <si>
+    <t>https://lokeshdhakar.com/projects/lightbox2/</t>
+  </si>
+  <si>
+    <r>
+      <t>VALUES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'zhao6'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>32000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> STR_TO_DATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'2023-10-04'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'%Y-%m-%d'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t xml:space="preserve"> teacher  </t>
     </r>
     <r>
@@ -2395,8 +5533,49 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>asc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>desc</t>
     </r>
+  </si>
+  <si>
+    <t>-- 除了SELECT 里面的聚合函数外，所有检索字段都要放到 group by 里</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sex</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2413,7 +5592,60 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">salary </t>
+      <t xml:space="preserve"> min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> minsalary </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    teacher </t>
+  </si>
+  <si>
+    <r>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2422,7 +5654,30 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>desc</t>
+      <t>by</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name</t>
     </r>
   </si>
   <si>
@@ -2436,7 +5691,25 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> count</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>distinct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> id</t>
     </r>
     <r>
       <rPr>
@@ -2445,6 +5718,92 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> xxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>(*)</t>
     </r>
     <r>
@@ -2454,7 +5813,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> cnt </t>
+      <t xml:space="preserve"> cnt  </t>
     </r>
     <r>
       <rPr>
@@ -2472,11 +5831,552 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> teacher</t>
-    </r>
-  </si>
-  <si>
-    <t>-- 检索男女的最少工资</t>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>t t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cnt</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex_en</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 分页(一般都要ORDER BY) 取前5条</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">identify_card i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>inner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 左连接就是有主表和副表，主表的数据要全部显示出来。</t>
+  </si>
+  <si>
+    <t>--正确写法</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">identify_card i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100000</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 错误写法</t>
+  </si>
+  <si>
+    <t>-- 做好VIEW给其他系统使用</t>
+  </si>
+  <si>
+    <r>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  v_xx </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-- 其他系统只用别名就可以了。</t>
   </si>
   <si>
     <r>
@@ -2489,7 +6389,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> sex</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2498,52 +6398,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> min</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>salary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> minsalary </t>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2561,3155 +6425,8 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> teacher </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> sex</t>
-    </r>
-  </si>
-  <si>
-    <t>-- 检索人名 去重复记录</t>
-  </si>
-  <si>
-    <r>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>distinct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> teacher</t>
-    </r>
-  </si>
-  <si>
-    <t>-- 检索人名的人数</t>
-  </si>
-  <si>
-    <r>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> teacher </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> name  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>order</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> cnt  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> teacher </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> name  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>order</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> cnt</t>
-    </r>
-  </si>
-  <si>
-    <t>-- union all 不会去重复记录</t>
-  </si>
-  <si>
-    <t>-- union 会去重复记录</t>
-  </si>
-  <si>
-    <r>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <r>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'zhang3'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> age</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>union</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>all</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'li4'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> age</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'wang5'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> age</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> t</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>union</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>all</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>union</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>where</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'zhang3'</t>
-    </r>
-  </si>
-  <si>
-    <t>-- 模糊查询 曖昧検索</t>
-  </si>
-  <si>
-    <r>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> teacher </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>where</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>like</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'%a%'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> teacher </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>where</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>like</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'__a%'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>-- 显示性别</t>
-  </si>
-  <si>
-    <r>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>distinct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">sex </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> teacher</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>distinct</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">    name</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>case</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> sex </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>when</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'1'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'man'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>when</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'0'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'women'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>end</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> sex_en</t>
-    </r>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    teacher</t>
-  </si>
-  <si>
-    <t>-- 分页 取前5条</t>
-  </si>
-  <si>
-    <r>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> teacher </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>order</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> name  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>limit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>-- 取6-10条</t>
-  </si>
-  <si>
-    <r>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> teacher </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>order</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> name  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>limit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>------  左连 右连</t>
-  </si>
-  <si>
-    <r>
-      <t>CREATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>TABLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>identify_card</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>NULL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>COMMENT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'my name'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>birthday</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> datetime </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>DEFAULT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>NULL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>COMMENT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'my birthday'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>PRIMARY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>KEY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> ENGINE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">InnoDB  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>COMMENT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'在留カード money '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CREATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>TABLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>year_money</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>COMMENT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'my name'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>money</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>DEFAULT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>NULL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>COMMENT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'my salary'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> ENGINE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">InnoDB  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>COMMENT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'国民年金year money talbe'</t>
-    </r>
-  </si>
-  <si>
-    <t>-- 检索在留卡里所有人的年金交付情况</t>
-  </si>
-  <si>
-    <t>-- 多表连接  直连</t>
-  </si>
-  <si>
-    <r>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>birthday</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">money </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>identify_card i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>year_money y</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>where</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-  </si>
-  <si>
-    <t>-- 多表连接  外连 （左外连，右外连（不用））</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">identify_card i </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>join</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> year_money y </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-  </si>
-  <si>
-    <t>-- 检索在留卡里所有人的年金交付情况 (年金大于100000)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">identify_card i </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>join</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> year_money y </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>money</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>100000</t>
-    </r>
-  </si>
-  <si>
-    <t>-- 注意  副表的查询条件 要放在 on 后面，不能放在where 语句里面，如果副表的条件放在where 里面，就自动变成直连</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">identify_card i </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>join</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> year_money y </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">name </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>where</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>money</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>100000</t>
-    </r>
-  </si>
-  <si>
-    <t>https://jqueryui.com/</t>
-  </si>
-  <si>
-    <t>https://datatables.net/</t>
-  </si>
-  <si>
-    <t>https://lokeshdhakar.com/projects/lightbox2/</t>
+      <t xml:space="preserve"> v_xx</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5913,7 +6630,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5971,12 +6688,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6126,7 +6837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6189,36 +6900,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10748,10 +11453,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A2:I210"/>
+  <dimension ref="A2:I272"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D270" sqref="D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -10792,149 +11497,121 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" t="s">
         <v>176</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="52" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="52" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="52" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="53" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="52" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52" t="s">
+      <c r="E13" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="55" t="s">
         <v>184</v>
       </c>
     </row>
@@ -10978,28 +11655,19 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="61" t="s">
+      <c r="B27" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="61" t="s">
+      <c r="B28" t="s">
         <v>195</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="61"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
     </row>
     <row r="30" spans="2:5">
       <c r="C30" t="s">
@@ -11039,19 +11707,19 @@
       <c r="D39" t="s">
         <v>218</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E39" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="G39" s="58" t="s">
+      <c r="G39" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="I39" s="58" t="s">
+      <c r="I39" s="56" t="s">
         <v>209</v>
       </c>
     </row>
@@ -11062,19 +11730,19 @@
       <c r="D40" t="s">
         <v>219</v>
       </c>
-      <c r="E40" s="58" t="s">
+      <c r="E40" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="F40" s="58" t="s">
+      <c r="F40" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="G40" s="58" t="s">
+      <c r="G40" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="H40" s="58" t="s">
+      <c r="H40" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="I40" s="58" t="s">
+      <c r="I40" s="56" t="s">
         <v>206</v>
       </c>
     </row>
@@ -11082,36 +11750,36 @@
       <c r="D41" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="60" t="s">
+      <c r="E41" t="s">
         <v>214</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" t="s">
         <v>215</v>
       </c>
-      <c r="G41" s="52" t="s">
+      <c r="G41" t="s">
         <v>216</v>
       </c>
-      <c r="H41" s="60" t="s">
+      <c r="H41" t="s">
         <v>217</v>
       </c>
-      <c r="I41" s="52" t="s">
+      <c r="I41" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="42" spans="2:9">
-      <c r="E42" s="60" t="s">
+      <c r="E42" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="60" t="s">
+      <c r="F42" t="s">
         <v>244</v>
       </c>
-      <c r="G42" s="60" t="s">
+      <c r="G42" t="s">
         <v>223</v>
       </c>
-      <c r="H42" s="60" t="s">
+      <c r="H42" t="s">
         <v>224</v>
       </c>
-      <c r="I42" s="60" t="s">
+      <c r="I42" t="s">
         <v>225</v>
       </c>
     </row>
@@ -11125,7 +11793,7 @@
       <c r="G43">
         <v>100000</v>
       </c>
-      <c r="H43" s="59">
+      <c r="H43" s="57">
         <v>38106</v>
       </c>
       <c r="I43">
@@ -11142,7 +11810,7 @@
       <c r="G44">
         <v>20000</v>
       </c>
-      <c r="H44" s="59">
+      <c r="H44" s="57">
         <v>37010</v>
       </c>
       <c r="I44">
@@ -11150,19 +11818,19 @@
       </c>
     </row>
     <row r="45" spans="2:9">
-      <c r="E45" s="66">
+      <c r="E45" s="61">
         <v>101</v>
       </c>
-      <c r="F45" s="66" t="s">
+      <c r="F45" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="G45" s="66">
+      <c r="G45" s="61">
         <v>100000</v>
       </c>
-      <c r="H45" s="67">
+      <c r="H45" s="62">
         <v>38106</v>
       </c>
-      <c r="I45" s="66">
+      <c r="I45" s="61">
         <v>1</v>
       </c>
     </row>
@@ -11191,57 +11859,47 @@
       <c r="B50" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53"/>
+      <c r="E50" s="52"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="64"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="60"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="53"/>
+      <c r="E52" s="52"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="53"/>
+      <c r="E53" s="52"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="53"/>
+      <c r="E54" s="52"/>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="53"/>
+      <c r="E55" s="52"/>
     </row>
     <row r="56" spans="2:7" ht="14.5" thickBot="1">
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="57"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="55"/>
     </row>
     <row r="58" spans="2:7" ht="14.5" thickBot="1">
       <c r="B58" t="s">
@@ -11259,134 +11917,111 @@
     </row>
     <row r="60" spans="2:7">
       <c r="C60" s="51"/>
-      <c r="D60" s="52" t="s">
+      <c r="D60" t="s">
         <v>233</v>
       </c>
-      <c r="E60" s="65" t="s">
+      <c r="E60" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
+      <c r="G60" s="52"/>
     </row>
     <row r="61" spans="2:7">
       <c r="C61" s="51"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53"/>
+      <c r="G61" s="52"/>
     </row>
     <row r="62" spans="2:7">
       <c r="C62" s="51"/>
-      <c r="D62" s="52" t="s">
+      <c r="D62" t="s">
         <v>235</v>
       </c>
-      <c r="E62" s="65" t="s">
+      <c r="E62" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
+      <c r="G62" s="52"/>
     </row>
     <row r="63" spans="2:7">
       <c r="C63" s="51"/>
-      <c r="E63" s="52" t="s">
+      <c r="E63" t="s">
         <v>236</v>
       </c>
-      <c r="F63" s="52" t="s">
+      <c r="F63" t="s">
         <v>259</v>
       </c>
-      <c r="G63" s="53"/>
+      <c r="G63" s="52"/>
     </row>
     <row r="64" spans="2:7">
       <c r="C64" s="51"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52" t="s">
+      <c r="E64" t="s">
         <v>215</v>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
+      <c r="G64" s="52"/>
     </row>
     <row r="65" spans="3:7">
       <c r="C65" s="51"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52" t="s">
+      <c r="F65" t="s">
         <v>238</v>
       </c>
-      <c r="G65" s="53"/>
+      <c r="G65" s="52"/>
     </row>
     <row r="66" spans="3:7">
       <c r="C66" s="51"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52" t="s">
+      <c r="F66" t="s">
         <v>239</v>
       </c>
-      <c r="G66" s="53"/>
+      <c r="G66" s="52"/>
     </row>
     <row r="67" spans="3:7">
       <c r="C67" s="51"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52" t="s">
+      <c r="E67" t="s">
         <v>217</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="53"/>
+      <c r="G67" s="52"/>
     </row>
     <row r="68" spans="3:7">
       <c r="C68" s="51"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52" t="s">
+      <c r="E68" t="s">
         <v>237</v>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
+      <c r="G68" s="52"/>
     </row>
     <row r="69" spans="3:7">
       <c r="C69" s="51"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53"/>
+      <c r="G69" s="52"/>
     </row>
     <row r="70" spans="3:7">
       <c r="C70" s="51"/>
-      <c r="D70" s="52" t="s">
+      <c r="D70" t="s">
         <v>240</v>
       </c>
-      <c r="E70" s="52" t="s">
+      <c r="E70" t="s">
         <v>245</v>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
+      <c r="G70" s="52"/>
     </row>
     <row r="71" spans="3:7">
       <c r="C71" s="51"/>
-      <c r="D71" s="52" t="s">
+      <c r="D71" t="s">
         <v>242</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E71" t="s">
         <v>246</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="53"/>
+      <c r="G71" s="52"/>
     </row>
     <row r="72" spans="3:7">
       <c r="C72" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
+      <c r="G72" s="52"/>
     </row>
     <row r="73" spans="3:7" ht="14.5" thickBot="1">
-      <c r="C73" s="55" t="s">
+      <c r="C73" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="57"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="55"/>
     </row>
     <row r="75" spans="3:7">
       <c r="C75" t="s">
@@ -11420,557 +12055,812 @@
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="68"/>
+      <c r="B85" s="1"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="69" t="s">
+      <c r="B86" s="63" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="70" t="s">
+      <c r="B87" s="64" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="70" t="s">
+      <c r="B88" s="64" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="70" t="s">
+      <c r="B89" s="64" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="69" t="s">
+      <c r="B90" s="65"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="64" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="64" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="64" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="65"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="65"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="65"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="65"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="65"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="65"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="63" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="70" t="s">
+    <row r="101" spans="2:2">
+      <c r="B101" s="64" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="70" t="s">
+    <row r="102" spans="2:2">
+      <c r="B102" s="64" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="71"/>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="71"/>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="69" t="s">
+    <row r="103" spans="2:2">
+      <c r="B103" s="65"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="65"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="63" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="70" t="s">
+    <row r="106" spans="2:2">
+      <c r="B106" s="64" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="71"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="69" t="s">
+    <row r="107" spans="2:2">
+      <c r="B107" s="65"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="63" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="70" t="s">
+    <row r="109" spans="2:2">
+      <c r="B109" s="64" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="71"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="71"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="69" t="s">
+    <row r="110" spans="2:2">
+      <c r="B110" s="65"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="65"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="63" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="70" t="s">
+    <row r="113" spans="2:2">
+      <c r="B113" s="64" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="71"/>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="69" t="s">
+    <row r="114" spans="2:2">
+      <c r="B114" s="65"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="63" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="70" t="s">
+    <row r="116" spans="2:2">
+      <c r="B116" s="64" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="65"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="64" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="71"/>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="70" t="s">
+    <row r="119" spans="2:2">
+      <c r="B119" s="65"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="63" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="71"/>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="69" t="s">
+    <row r="121" spans="2:2">
+      <c r="B121" s="63" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="66" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="66" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="64" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="66" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="64" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="66" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="65"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="66" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="66" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="66" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="64" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="66" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="64" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="66" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="66" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="65"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="63" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="70" t="s">
+    <row r="141" spans="2:2">
+      <c r="B141" s="64" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="71"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="69" t="s">
+    <row r="142" spans="2:2">
+      <c r="B142" s="65"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="64" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="65"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="63" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="70" t="s">
+    <row r="146" spans="2:2">
+      <c r="B146" s="64" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="71"/>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="69" t="s">
+    <row r="147" spans="2:2">
+      <c r="B147" s="65"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="65"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="64" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="65"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="65"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="63" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="70" t="s">
+    <row r="153" spans="2:2">
+      <c r="B153" s="63" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="71"/>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="70" t="s">
+    <row r="154" spans="2:2">
+      <c r="B154" s="66" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="64" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="71"/>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="71"/>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="69" t="s">
+    <row r="156" spans="2:2">
+      <c r="B156" s="65"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="67" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="69" t="s">
+    <row r="158" spans="2:2">
+      <c r="B158" s="64" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="71"/>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="70" t="s">
+    <row r="159" spans="2:2">
+      <c r="B159" s="64" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="71"/>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="72" t="s">
+    <row r="160" spans="2:2">
+      <c r="B160" s="64" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="70" t="s">
+    <row r="161" spans="2:2">
+      <c r="B161" s="64" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="64" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="70" t="s">
+    <row r="163" spans="2:2">
+      <c r="B163" s="67" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="70" t="s">
+    <row r="164" spans="2:2">
+      <c r="B164" s="64" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="70" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="70" t="s">
+    <row r="165" spans="2:2">
+      <c r="B165" s="64" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="64" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="72" t="s">
+    <row r="167" spans="2:2">
+      <c r="B167" s="64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="65"/>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="64" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="70" t="s">
+    <row r="170" spans="2:2">
+      <c r="B170" s="65"/>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="65"/>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="63" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="70" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="70" t="s">
+    <row r="173" spans="2:2">
+      <c r="B173" s="64" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="70" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="71"/>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="70" t="s">
+    <row r="174" spans="2:2">
+      <c r="B174" s="64" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="71"/>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="71"/>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="69" t="s">
+    <row r="175" spans="2:2">
+      <c r="B175" s="65"/>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="65"/>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="63" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="70" t="s">
+    <row r="178" spans="2:2">
+      <c r="B178" s="64" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="70" t="s">
+    <row r="179" spans="2:2">
+      <c r="B179" s="65"/>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="64" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="71"/>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="71"/>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="69" t="s">
+    <row r="181" spans="2:2">
+      <c r="B181" s="66" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="70" t="s">
+    <row r="182" spans="2:2">
+      <c r="B182" s="66" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="71"/>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="70" t="s">
+    <row r="183" spans="2:2">
+      <c r="B183" s="66" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="73" t="s">
+    <row r="184" spans="2:2">
+      <c r="B184" s="66" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="73" t="s">
+    <row r="185" spans="2:2">
+      <c r="B185" s="66" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="64" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="73" t="s">
+    <row r="187" spans="2:2">
+      <c r="B187" s="66" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="73" t="s">
+    <row r="188" spans="2:2">
+      <c r="B188" s="65"/>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="63" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="64" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="73" t="s">
+    <row r="191" spans="2:2">
+      <c r="B191" s="65"/>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="63" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="70" t="s">
+    <row r="193" spans="2:2">
+      <c r="B193" s="64" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="73" t="s">
+    <row r="194" spans="2:2">
+      <c r="B194" s="65"/>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="65"/>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="63" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="69" t="s">
+    <row r="197" spans="2:2">
+      <c r="B197" s="65"/>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="65"/>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="64" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="70" t="s">
+    <row r="200" spans="2:2">
+      <c r="B200" s="66" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="71"/>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="69" t="s">
+    <row r="201" spans="2:2">
+      <c r="B201" s="66" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="70" t="s">
+    <row r="202" spans="2:2">
+      <c r="B202" s="66" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="71"/>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="71"/>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="69" t="s">
+    <row r="203" spans="2:2">
+      <c r="B203" s="67" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="71"/>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="71"/>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="70" t="s">
+    <row r="204" spans="2:2">
+      <c r="B204" s="65"/>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="64" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="73" t="s">
+    <row r="206" spans="2:2">
+      <c r="B206" s="66" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="73" t="s">
+    <row r="207" spans="2:2">
+      <c r="B207" s="66" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="73" t="s">
+    <row r="208" spans="2:2">
+      <c r="B208" s="66" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="67" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="72" t="s">
+    <row r="210" spans="2:2">
+      <c r="B210" s="65"/>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="65"/>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="65"/>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="63" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="71"/>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="70" t="s">
+    <row r="214" spans="2:2">
+      <c r="B214" s="65"/>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="63" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="73" t="s">
+    <row r="216" spans="2:2">
+      <c r="B216" s="64" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="73" t="s">
+    <row r="217" spans="2:2">
+      <c r="B217" s="64" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="73" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="72" t="s">
+    <row r="218" spans="2:2">
+      <c r="B218" s="66" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="71"/>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="71"/>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="71"/>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="69" t="s">
+    <row r="219" spans="2:2">
+      <c r="B219" s="64" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="71"/>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="69" t="s">
+    <row r="220" spans="2:2">
+      <c r="B220" s="65"/>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="65"/>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="65"/>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="66" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="64" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="65"/>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="65"/>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="63" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="70" t="s">
+    <row r="230" spans="2:2">
+      <c r="B230" s="64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="66" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="70" t="s">
+    <row r="233" spans="2:2">
+      <c r="B233" s="65"/>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="65"/>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="65"/>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="65"/>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="63" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="73" t="s">
+    <row r="238" spans="2:2">
+      <c r="B238" s="63" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="63" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="66" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="70" t="s">
+    <row r="243" spans="2:2">
+      <c r="B243" s="65"/>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="65"/>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="63" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="63" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="63" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="71"/>
-    </row>
-    <row r="190" spans="2:2">
-      <c r="B190" s="69" t="s">
+    <row r="248" spans="2:2">
+      <c r="B248" s="65"/>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="63" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" s="66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="65"/>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="65"/>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="63" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="66" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
-      <c r="B191" s="70" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2">
-      <c r="B192" s="70" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="73" t="s">
+    <row r="259" spans="2:2">
+      <c r="B259" s="64" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="71"/>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="71"/>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="69" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="69" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="70" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="70" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="73" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="71"/>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="71"/>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="71"/>
-    </row>
-    <row r="204" spans="2:2">
-      <c r="B204" s="69" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="69" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206" s="69" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" s="70" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="70" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="73" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="70" t="s">
-        <v>336</v>
+    <row r="263" spans="2:2">
+      <c r="B263" s="65"/>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" s="63" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" s="64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="67" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="65"/>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="63" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="64" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -11979,6 +12869,7 @@
     <hyperlink ref="B82" r:id="rId1" xr:uid="{651EADAE-C75F-4A66-835E-762E568671B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11989,25 +12880,25 @@
   </sheetPr>
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/res/環境設定.xlsx
+++ b/res/環境設定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\0407\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4423F652-3E5B-4A5F-86A9-3889E1BB90E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B056F7-C83D-4454-A5A4-60E3B5A7C778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="690" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="690" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="JVM 变更" sheetId="9" r:id="rId7"/>
     <sheet name="数据库" sheetId="11" r:id="rId8"/>
     <sheet name="jquery plugin" sheetId="12" r:id="rId9"/>
-    <sheet name="SQL表" sheetId="10" r:id="rId10"/>
+    <sheet name="数据库的事务" sheetId="10" r:id="rId10"/>
+    <sheet name="数据库概念" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="405">
   <si>
     <t>MYSQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6427,6 +6428,168 @@
       </rPr>
       <t xml:space="preserve"> v_xx</t>
     </r>
+  </si>
+  <si>
+    <t>张三给李四汇款1000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三给李四转账1000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三银行账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四银行账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四收到张三转账1000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update 银行表 set money = money - 1000 where user = '张三'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update 银行表 set money = money + 1000  where user = '李四'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事物结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在数据库中，事务（Transaction）是一组 SQL 查询操作，它们被视为一个单独的工作单元。事务具有以下特性：</t>
+  </si>
+  <si>
+    <t>1. **原子性（Atomicity）**：事务是一个不可分割的工作单元，要么全部执行成功，要么全部回滚失败。如果在事务执行过程中发生错误，所有已执行的操作将被撤销，数据库回滚到事务开始前的状态。</t>
+  </si>
+  <si>
+    <t>2. **一致性（Consistency）**：事务执行前后，数据库必须保持一致性状态。即使事务失败，数据库也必须保持一致性。</t>
+  </si>
+  <si>
+    <t>3. **隔离性（Isolation）**：事务的执行不会被其他并发事务影响。每个事务的操作应该是相互隔离的，以避免数据并发访问引发的问题。</t>
+  </si>
+  <si>
+    <t>4. **持久性（Durability）**：一旦事务成功提交，其结果应该是永久性的，即使系统崩溃或重启，数据库也应该能够恢复到事务提交后的状态。</t>
+  </si>
+  <si>
+    <t>在 SQL 中，你可以使用以下语句来控制事务的开始、提交和回滚：</t>
+  </si>
+  <si>
+    <t>- `BEGIN TRANSACTION` 或 `START TRANSACTION`：表示事务的开始。</t>
+  </si>
+  <si>
+    <t>- `COMMIT`：表示事务的提交，将事务中的操作永久保存到数据库。</t>
+  </si>
+  <si>
+    <t>- `ROLLBACK`：表示事务的回滚，撤销事务中的操作，恢复到事务开始前的状态。</t>
+  </si>
+  <si>
+    <t>下面是一个简单的示例，演示了如何使用 SQL 语句执行事务：</t>
+  </si>
+  <si>
+    <t>```sql</t>
+  </si>
+  <si>
+    <t>START TRANSACTION;</t>
+  </si>
+  <si>
+    <t>UPDATE accounts SET balance = balance - 100 WHERE id = 1;</t>
+  </si>
+  <si>
+    <t>INSERT INTO transaction_log (account_id, amount) VALUES (1, -100);</t>
+  </si>
+  <si>
+    <t>COMMIT;</t>
+  </si>
+  <si>
+    <t>```</t>
+  </si>
+  <si>
+    <t>在这个示例中，事务包括减少账户余额和记录交易日志两个操作。如果事务中的任何一项操作失败，可以使用 `ROLLBACK` 来撤销这些操作。</t>
+  </si>
+  <si>
+    <t>如果你有特定的需求或想了解更多关于 SQL 事务的内容，请随时告诉我，我很乐意帮助你。</t>
+  </si>
+  <si>
+    <t>停电，地震，火灾等不可抗拒因素，导致下面的操作不能进行时，以上的操作要取消   rollback;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">数据库系统 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目，字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">有无默认值 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6837,7 +7000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6926,6 +7089,9 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10253,17 +10419,341 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CB6A37-6B8F-4970-9855-A2ADD57F14A8}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14.5" thickBot="1">
+      <c r="F34" t="s">
+        <v>363</v>
+      </c>
+      <c r="J34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="F35" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="J35" s="68" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="F36" s="69"/>
+      <c r="J36" s="69"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="F37" s="69"/>
+      <c r="J37" s="69"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.5" thickBot="1">
+      <c r="F38" s="70"/>
+      <c r="J38" s="70"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="C43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="D44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="E45" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14.5" thickBot="1">
+      <c r="F46" t="s">
+        <v>363</v>
+      </c>
+      <c r="J46" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="F47" s="68" t="s">
+        <v>365</v>
+      </c>
+      <c r="J47" s="68" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="F48" s="69"/>
+      <c r="J48" s="69"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="F49" s="69"/>
+      <c r="J49" s="69"/>
+    </row>
+    <row r="50" spans="2:10" ht="14.5" thickBot="1">
+      <c r="F50" s="70"/>
+      <c r="J50" s="70"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="C52" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="C54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="D55" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="J56" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="14.5" thickBot="1">
+      <c r="F57" t="s">
+        <v>363</v>
+      </c>
+      <c r="J57" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="F58" s="68" t="s">
+        <v>365</v>
+      </c>
+      <c r="J58" s="68" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="F59" s="69"/>
+      <c r="J59" s="69"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="F60" s="69"/>
+      <c r="J60" s="69"/>
+    </row>
+    <row r="61" spans="2:10" ht="14.5" thickBot="1">
+      <c r="F61" s="70"/>
+      <c r="J61" s="70"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="C62" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1ABBA2-CC07-48FC-A6B9-4A92748D608C}">
+  <dimension ref="B3:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="C7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="D8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="D9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="E11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="F12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="F13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="G15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="H16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11455,8 +11945,8 @@
   </sheetPr>
   <dimension ref="A2:I272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D270" sqref="D270"/>
+    <sheetView topLeftCell="A75" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -12881,7 +13371,7 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/res/環境設定.xlsx
+++ b/res/環境設定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\0407\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B056F7-C83D-4454-A5A4-60E3B5A7C778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EB55CA-9BF4-4F64-BC8F-6B2D6746389E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="690" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="690" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="jquery plugin" sheetId="12" r:id="rId9"/>
     <sheet name="数据库的事务" sheetId="10" r:id="rId10"/>
     <sheet name="数据库概念" sheetId="13" r:id="rId11"/>
+    <sheet name="SpringBoot" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="413">
   <si>
     <t>MYSQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6591,12 +6592,43 @@
     <t xml:space="preserve">有无默认值 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TOMCAT 启动后，会监听用户的请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registry.addViewController(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听的所有请求在下面两个位置配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1。实现 WebMvcConfigurer的类里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2。 Controller里的@RequestMapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过Controller 调用Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将数据返回给用户</t>
+  </si>
+  <si>
+    <t>Service调用DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6791,6 +6823,13 @@
       <color rgb="FFFF2800"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -7000,7 +7039,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7092,6 +7131,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9992,6 +10032,578 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>67468</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="椭圆 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44023A2-3D3D-668D-1F99-50437AE54961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2416969" y="337344"/>
+          <a:ext cx="4897437" cy="1821656"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>TOMCAT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364A480C-840A-6A47-6C44-539E7E93B340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3182937" y="892969"/>
+          <a:ext cx="1964532" cy="896937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ems-thymleaf</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400843</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91280</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>174627</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C603D799-A192-447C-B768-8CD0FFD85CE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5671343" y="821533"/>
+          <a:ext cx="1008062" cy="246063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ems-xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3967</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EA11DF-14B1-81D5-2605-B7DB649732E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662780" y="3603625"/>
+          <a:ext cx="1567657" cy="337344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>zhang3     HTML</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>128984</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>246063</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D1860D-6BB1-1A66-D83B-7BA4E277A0CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1446609" y="1742281"/>
+          <a:ext cx="1434704" cy="1861344"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>305593</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0417566F-ECDF-C00C-28A1-7F46DC16AD92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1762125" y="1873250"/>
+          <a:ext cx="1837531" cy="1853406"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>627062</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43655</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="平行四边形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94F7254-D3BB-2128-D306-D7F31DEA9482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="627062" y="2504281"/>
+          <a:ext cx="2051843" cy="194469"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 29081"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="500"/>
+            <a:t>http://localhost:9999/ems-thymeleaf/manageCompany</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="500"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>92868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD47CDB9-E7E2-484D-B448-72A56BD24B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3422649" y="1164431"/>
+          <a:ext cx="1450976" cy="304006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>后端 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>JAVA</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504031</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F009219-825C-B862-1BF7-6FFD64D94828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3627437" y="1432718"/>
+          <a:ext cx="1488282" cy="265906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>前端  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>thymeleaf</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10670,8 +11282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1ABBA2-CC07-48FC-A6B9-4A92748D608C}">
   <dimension ref="B3:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -10754,6 +11366,66 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F938AA3D-E6B8-4855-9471-AF6CED83BFE8}">
+  <dimension ref="C26:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="26" spans="3:6">
+      <c r="C26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="D27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="E28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="F29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="E31" s="71" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E31" r:id="rId1" display="XXXController里的@RequestMapping" xr:uid="{2B8AFF28-4FA0-46AE-8C59-F00E6AD20AE3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/res/環境設定.xlsx
+++ b/res/環境設定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\0407\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EB55CA-9BF4-4F64-BC8F-6B2D6746389E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1647F6CA-9CFB-41AD-BA37-45EFB37D6F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="690" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25000" windowHeight="15620" tabRatio="690" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="463">
   <si>
     <t>MYSQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6605,14 +6605,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1。实现 WebMvcConfigurer的类里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2。 Controller里的@RequestMapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过Controller 调用Service</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6621,6 +6613,745 @@
   </si>
   <si>
     <t>Service调用DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1。直接跳转画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2。重定向（重新再发一次请求）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1。实现 WebMvcConfigurer的类里（没有逻辑操作，没有值的校验，没有表检索等操作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2。 Controller里的@RequestMapping（万能的方式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/res/generatorConfigMysqlLombok.xml</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="17"/>
+        <color rgb="FF03A8D8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>tableName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>"employee"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="17"/>
+        <color rgb="FF03A8D8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="17"/>
+        <color rgb="FF03A8D8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>tableName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>"t_files"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>domainObjectName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>"UserFile"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="17"/>
+        <color rgb="FF03A8D8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="17"/>
+        <color rgb="FF03A8D8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>tableName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>"m_code"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="17"/>
+        <color rgb="FF03A8D8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="17"/>
+        <color rgb="FF03A8D8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>tableName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>"user"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>domainObjectName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TUser"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="17"/>
+        <color rgb="FF03A8D8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="17"/>
+        <color rgb="FF03A8D8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>tableName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>"student"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>domainObjectName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TStudent"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="17"/>
+        <color rgb="FF03A8D8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="17"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> tableName="t_company" domainObjectName="TCompany"&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="17"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表的真实名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCompany</t>
+  </si>
+  <si>
+    <t>JAVA的类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2。执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1。追加表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/test/java/org/mybatis/generator/plugins/LombokMyCommentGenerator.java</t>
+  </si>
+  <si>
+    <t>JAVAアプリケーション実行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3。确认生成文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/java/com/baizhi/dao/original</t>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/java/com/baizhi/entity/original</t>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/resources/com/baizhi/dao/original</t>
+  </si>
+  <si>
+    <t>数据库里的表结构，在JAVA类里面得以体现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供对表的增删改查操作，XML文件，提供SQL文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供对表的增删改查操作，JAVA文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1。自动生成操作表相关的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建Controller代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequerstMapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service类成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于进行逻辑运算和数据库操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写接收到请求所对应的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台给后台传的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String返回值 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到哪个画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.addAttribute("objLst", objList);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将JAVA里的数据传给画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建Service代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Service接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Service实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper 调用SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建HTML 一览代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/resources/templates/company/companylist.html</t>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/java/com/baizhi/service/CompanyService.java</t>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/java/com/baizhi/service/CompanyServiceImpl.java</t>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/java/com/baizhi/controller/CompanyController.java</t>
+  </si>
+  <si>
+    <t>thymleaf表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是用th:开头的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6628,7 +7359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6830,6 +7561,50 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFAAAAAA"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF808080"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FF03A8D8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFA7EC21"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF52CA11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF0080FF"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -7039,7 +7814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7132,6 +7907,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10294,13 +11079,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>128984</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>134937</xdr:rowOff>
+      <xdr:colOff>128983</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>246063</xdr:colOff>
+      <xdr:colOff>177132</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
@@ -10319,8 +11104,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1446609" y="1742281"/>
-          <a:ext cx="1434704" cy="1861344"/>
+          <a:off x="1452457" y="1824789"/>
+          <a:ext cx="1371622" cy="1749593"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10349,15 +11134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>624973</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>87312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>305593</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>173789</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10372,8 +11157,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1762125" y="1873250"/>
-          <a:ext cx="1837531" cy="1853406"/>
+          <a:off x="1948447" y="1858628"/>
+          <a:ext cx="1665830" cy="1680661"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10599,6 +11384,323 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>298235</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94859DC2-6EEE-D1FB-66C1-A66B5AF98287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2936875" y="12124531"/>
+          <a:ext cx="2838235" cy="460375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186531</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>5624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DEC473-3F06-F658-FB1C-D90ED6F16130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2865436" y="13200063"/>
+          <a:ext cx="3456783" cy="1732030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>52215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B753BF89-1596-7A97-8565-A4A807EEBFD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1976438" y="15831344"/>
+          <a:ext cx="3722687" cy="766590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>35217</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>436562</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>154166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A99F5E1-5788-59DE-0BE3-23DF6576BD67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2011655" y="17081501"/>
+          <a:ext cx="4560595" cy="1582915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72002</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>43657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>322221</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>23882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DCEE42-B578-AC8C-9133-69243E335BC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389627" y="19990595"/>
+          <a:ext cx="5727094" cy="5338037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162721</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>124686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398A200D-707F-4B32-961B-4B474FA3081E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7453313" y="20125531"/>
+          <a:ext cx="3456783" cy="1732030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>325437</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182563</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC894285-A93E-BB55-CED2-133D948C450C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3825875" y="21510625"/>
+          <a:ext cx="5786438" cy="1480344"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11371,61 +12473,1766 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F938AA3D-E6B8-4855-9471-AF6CED83BFE8}">
-  <dimension ref="C26:F35"/>
+  <dimension ref="B26:N149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="26" spans="3:6">
+    <row r="26" spans="3:7">
       <c r="C26" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" spans="3:7">
       <c r="D27" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="3:7">
       <c r="E28" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="F29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="F30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="G31" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="E33" s="71" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="F35" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="3:6">
-      <c r="F29" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6">
-      <c r="E31" s="71" t="s">
+    <row r="36" spans="2:14">
+      <c r="F36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="F37" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="33" spans="6:6">
-      <c r="F33" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" t="s">
-        <v>411</v>
-      </c>
+    <row r="38" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B38" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="50"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="51"/>
+      <c r="C40" s="72" t="s">
+        <v>415</v>
+      </c>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="52"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="51"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="52"/>
+    </row>
+    <row r="42" spans="2:14" ht="20">
+      <c r="B42" s="51"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="52"/>
+    </row>
+    <row r="43" spans="2:14" ht="20">
+      <c r="B43" s="51"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="73" t="s">
+        <v>417</v>
+      </c>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="52"/>
+    </row>
+    <row r="44" spans="2:14" ht="20">
+      <c r="B44" s="51"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73" t="s">
+        <v>418</v>
+      </c>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="52"/>
+    </row>
+    <row r="45" spans="2:14" ht="20">
+      <c r="B45" s="51"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="73" t="s">
+        <v>419</v>
+      </c>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="52"/>
+    </row>
+    <row r="46" spans="2:14" ht="20">
+      <c r="B46" s="51"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="73" t="s">
+        <v>420</v>
+      </c>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="52"/>
+    </row>
+    <row r="47" spans="2:14" ht="20">
+      <c r="B47" s="51"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="74" t="s">
+        <v>421</v>
+      </c>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="52"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="51"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="52"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="51"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72" t="s">
+        <v>422</v>
+      </c>
+      <c r="E49" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="52"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="51"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="E50" s="72" t="s">
+        <v>425</v>
+      </c>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="52"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="52"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="51"/>
+      <c r="C52" s="72" t="s">
+        <v>428</v>
+      </c>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="52"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="51"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72" t="s">
+        <v>429</v>
+      </c>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="52"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="51"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="52"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="51" t="s">
+        <v>430</v>
+      </c>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="52"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="51"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="52"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="51"/>
+      <c r="C57" s="72" t="s">
+        <v>432</v>
+      </c>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72" t="s">
+        <v>434</v>
+      </c>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="52"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="51"/>
+      <c r="C58" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="72"/>
+      <c r="N58" s="52"/>
+    </row>
+    <row r="59" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B59" s="53"/>
+      <c r="C59" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="55"/>
+    </row>
+    <row r="60" spans="2:14" ht="14.5" thickBot="1"/>
+    <row r="61" spans="2:14">
+      <c r="B61" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="50"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="51"/>
+      <c r="C62" s="72" t="s">
+        <v>439</v>
+      </c>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72" t="s">
+        <v>460</v>
+      </c>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="52"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="51"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="52"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64" s="51"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72" t="s">
+        <v>441</v>
+      </c>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="72"/>
+      <c r="N64" s="52"/>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" s="51"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72" t="s">
+        <v>442</v>
+      </c>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="72"/>
+      <c r="N65" s="52"/>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="51"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="72"/>
+      <c r="N66" s="52"/>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="51"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="72"/>
+      <c r="M67" s="72"/>
+      <c r="N67" s="52"/>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="51"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="52"/>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="51"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="72"/>
+      <c r="L69" s="72"/>
+      <c r="M69" s="72"/>
+      <c r="N69" s="52"/>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="51"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72" t="s">
+        <v>440</v>
+      </c>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="52"/>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="51"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72" t="s">
+        <v>443</v>
+      </c>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="52"/>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="51"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="72"/>
+      <c r="L72" s="72"/>
+      <c r="M72" s="72"/>
+      <c r="N72" s="52"/>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="51"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="72" t="s">
+        <v>444</v>
+      </c>
+      <c r="L73" s="72"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="52"/>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="51"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="72"/>
+      <c r="L74" s="72" t="s">
+        <v>445</v>
+      </c>
+      <c r="M74" s="72"/>
+      <c r="N74" s="52"/>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="51"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="72"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="52"/>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76" s="51"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="L76" s="72"/>
+      <c r="M76" s="72"/>
+      <c r="N76" s="52"/>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" s="51"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="72"/>
+      <c r="L77" s="72" t="s">
+        <v>447</v>
+      </c>
+      <c r="M77" s="72"/>
+      <c r="N77" s="52"/>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="B78" s="51"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="72"/>
+      <c r="J78" s="72"/>
+      <c r="K78" s="72"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="72"/>
+      <c r="N78" s="52"/>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="51"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="72"/>
+      <c r="K79" s="72" t="s">
+        <v>448</v>
+      </c>
+      <c r="L79" s="72"/>
+      <c r="M79" s="72"/>
+      <c r="N79" s="52"/>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80" s="51"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="72"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="72"/>
+      <c r="K80" s="72"/>
+      <c r="L80" s="72" t="s">
+        <v>449</v>
+      </c>
+      <c r="M80" s="72"/>
+      <c r="N80" s="52"/>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="B81" s="51"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
+      <c r="K81" s="72"/>
+      <c r="L81" s="72"/>
+      <c r="M81" s="72"/>
+      <c r="N81" s="52"/>
+    </row>
+    <row r="82" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B82" s="53"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="54"/>
+      <c r="L82" s="54"/>
+      <c r="M82" s="54"/>
+      <c r="N82" s="55"/>
+    </row>
+    <row r="83" spans="2:14" ht="14.5" thickBot="1"/>
+    <row r="84" spans="2:14">
+      <c r="B84" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="50"/>
+    </row>
+    <row r="85" spans="2:14">
+      <c r="B85" s="51"/>
+      <c r="C85" s="72" t="s">
+        <v>451</v>
+      </c>
+      <c r="D85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
+      <c r="K85" s="72"/>
+      <c r="L85" s="72"/>
+      <c r="M85" s="72"/>
+      <c r="N85" s="52"/>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86" s="51"/>
+      <c r="C86" s="72" t="s">
+        <v>452</v>
+      </c>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72" t="s">
+        <v>458</v>
+      </c>
+      <c r="F86" s="72"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="72"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="72"/>
+      <c r="K86" s="72"/>
+      <c r="L86" s="72"/>
+      <c r="M86" s="72"/>
+      <c r="N86" s="52"/>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="B87" s="51"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
+      <c r="J87" s="72"/>
+      <c r="K87" s="72"/>
+      <c r="L87" s="72"/>
+      <c r="M87" s="72"/>
+      <c r="N87" s="52"/>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="B88" s="51"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72"/>
+      <c r="J88" s="72"/>
+      <c r="K88" s="72"/>
+      <c r="L88" s="72"/>
+      <c r="M88" s="72"/>
+      <c r="N88" s="52"/>
+    </row>
+    <row r="89" spans="2:14">
+      <c r="B89" s="51"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="72"/>
+      <c r="L89" s="72"/>
+      <c r="M89" s="72"/>
+      <c r="N89" s="52"/>
+    </row>
+    <row r="90" spans="2:14">
+      <c r="B90" s="51"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
+      <c r="K90" s="72"/>
+      <c r="L90" s="72"/>
+      <c r="M90" s="72"/>
+      <c r="N90" s="52"/>
+    </row>
+    <row r="91" spans="2:14">
+      <c r="B91" s="51"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="72"/>
+      <c r="H91" s="72"/>
+      <c r="I91" s="72"/>
+      <c r="J91" s="72"/>
+      <c r="K91" s="72"/>
+      <c r="L91" s="72"/>
+      <c r="M91" s="72"/>
+      <c r="N91" s="52"/>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="B92" s="51"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="72"/>
+      <c r="K92" s="72"/>
+      <c r="L92" s="72"/>
+      <c r="M92" s="72"/>
+      <c r="N92" s="52"/>
+    </row>
+    <row r="93" spans="2:14">
+      <c r="B93" s="51"/>
+      <c r="C93" s="72" t="s">
+        <v>453</v>
+      </c>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72" t="s">
+        <v>459</v>
+      </c>
+      <c r="F93" s="72"/>
+      <c r="G93" s="72"/>
+      <c r="H93" s="72"/>
+      <c r="I93" s="72"/>
+      <c r="J93" s="72"/>
+      <c r="K93" s="72"/>
+      <c r="L93" s="72"/>
+      <c r="M93" s="72"/>
+      <c r="N93" s="52"/>
+    </row>
+    <row r="94" spans="2:14">
+      <c r="B94" s="51"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="72"/>
+      <c r="H94" s="72"/>
+      <c r="I94" s="72"/>
+      <c r="J94" s="72"/>
+      <c r="K94" s="72"/>
+      <c r="L94" s="72"/>
+      <c r="M94" s="72"/>
+      <c r="N94" s="52"/>
+    </row>
+    <row r="95" spans="2:14">
+      <c r="B95" s="51"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="72"/>
+      <c r="J95" s="72"/>
+      <c r="K95" s="72"/>
+      <c r="L95" s="72"/>
+      <c r="M95" s="72"/>
+      <c r="N95" s="52"/>
+    </row>
+    <row r="96" spans="2:14">
+      <c r="B96" s="51"/>
+      <c r="C96" s="72"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="72"/>
+      <c r="H96" s="72"/>
+      <c r="I96" s="72"/>
+      <c r="J96" s="72"/>
+      <c r="K96" s="72"/>
+      <c r="L96" s="72"/>
+      <c r="M96" s="72"/>
+      <c r="N96" s="52"/>
+    </row>
+    <row r="97" spans="2:14">
+      <c r="B97" s="51"/>
+      <c r="C97" s="72"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
+      <c r="J97" s="72"/>
+      <c r="K97" s="72" t="s">
+        <v>454</v>
+      </c>
+      <c r="L97" s="72"/>
+      <c r="M97" s="72"/>
+      <c r="N97" s="52"/>
+    </row>
+    <row r="98" spans="2:14">
+      <c r="B98" s="51"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="72"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="72"/>
+      <c r="K98" s="72"/>
+      <c r="L98" s="72"/>
+      <c r="M98" s="72"/>
+      <c r="N98" s="52"/>
+    </row>
+    <row r="99" spans="2:14">
+      <c r="B99" s="51"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+      <c r="K99" s="72"/>
+      <c r="L99" s="72"/>
+      <c r="M99" s="72"/>
+      <c r="N99" s="52"/>
+    </row>
+    <row r="100" spans="2:14">
+      <c r="B100" s="51"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="72"/>
+      <c r="H100" s="72"/>
+      <c r="I100" s="72"/>
+      <c r="J100" s="72"/>
+      <c r="K100" s="72"/>
+      <c r="L100" s="72"/>
+      <c r="M100" s="72"/>
+      <c r="N100" s="52"/>
+    </row>
+    <row r="101" spans="2:14">
+      <c r="B101" s="51"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
+      <c r="K101" s="72"/>
+      <c r="L101" s="72"/>
+      <c r="M101" s="72"/>
+      <c r="N101" s="52"/>
+    </row>
+    <row r="102" spans="2:14">
+      <c r="B102" s="51"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
+      <c r="K102" s="72"/>
+      <c r="L102" s="72"/>
+      <c r="M102" s="72"/>
+      <c r="N102" s="52"/>
+    </row>
+    <row r="103" spans="2:14">
+      <c r="B103" s="51"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="72"/>
+      <c r="H103" s="72"/>
+      <c r="I103" s="72"/>
+      <c r="J103" s="72"/>
+      <c r="K103" s="72"/>
+      <c r="L103" s="72"/>
+      <c r="M103" s="72"/>
+      <c r="N103" s="52"/>
+    </row>
+    <row r="104" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B104" s="53"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="54"/>
+      <c r="M104" s="54"/>
+      <c r="N104" s="55"/>
+    </row>
+    <row r="107" spans="2:14" ht="14.5" thickBot="1"/>
+    <row r="108" spans="2:14">
+      <c r="B108" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="49"/>
+      <c r="J108" s="49"/>
+      <c r="K108" s="49"/>
+      <c r="L108" s="49"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="50"/>
+    </row>
+    <row r="109" spans="2:14">
+      <c r="B109" s="51"/>
+      <c r="C109" s="72" t="s">
+        <v>456</v>
+      </c>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72" t="s">
+        <v>457</v>
+      </c>
+      <c r="F109" s="72"/>
+      <c r="G109" s="72"/>
+      <c r="H109" s="72"/>
+      <c r="I109" s="72"/>
+      <c r="J109" s="72"/>
+      <c r="K109" s="72"/>
+      <c r="L109" s="72"/>
+      <c r="M109" s="72"/>
+      <c r="N109" s="52"/>
+    </row>
+    <row r="110" spans="2:14">
+      <c r="B110" s="51"/>
+      <c r="C110" s="72"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="72"/>
+      <c r="H110" s="72"/>
+      <c r="I110" s="72"/>
+      <c r="J110" s="72"/>
+      <c r="K110" s="72"/>
+      <c r="L110" s="72"/>
+      <c r="M110" s="72"/>
+      <c r="N110" s="52"/>
+    </row>
+    <row r="111" spans="2:14">
+      <c r="B111" s="51"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="72"/>
+      <c r="K111" s="72"/>
+      <c r="L111" s="72"/>
+      <c r="M111" s="72"/>
+      <c r="N111" s="52"/>
+    </row>
+    <row r="112" spans="2:14">
+      <c r="B112" s="51"/>
+      <c r="C112" s="72"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="72"/>
+      <c r="H112" s="72"/>
+      <c r="I112" s="72"/>
+      <c r="J112" s="72"/>
+      <c r="K112" s="72"/>
+      <c r="L112" s="72"/>
+      <c r="M112" s="72"/>
+      <c r="N112" s="52"/>
+    </row>
+    <row r="113" spans="2:14">
+      <c r="B113" s="51"/>
+      <c r="C113" s="72"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
+      <c r="K113" s="72"/>
+      <c r="L113" s="72"/>
+      <c r="M113" s="72"/>
+      <c r="N113" s="52"/>
+    </row>
+    <row r="114" spans="2:14">
+      <c r="B114" s="51"/>
+      <c r="C114" s="72"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="72"/>
+      <c r="G114" s="72"/>
+      <c r="H114" s="72"/>
+      <c r="I114" s="72"/>
+      <c r="J114" s="72"/>
+      <c r="K114" s="72"/>
+      <c r="L114" s="72"/>
+      <c r="M114" s="72"/>
+      <c r="N114" s="52"/>
+    </row>
+    <row r="115" spans="2:14">
+      <c r="B115" s="51"/>
+      <c r="C115" s="72"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="72"/>
+      <c r="H115" s="72"/>
+      <c r="I115" s="72"/>
+      <c r="J115" s="72"/>
+      <c r="K115" s="72"/>
+      <c r="L115" s="72"/>
+      <c r="M115" s="72"/>
+      <c r="N115" s="52"/>
+    </row>
+    <row r="116" spans="2:14">
+      <c r="B116" s="51"/>
+      <c r="C116" s="72"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="72"/>
+      <c r="G116" s="72"/>
+      <c r="H116" s="72"/>
+      <c r="I116" s="72"/>
+      <c r="J116" s="72"/>
+      <c r="K116" s="72"/>
+      <c r="L116" s="72"/>
+      <c r="M116" s="72"/>
+      <c r="N116" s="52"/>
+    </row>
+    <row r="117" spans="2:14">
+      <c r="B117" s="51"/>
+      <c r="C117" s="72"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="72"/>
+      <c r="K117" s="72"/>
+      <c r="L117" s="72"/>
+      <c r="M117" s="72"/>
+      <c r="N117" s="52"/>
+    </row>
+    <row r="118" spans="2:14">
+      <c r="B118" s="51"/>
+      <c r="C118" s="72"/>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="72"/>
+      <c r="H118" s="72"/>
+      <c r="I118" s="72"/>
+      <c r="J118" s="72"/>
+      <c r="K118" s="72"/>
+      <c r="L118" s="72"/>
+      <c r="M118" s="72"/>
+      <c r="N118" s="52"/>
+    </row>
+    <row r="119" spans="2:14">
+      <c r="B119" s="51"/>
+      <c r="C119" s="72"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
+      <c r="G119" s="72"/>
+      <c r="H119" s="72"/>
+      <c r="I119" s="72"/>
+      <c r="J119" s="72"/>
+      <c r="K119" s="72"/>
+      <c r="L119" s="72"/>
+      <c r="M119" s="72"/>
+      <c r="N119" s="52"/>
+    </row>
+    <row r="120" spans="2:14">
+      <c r="B120" s="51"/>
+      <c r="C120" s="72"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="72"/>
+      <c r="L120" s="72"/>
+      <c r="M120" s="72"/>
+      <c r="N120" s="52"/>
+    </row>
+    <row r="121" spans="2:14">
+      <c r="B121" s="51"/>
+      <c r="C121" s="72"/>
+      <c r="D121" s="72"/>
+      <c r="E121" s="72"/>
+      <c r="F121" s="72"/>
+      <c r="G121" s="72"/>
+      <c r="H121" s="72"/>
+      <c r="I121" s="72"/>
+      <c r="J121" s="72"/>
+      <c r="K121" s="72"/>
+      <c r="L121" s="72"/>
+      <c r="M121" s="72"/>
+      <c r="N121" s="52"/>
+    </row>
+    <row r="122" spans="2:14">
+      <c r="B122" s="51"/>
+      <c r="C122" s="72"/>
+      <c r="D122" s="72"/>
+      <c r="E122" s="72"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="72"/>
+      <c r="I122" s="72"/>
+      <c r="J122" s="72"/>
+      <c r="K122" s="72"/>
+      <c r="L122" s="72"/>
+      <c r="M122" s="72"/>
+      <c r="N122" s="52"/>
+    </row>
+    <row r="123" spans="2:14">
+      <c r="B123" s="51"/>
+      <c r="C123" s="72"/>
+      <c r="D123" s="72"/>
+      <c r="E123" s="72"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
+      <c r="J123" s="72"/>
+      <c r="K123" s="72"/>
+      <c r="L123" s="72" t="s">
+        <v>461</v>
+      </c>
+      <c r="M123" s="72"/>
+      <c r="N123" s="52"/>
+    </row>
+    <row r="124" spans="2:14">
+      <c r="B124" s="51"/>
+      <c r="C124" s="72"/>
+      <c r="D124" s="72"/>
+      <c r="E124" s="72"/>
+      <c r="F124" s="72"/>
+      <c r="G124" s="72"/>
+      <c r="H124" s="72"/>
+      <c r="I124" s="72"/>
+      <c r="J124" s="72"/>
+      <c r="K124" s="72"/>
+      <c r="L124" s="72"/>
+      <c r="M124" s="72" t="s">
+        <v>462</v>
+      </c>
+      <c r="N124" s="52"/>
+    </row>
+    <row r="125" spans="2:14">
+      <c r="B125" s="51"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="72"/>
+      <c r="E125" s="72"/>
+      <c r="F125" s="72"/>
+      <c r="G125" s="72"/>
+      <c r="H125" s="72"/>
+      <c r="I125" s="72"/>
+      <c r="J125" s="72"/>
+      <c r="K125" s="72"/>
+      <c r="L125" s="72"/>
+      <c r="M125" s="72"/>
+      <c r="N125" s="52"/>
+    </row>
+    <row r="126" spans="2:14">
+      <c r="B126" s="51"/>
+      <c r="C126" s="72"/>
+      <c r="D126" s="72"/>
+      <c r="E126" s="72"/>
+      <c r="F126" s="72"/>
+      <c r="G126" s="72"/>
+      <c r="H126" s="72"/>
+      <c r="I126" s="72"/>
+      <c r="J126" s="72"/>
+      <c r="K126" s="72"/>
+      <c r="L126" s="72"/>
+      <c r="M126" s="72"/>
+      <c r="N126" s="52"/>
+    </row>
+    <row r="127" spans="2:14">
+      <c r="B127" s="51"/>
+      <c r="C127" s="72"/>
+      <c r="D127" s="72"/>
+      <c r="E127" s="72"/>
+      <c r="F127" s="72"/>
+      <c r="G127" s="72"/>
+      <c r="H127" s="72"/>
+      <c r="I127" s="72"/>
+      <c r="J127" s="72"/>
+      <c r="K127" s="72"/>
+      <c r="L127" s="72"/>
+      <c r="M127" s="72"/>
+      <c r="N127" s="52"/>
+    </row>
+    <row r="128" spans="2:14">
+      <c r="B128" s="51"/>
+      <c r="C128" s="72"/>
+      <c r="D128" s="72"/>
+      <c r="E128" s="72"/>
+      <c r="F128" s="72"/>
+      <c r="G128" s="72"/>
+      <c r="H128" s="72"/>
+      <c r="I128" s="72"/>
+      <c r="J128" s="72"/>
+      <c r="K128" s="72"/>
+      <c r="L128" s="72"/>
+      <c r="M128" s="72"/>
+      <c r="N128" s="52"/>
+    </row>
+    <row r="129" spans="2:14">
+      <c r="B129" s="51"/>
+      <c r="C129" s="72"/>
+      <c r="D129" s="72"/>
+      <c r="E129" s="72"/>
+      <c r="F129" s="72"/>
+      <c r="G129" s="72"/>
+      <c r="H129" s="72"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="72"/>
+      <c r="K129" s="72"/>
+      <c r="L129" s="72"/>
+      <c r="M129" s="72"/>
+      <c r="N129" s="52"/>
+    </row>
+    <row r="130" spans="2:14">
+      <c r="B130" s="51"/>
+      <c r="C130" s="72"/>
+      <c r="D130" s="72"/>
+      <c r="E130" s="72"/>
+      <c r="F130" s="72"/>
+      <c r="G130" s="72"/>
+      <c r="H130" s="72"/>
+      <c r="I130" s="72"/>
+      <c r="J130" s="72"/>
+      <c r="K130" s="72"/>
+      <c r="L130" s="72"/>
+      <c r="M130" s="72"/>
+      <c r="N130" s="52"/>
+    </row>
+    <row r="131" spans="2:14">
+      <c r="B131" s="51"/>
+      <c r="C131" s="72"/>
+      <c r="D131" s="72"/>
+      <c r="E131" s="72"/>
+      <c r="F131" s="72"/>
+      <c r="G131" s="72"/>
+      <c r="H131" s="72"/>
+      <c r="I131" s="72"/>
+      <c r="J131" s="72"/>
+      <c r="K131" s="72"/>
+      <c r="L131" s="72"/>
+      <c r="M131" s="72"/>
+      <c r="N131" s="52"/>
+    </row>
+    <row r="132" spans="2:14">
+      <c r="B132" s="51"/>
+      <c r="C132" s="72"/>
+      <c r="D132" s="72"/>
+      <c r="E132" s="72"/>
+      <c r="F132" s="72"/>
+      <c r="G132" s="72"/>
+      <c r="H132" s="72"/>
+      <c r="I132" s="72"/>
+      <c r="J132" s="72"/>
+      <c r="K132" s="72"/>
+      <c r="L132" s="72"/>
+      <c r="M132" s="72"/>
+      <c r="N132" s="52"/>
+    </row>
+    <row r="133" spans="2:14">
+      <c r="B133" s="51"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="72"/>
+      <c r="H133" s="72"/>
+      <c r="I133" s="72"/>
+      <c r="J133" s="72"/>
+      <c r="K133" s="72"/>
+      <c r="L133" s="72"/>
+      <c r="M133" s="72"/>
+      <c r="N133" s="52"/>
+    </row>
+    <row r="134" spans="2:14">
+      <c r="B134" s="51"/>
+      <c r="C134" s="72"/>
+      <c r="D134" s="72"/>
+      <c r="E134" s="72"/>
+      <c r="F134" s="72"/>
+      <c r="G134" s="72"/>
+      <c r="H134" s="72"/>
+      <c r="I134" s="72"/>
+      <c r="J134" s="72"/>
+      <c r="K134" s="72"/>
+      <c r="L134" s="72"/>
+      <c r="M134" s="72"/>
+      <c r="N134" s="52"/>
+    </row>
+    <row r="135" spans="2:14">
+      <c r="B135" s="51"/>
+      <c r="C135" s="72"/>
+      <c r="D135" s="72"/>
+      <c r="E135" s="72"/>
+      <c r="F135" s="72"/>
+      <c r="G135" s="72"/>
+      <c r="H135" s="72"/>
+      <c r="I135" s="72"/>
+      <c r="J135" s="72"/>
+      <c r="K135" s="72"/>
+      <c r="L135" s="72"/>
+      <c r="M135" s="72"/>
+      <c r="N135" s="52"/>
+    </row>
+    <row r="136" spans="2:14">
+      <c r="B136" s="51"/>
+      <c r="C136" s="72"/>
+      <c r="D136" s="72"/>
+      <c r="E136" s="72"/>
+      <c r="F136" s="72"/>
+      <c r="G136" s="72"/>
+      <c r="H136" s="72"/>
+      <c r="I136" s="72"/>
+      <c r="J136" s="72"/>
+      <c r="K136" s="72"/>
+      <c r="L136" s="72"/>
+      <c r="M136" s="72"/>
+      <c r="N136" s="52"/>
+    </row>
+    <row r="137" spans="2:14">
+      <c r="B137" s="51"/>
+      <c r="C137" s="72"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="72"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="72"/>
+      <c r="H137" s="72"/>
+      <c r="I137" s="72"/>
+      <c r="J137" s="72"/>
+      <c r="K137" s="72"/>
+      <c r="L137" s="72"/>
+      <c r="M137" s="72"/>
+      <c r="N137" s="52"/>
+    </row>
+    <row r="138" spans="2:14">
+      <c r="B138" s="51"/>
+      <c r="C138" s="72"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="72"/>
+      <c r="F138" s="72"/>
+      <c r="G138" s="72"/>
+      <c r="H138" s="72"/>
+      <c r="I138" s="72"/>
+      <c r="J138" s="72"/>
+      <c r="K138" s="72"/>
+      <c r="L138" s="72"/>
+      <c r="M138" s="72"/>
+      <c r="N138" s="52"/>
+    </row>
+    <row r="139" spans="2:14">
+      <c r="B139" s="51"/>
+      <c r="C139" s="72"/>
+      <c r="D139" s="72"/>
+      <c r="E139" s="72"/>
+      <c r="F139" s="72"/>
+      <c r="G139" s="72"/>
+      <c r="H139" s="72"/>
+      <c r="I139" s="72"/>
+      <c r="J139" s="72"/>
+      <c r="K139" s="72"/>
+      <c r="L139" s="72"/>
+      <c r="M139" s="72"/>
+      <c r="N139" s="52"/>
+    </row>
+    <row r="140" spans="2:14">
+      <c r="B140" s="51"/>
+      <c r="C140" s="72"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="72"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="72"/>
+      <c r="H140" s="72"/>
+      <c r="I140" s="72"/>
+      <c r="J140" s="72"/>
+      <c r="K140" s="72"/>
+      <c r="L140" s="72"/>
+      <c r="M140" s="72"/>
+      <c r="N140" s="52"/>
+    </row>
+    <row r="141" spans="2:14">
+      <c r="B141" s="51"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="72"/>
+      <c r="F141" s="72"/>
+      <c r="G141" s="72"/>
+      <c r="H141" s="72"/>
+      <c r="I141" s="72"/>
+      <c r="J141" s="72"/>
+      <c r="K141" s="72"/>
+      <c r="L141" s="72"/>
+      <c r="M141" s="72"/>
+      <c r="N141" s="52"/>
+    </row>
+    <row r="142" spans="2:14">
+      <c r="B142" s="51"/>
+      <c r="C142" s="72"/>
+      <c r="D142" s="72"/>
+      <c r="E142" s="72"/>
+      <c r="F142" s="72"/>
+      <c r="G142" s="72"/>
+      <c r="H142" s="72"/>
+      <c r="I142" s="72"/>
+      <c r="J142" s="72"/>
+      <c r="K142" s="72"/>
+      <c r="L142" s="72"/>
+      <c r="M142" s="72"/>
+      <c r="N142" s="52"/>
+    </row>
+    <row r="143" spans="2:14">
+      <c r="B143" s="51"/>
+      <c r="C143" s="72"/>
+      <c r="D143" s="72"/>
+      <c r="E143" s="72"/>
+      <c r="F143" s="72"/>
+      <c r="G143" s="72"/>
+      <c r="H143" s="72"/>
+      <c r="I143" s="72"/>
+      <c r="J143" s="72"/>
+      <c r="K143" s="72"/>
+      <c r="L143" s="72"/>
+      <c r="M143" s="72"/>
+      <c r="N143" s="52"/>
+    </row>
+    <row r="144" spans="2:14">
+      <c r="B144" s="51"/>
+      <c r="C144" s="72"/>
+      <c r="D144" s="72"/>
+      <c r="E144" s="72"/>
+      <c r="F144" s="72"/>
+      <c r="G144" s="72"/>
+      <c r="H144" s="72"/>
+      <c r="I144" s="72"/>
+      <c r="J144" s="72"/>
+      <c r="K144" s="72"/>
+      <c r="L144" s="72"/>
+      <c r="M144" s="72"/>
+      <c r="N144" s="52"/>
+    </row>
+    <row r="145" spans="2:14">
+      <c r="B145" s="51"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="72"/>
+      <c r="K145" s="72"/>
+      <c r="L145" s="72"/>
+      <c r="M145" s="72"/>
+      <c r="N145" s="52"/>
+    </row>
+    <row r="146" spans="2:14">
+      <c r="B146" s="51"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="72"/>
+      <c r="H146" s="72"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="72"/>
+      <c r="K146" s="72"/>
+      <c r="L146" s="72"/>
+      <c r="M146" s="72"/>
+      <c r="N146" s="52"/>
+    </row>
+    <row r="147" spans="2:14">
+      <c r="B147" s="51"/>
+      <c r="C147" s="72"/>
+      <c r="D147" s="72"/>
+      <c r="E147" s="72"/>
+      <c r="F147" s="72"/>
+      <c r="G147" s="72"/>
+      <c r="H147" s="72"/>
+      <c r="I147" s="72"/>
+      <c r="J147" s="72"/>
+      <c r="K147" s="72"/>
+      <c r="L147" s="72"/>
+      <c r="M147" s="72"/>
+      <c r="N147" s="52"/>
+    </row>
+    <row r="148" spans="2:14">
+      <c r="B148" s="51"/>
+      <c r="C148" s="72"/>
+      <c r="D148" s="72"/>
+      <c r="E148" s="72"/>
+      <c r="F148" s="72"/>
+      <c r="G148" s="72"/>
+      <c r="H148" s="72"/>
+      <c r="I148" s="72"/>
+      <c r="J148" s="72"/>
+      <c r="K148" s="72"/>
+      <c r="L148" s="72"/>
+      <c r="M148" s="72"/>
+      <c r="N148" s="52"/>
+    </row>
+    <row r="149" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B149" s="53"/>
+      <c r="C149" s="54"/>
+      <c r="D149" s="54"/>
+      <c r="E149" s="54"/>
+      <c r="F149" s="54"/>
+      <c r="G149" s="54"/>
+      <c r="H149" s="54"/>
+      <c r="I149" s="54"/>
+      <c r="J149" s="54"/>
+      <c r="K149" s="54"/>
+      <c r="L149" s="54"/>
+      <c r="M149" s="54"/>
+      <c r="N149" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E31" r:id="rId1" display="XXXController里的@RequestMapping" xr:uid="{2B8AFF28-4FA0-46AE-8C59-F00E6AD20AE3}"/>
+    <hyperlink ref="E33" r:id="rId1" display="XXXController里的@RequestMapping" xr:uid="{2B8AFF28-4FA0-46AE-8C59-F00E6AD20AE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/res/環境設定.xlsx
+++ b/res/環境設定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\0407\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1647F6CA-9CFB-41AD-BA37-45EFB37D6F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7970829-DBC1-44A6-8774-B88169596DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25000" windowHeight="15620" tabRatio="690" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25000" windowHeight="15620" tabRatio="690" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="468">
   <si>
     <t>MYSQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6632,9 +6632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/ems-thymeleaf/res/generatorConfigMysqlLombok.xml</t>
-  </si>
-  <si>
     <r>
       <t>&lt;</t>
     </r>
@@ -7223,135 +7220,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>JAVAアプリケーション実行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3。确认生成文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/java/com/baizhi/dao/original</t>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/java/com/baizhi/entity/original</t>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/resources/com/baizhi/dao/original</t>
+  </si>
+  <si>
+    <t>数据库里的表结构，在JAVA类里面得以体现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供对表的增删改查操作，XML文件，提供SQL文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供对表的增删改查操作，JAVA文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1。自动生成操作表相关的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建Controller代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequerstMapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service类成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于进行逻辑运算和数据库操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写接收到请求所对应的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台给后台传的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String返回值 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到哪个画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.addAttribute("objLst", objList);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将JAVA里的数据传给画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建Service代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Service接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Service实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper 调用SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建HTML 一览代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/resources/templates/company/companylist.html</t>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/java/com/baizhi/service/CompanyService.java</t>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/java/com/baizhi/service/CompanyServiceImpl.java</t>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/java/com/baizhi/controller/CompanyController.java</t>
+  </si>
+  <si>
+    <t>thymleaf表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是用th:开头的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/res/generatorConfigMysqlLombok.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/ems-thymeleaf/src/test/java/org/mybatis/generator/plugins/LombokMyCommentGenerator.java</t>
-  </si>
-  <si>
-    <t>JAVAアプリケーション実行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3。确认生成文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ems-thymeleaf/src/main/java/com/baizhi/dao/original</t>
-  </si>
-  <si>
-    <t>/ems-thymeleaf/src/main/java/com/baizhi/entity/original</t>
-  </si>
-  <si>
-    <t>/ems-thymeleaf/src/main/resources/com/baizhi/dao/original</t>
-  </si>
-  <si>
-    <t>数据库里的表结构，在JAVA类里面得以体现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供对表的增删改查操作，XML文件，提供SQL文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供对表的增删改查操作，JAVA文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1。自动生成操作表相关的代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建Controller代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequerstMapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service类成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于进行逻辑运算和数据库操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写接收到请求所对应的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台给后台传的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">String返回值 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转到哪个画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model.addAttribute("objLst", objList);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将JAVA里的数据传给画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建Service代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Service接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Service实现类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapper 调用SQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建HTML 一览代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ems-thymeleaf/src/main/resources/templates/company/companylist.html</t>
-  </si>
-  <si>
-    <t>/ems-thymeleaf/src/main/java/com/baizhi/service/CompanyService.java</t>
-  </si>
-  <si>
-    <t>/ems-thymeleaf/src/main/java/com/baizhi/service/CompanyServiceImpl.java</t>
-  </si>
-  <si>
-    <t>/ems-thymeleaf/src/main/java/com/baizhi/controller/CompanyController.java</t>
-  </si>
-  <si>
-    <t>thymleaf表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都是用th:开头的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/java/com/baizhi/config/MvcConfigCompany.java</t>
+  </si>
+  <si>
+    <t>5。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过画面实现对表的增删改查操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在数据库里面建一张表  t_company</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7814,7 +7835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7907,16 +7928,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11390,13 +11409,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>55562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>298235</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11434,14 +11453,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>23811</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>59532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>186531</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>5624</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>5623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11478,13 +11497,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>52215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11522,14 +11541,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>35217</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>436562</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>154166</xdr:rowOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>154165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11566,13 +11585,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>72002</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>43657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>322221</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>23882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11610,14 +11629,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>162721</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>124686</xdr:rowOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>124685</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11654,13 +11673,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>325437</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>134937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>182563</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11701,6 +11720,168 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>151423</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>11159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>264927</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>4885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0713A5F6-5A67-606C-508D-AD4EC64D399B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1470269" y="26055928"/>
+          <a:ext cx="6253466" cy="2279726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390771</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>122116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>293078</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="爆炸形: 8 pt  11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22A30C3-25C2-2CDB-BF29-1CA08F6CDFDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552463" y="2583962"/>
+          <a:ext cx="7815384" cy="2017345"/>
+        </a:xfrm>
+        <a:prstGeom prst="irregularSeal1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>404</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>错误是因为在下面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>个地方，没有处理该</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的方法</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12473,10 +12654,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F938AA3D-E6B8-4855-9471-AF6CED83BFE8}">
-  <dimension ref="B26:N149"/>
+  <dimension ref="A26:N165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -12514,1716 +12695,942 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="1:14">
       <c r="E33" s="71" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="1:14">
       <c r="F35" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="1:14">
       <c r="F36" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="1:14">
       <c r="F37" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="14.5" thickBot="1">
-      <c r="B38" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="B39" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="50"/>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="51"/>
-      <c r="C40" s="72" t="s">
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="C41" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="14.5" thickBot="1">
+      <c r="B43" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="B44" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="50"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="51"/>
+      <c r="C45" t="s">
+        <v>461</v>
+      </c>
+      <c r="N45" s="52"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="51"/>
+      <c r="N46" s="52"/>
+    </row>
+    <row r="47" spans="1:14" ht="20">
+      <c r="B47" s="51"/>
+      <c r="D47" s="72" t="s">
         <v>415</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="52"/>
-    </row>
-    <row r="41" spans="2:14">
-      <c r="B41" s="51"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="52"/>
-    </row>
-    <row r="42" spans="2:14" ht="20">
-      <c r="B42" s="51"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="73" t="s">
+      <c r="N47" s="52"/>
+    </row>
+    <row r="48" spans="1:14" ht="20">
+      <c r="B48" s="51"/>
+      <c r="D48" s="72" t="s">
         <v>416</v>
       </c>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="52"/>
-    </row>
-    <row r="43" spans="2:14" ht="20">
-      <c r="B43" s="51"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="73" t="s">
+      <c r="N48" s="52"/>
+    </row>
+    <row r="49" spans="2:14" ht="20">
+      <c r="B49" s="51"/>
+      <c r="D49" s="72" t="s">
         <v>417</v>
       </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="52"/>
-    </row>
-    <row r="44" spans="2:14" ht="20">
-      <c r="B44" s="51"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73" t="s">
+      <c r="N49" s="52"/>
+    </row>
+    <row r="50" spans="2:14" ht="20">
+      <c r="B50" s="51"/>
+      <c r="D50" s="72" t="s">
         <v>418</v>
       </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="52"/>
-    </row>
-    <row r="45" spans="2:14" ht="20">
-      <c r="B45" s="51"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="73" t="s">
+      <c r="N50" s="52"/>
+    </row>
+    <row r="51" spans="2:14" ht="20">
+      <c r="B51" s="51"/>
+      <c r="D51" s="72" t="s">
         <v>419</v>
       </c>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="52"/>
-    </row>
-    <row r="46" spans="2:14" ht="20">
-      <c r="B46" s="51"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="73" t="s">
+      <c r="N51" s="52"/>
+    </row>
+    <row r="52" spans="2:14" ht="20">
+      <c r="B52" s="51"/>
+      <c r="D52" s="73" t="s">
         <v>420</v>
       </c>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="52"/>
-    </row>
-    <row r="47" spans="2:14" ht="20">
-      <c r="B47" s="51"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="74" t="s">
-        <v>421</v>
-      </c>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="52"/>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="B48" s="51"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="52"/>
-    </row>
-    <row r="49" spans="2:14">
-      <c r="B49" s="51"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72" t="s">
-        <v>422</v>
-      </c>
-      <c r="E49" s="72" t="s">
-        <v>423</v>
-      </c>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="52"/>
-    </row>
-    <row r="50" spans="2:14">
-      <c r="B50" s="51"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72" t="s">
-        <v>424</v>
-      </c>
-      <c r="E50" s="72" t="s">
-        <v>425</v>
-      </c>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="52"/>
-    </row>
-    <row r="51" spans="2:14">
-      <c r="B51" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="52"/>
-    </row>
-    <row r="52" spans="2:14">
-      <c r="B52" s="51"/>
-      <c r="C52" s="72" t="s">
-        <v>428</v>
-      </c>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
       <c r="N52" s="52"/>
     </row>
     <row r="53" spans="2:14">
       <c r="B53" s="51"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72" t="s">
-        <v>429</v>
-      </c>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
       <c r="N53" s="52"/>
     </row>
     <row r="54" spans="2:14">
       <c r="B54" s="51"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
+      <c r="D54" t="s">
+        <v>421</v>
+      </c>
+      <c r="E54" t="s">
+        <v>422</v>
+      </c>
       <c r="N54" s="52"/>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="51" t="s">
-        <v>430</v>
-      </c>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
+      <c r="B55" s="51"/>
+      <c r="D55" t="s">
+        <v>423</v>
+      </c>
+      <c r="E55" t="s">
+        <v>424</v>
+      </c>
       <c r="N55" s="52"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="51"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
+      <c r="B56" s="51" t="s">
+        <v>425</v>
+      </c>
       <c r="N56" s="52"/>
     </row>
     <row r="57" spans="2:14">
       <c r="B57" s="51"/>
-      <c r="C57" s="72" t="s">
-        <v>432</v>
-      </c>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72" t="s">
-        <v>434</v>
-      </c>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
+      <c r="C57" t="s">
+        <v>462</v>
+      </c>
       <c r="N57" s="52"/>
     </row>
     <row r="58" spans="2:14">
       <c r="B58" s="51"/>
-      <c r="C58" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="76" t="s">
-        <v>436</v>
-      </c>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="72"/>
+      <c r="D58" t="s">
+        <v>427</v>
+      </c>
       <c r="N58" s="52"/>
     </row>
-    <row r="59" spans="2:14" ht="14.5" thickBot="1">
-      <c r="B59" s="53"/>
-      <c r="C59" s="77" t="s">
-        <v>433</v>
-      </c>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77" t="s">
-        <v>435</v>
-      </c>
-      <c r="J59" s="77"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="55"/>
-    </row>
-    <row r="60" spans="2:14" ht="14.5" thickBot="1"/>
+    <row r="59" spans="2:14">
+      <c r="B59" s="51"/>
+      <c r="N59" s="52"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="N60" s="52"/>
+    </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="50"/>
+      <c r="B61" s="51"/>
+      <c r="N61" s="52"/>
     </row>
     <row r="62" spans="2:14">
       <c r="B62" s="51"/>
-      <c r="C62" s="72" t="s">
-        <v>439</v>
-      </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72" t="s">
-        <v>460</v>
-      </c>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
+      <c r="C62" t="s">
+        <v>430</v>
+      </c>
+      <c r="I62" t="s">
+        <v>432</v>
+      </c>
       <c r="N62" s="52"/>
     </row>
     <row r="63" spans="2:14">
       <c r="B63" s="51"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
+      <c r="C63" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
       <c r="N63" s="52"/>
     </row>
-    <row r="64" spans="2:14">
-      <c r="B64" s="51"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72" t="s">
-        <v>441</v>
-      </c>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="72"/>
-      <c r="N64" s="52"/>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" s="51"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72" t="s">
-        <v>442</v>
-      </c>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="72"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="72"/>
-      <c r="N65" s="52"/>
-    </row>
+    <row r="64" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B64" s="53"/>
+      <c r="C64" s="74" t="s">
+        <v>431</v>
+      </c>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="55"/>
+    </row>
+    <row r="65" spans="2:14" ht="14.5" thickBot="1"/>
     <row r="66" spans="2:14">
-      <c r="B66" s="51"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="72"/>
-      <c r="K66" s="72"/>
-      <c r="L66" s="72"/>
-      <c r="M66" s="72"/>
-      <c r="N66" s="52"/>
+      <c r="B66" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="50"/>
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="51"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
+      <c r="C67" t="s">
+        <v>437</v>
+      </c>
+      <c r="E67" t="s">
+        <v>458</v>
+      </c>
       <c r="N67" s="52"/>
     </row>
     <row r="68" spans="2:14">
       <c r="B68" s="51"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="72"/>
-      <c r="K68" s="72"/>
-      <c r="L68" s="72"/>
-      <c r="M68" s="72"/>
       <c r="N68" s="52"/>
     </row>
     <row r="69" spans="2:14">
       <c r="B69" s="51"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="72"/>
-      <c r="K69" s="72"/>
-      <c r="L69" s="72"/>
-      <c r="M69" s="72"/>
+      <c r="D69" t="s">
+        <v>439</v>
+      </c>
       <c r="N69" s="52"/>
     </row>
     <row r="70" spans="2:14">
       <c r="B70" s="51"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72" t="s">
+      <c r="E70" t="s">
         <v>440</v>
       </c>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="72"/>
-      <c r="I70" s="72"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="72"/>
       <c r="N70" s="52"/>
     </row>
     <row r="71" spans="2:14">
       <c r="B71" s="51"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72" t="s">
-        <v>443</v>
-      </c>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="72"/>
-      <c r="K71" s="72"/>
-      <c r="L71" s="72"/>
-      <c r="M71" s="72"/>
       <c r="N71" s="52"/>
     </row>
     <row r="72" spans="2:14">
       <c r="B72" s="51"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="72"/>
-      <c r="J72" s="72"/>
-      <c r="K72" s="72"/>
-      <c r="L72" s="72"/>
-      <c r="M72" s="72"/>
       <c r="N72" s="52"/>
     </row>
     <row r="73" spans="2:14">
       <c r="B73" s="51"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72" t="s">
-        <v>444</v>
-      </c>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
       <c r="N73" s="52"/>
     </row>
     <row r="74" spans="2:14">
       <c r="B74" s="51"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="72"/>
-      <c r="K74" s="72"/>
-      <c r="L74" s="72" t="s">
-        <v>445</v>
-      </c>
-      <c r="M74" s="72"/>
       <c r="N74" s="52"/>
     </row>
     <row r="75" spans="2:14">
       <c r="B75" s="51"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="72"/>
-      <c r="L75" s="72"/>
-      <c r="M75" s="72"/>
+      <c r="D75" t="s">
+        <v>438</v>
+      </c>
       <c r="N75" s="52"/>
     </row>
     <row r="76" spans="2:14">
       <c r="B76" s="51"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="72"/>
-      <c r="K76" s="72" t="s">
-        <v>446</v>
-      </c>
-      <c r="L76" s="72"/>
-      <c r="M76" s="72"/>
+      <c r="E76" t="s">
+        <v>441</v>
+      </c>
       <c r="N76" s="52"/>
     </row>
     <row r="77" spans="2:14">
       <c r="B77" s="51"/>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="72"/>
-      <c r="K77" s="72"/>
-      <c r="L77" s="72" t="s">
-        <v>447</v>
-      </c>
-      <c r="M77" s="72"/>
       <c r="N77" s="52"/>
     </row>
     <row r="78" spans="2:14">
       <c r="B78" s="51"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="72"/>
-      <c r="I78" s="72"/>
-      <c r="J78" s="72"/>
-      <c r="K78" s="72"/>
-      <c r="L78" s="72"/>
-      <c r="M78" s="72"/>
+      <c r="K78" t="s">
+        <v>442</v>
+      </c>
       <c r="N78" s="52"/>
     </row>
     <row r="79" spans="2:14">
       <c r="B79" s="51"/>
-      <c r="C79" s="72"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="72"/>
-      <c r="K79" s="72" t="s">
-        <v>448</v>
-      </c>
-      <c r="L79" s="72"/>
-      <c r="M79" s="72"/>
+      <c r="L79" t="s">
+        <v>443</v>
+      </c>
       <c r="N79" s="52"/>
     </row>
     <row r="80" spans="2:14">
       <c r="B80" s="51"/>
-      <c r="C80" s="72"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="72"/>
-      <c r="J80" s="72"/>
-      <c r="K80" s="72"/>
-      <c r="L80" s="72" t="s">
-        <v>449</v>
-      </c>
-      <c r="M80" s="72"/>
       <c r="N80" s="52"/>
     </row>
     <row r="81" spans="2:14">
       <c r="B81" s="51"/>
-      <c r="C81" s="72"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="72"/>
-      <c r="I81" s="72"/>
-      <c r="J81" s="72"/>
-      <c r="K81" s="72"/>
-      <c r="L81" s="72"/>
-      <c r="M81" s="72"/>
+      <c r="K81" t="s">
+        <v>444</v>
+      </c>
       <c r="N81" s="52"/>
     </row>
-    <row r="82" spans="2:14" ht="14.5" thickBot="1">
-      <c r="B82" s="53"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="54"/>
-      <c r="M82" s="54"/>
-      <c r="N82" s="55"/>
-    </row>
-    <row r="83" spans="2:14" ht="14.5" thickBot="1"/>
+    <row r="82" spans="2:14">
+      <c r="B82" s="51"/>
+      <c r="L82" t="s">
+        <v>445</v>
+      </c>
+      <c r="N82" s="52"/>
+    </row>
+    <row r="83" spans="2:14">
+      <c r="B83" s="51"/>
+      <c r="N83" s="52"/>
+    </row>
     <row r="84" spans="2:14">
-      <c r="B84" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="49"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="49"/>
-      <c r="N84" s="50"/>
+      <c r="B84" s="51"/>
+      <c r="K84" t="s">
+        <v>446</v>
+      </c>
+      <c r="N84" s="52"/>
     </row>
     <row r="85" spans="2:14">
       <c r="B85" s="51"/>
-      <c r="C85" s="72" t="s">
-        <v>451</v>
-      </c>
-      <c r="D85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="72"/>
-      <c r="J85" s="72"/>
-      <c r="K85" s="72"/>
-      <c r="L85" s="72"/>
-      <c r="M85" s="72"/>
+      <c r="L85" t="s">
+        <v>447</v>
+      </c>
       <c r="N85" s="52"/>
     </row>
     <row r="86" spans="2:14">
       <c r="B86" s="51"/>
-      <c r="C86" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="D86" s="72"/>
-      <c r="E86" s="72" t="s">
-        <v>458</v>
-      </c>
-      <c r="F86" s="72"/>
-      <c r="G86" s="72"/>
-      <c r="H86" s="72"/>
-      <c r="I86" s="72"/>
-      <c r="J86" s="72"/>
-      <c r="K86" s="72"/>
-      <c r="L86" s="72"/>
-      <c r="M86" s="72"/>
       <c r="N86" s="52"/>
     </row>
-    <row r="87" spans="2:14">
-      <c r="B87" s="51"/>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
-      <c r="J87" s="72"/>
-      <c r="K87" s="72"/>
-      <c r="L87" s="72"/>
-      <c r="M87" s="72"/>
-      <c r="N87" s="52"/>
-    </row>
-    <row r="88" spans="2:14">
-      <c r="B88" s="51"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="72"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="72"/>
-      <c r="G88" s="72"/>
-      <c r="H88" s="72"/>
-      <c r="I88" s="72"/>
-      <c r="J88" s="72"/>
-      <c r="K88" s="72"/>
-      <c r="L88" s="72"/>
-      <c r="M88" s="72"/>
-      <c r="N88" s="52"/>
-    </row>
+    <row r="87" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B87" s="53"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="54"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="54"/>
+      <c r="N87" s="55"/>
+    </row>
+    <row r="88" spans="2:14" ht="14.5" thickBot="1"/>
     <row r="89" spans="2:14">
-      <c r="B89" s="51"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="72"/>
-      <c r="L89" s="72"/>
-      <c r="M89" s="72"/>
-      <c r="N89" s="52"/>
+      <c r="B89" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="50"/>
     </row>
     <row r="90" spans="2:14">
       <c r="B90" s="51"/>
-      <c r="C90" s="72"/>
-      <c r="D90" s="72"/>
-      <c r="E90" s="72"/>
-      <c r="F90" s="72"/>
-      <c r="G90" s="72"/>
-      <c r="H90" s="72"/>
-      <c r="I90" s="72"/>
-      <c r="J90" s="72"/>
-      <c r="K90" s="72"/>
-      <c r="L90" s="72"/>
-      <c r="M90" s="72"/>
+      <c r="C90" t="s">
+        <v>449</v>
+      </c>
       <c r="N90" s="52"/>
     </row>
     <row r="91" spans="2:14">
       <c r="B91" s="51"/>
-      <c r="C91" s="72"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="72"/>
-      <c r="J91" s="72"/>
-      <c r="K91" s="72"/>
-      <c r="L91" s="72"/>
-      <c r="M91" s="72"/>
+      <c r="C91" t="s">
+        <v>450</v>
+      </c>
+      <c r="E91" t="s">
+        <v>456</v>
+      </c>
       <c r="N91" s="52"/>
     </row>
     <row r="92" spans="2:14">
       <c r="B92" s="51"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="72"/>
-      <c r="H92" s="72"/>
-      <c r="I92" s="72"/>
-      <c r="J92" s="72"/>
-      <c r="K92" s="72"/>
-      <c r="L92" s="72"/>
-      <c r="M92" s="72"/>
       <c r="N92" s="52"/>
     </row>
     <row r="93" spans="2:14">
       <c r="B93" s="51"/>
-      <c r="C93" s="72" t="s">
-        <v>453</v>
-      </c>
-      <c r="D93" s="72"/>
-      <c r="E93" s="72" t="s">
-        <v>459</v>
-      </c>
-      <c r="F93" s="72"/>
-      <c r="G93" s="72"/>
-      <c r="H93" s="72"/>
-      <c r="I93" s="72"/>
-      <c r="J93" s="72"/>
-      <c r="K93" s="72"/>
-      <c r="L93" s="72"/>
-      <c r="M93" s="72"/>
       <c r="N93" s="52"/>
     </row>
     <row r="94" spans="2:14">
       <c r="B94" s="51"/>
-      <c r="C94" s="72"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="72"/>
-      <c r="F94" s="72"/>
-      <c r="G94" s="72"/>
-      <c r="H94" s="72"/>
-      <c r="I94" s="72"/>
-      <c r="J94" s="72"/>
-      <c r="K94" s="72"/>
-      <c r="L94" s="72"/>
-      <c r="M94" s="72"/>
       <c r="N94" s="52"/>
     </row>
     <row r="95" spans="2:14">
       <c r="B95" s="51"/>
-      <c r="C95" s="72"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
-      <c r="H95" s="72"/>
-      <c r="I95" s="72"/>
-      <c r="J95" s="72"/>
-      <c r="K95" s="72"/>
-      <c r="L95" s="72"/>
-      <c r="M95" s="72"/>
       <c r="N95" s="52"/>
     </row>
     <row r="96" spans="2:14">
       <c r="B96" s="51"/>
-      <c r="C96" s="72"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="72"/>
-      <c r="H96" s="72"/>
-      <c r="I96" s="72"/>
-      <c r="J96" s="72"/>
-      <c r="K96" s="72"/>
-      <c r="L96" s="72"/>
-      <c r="M96" s="72"/>
       <c r="N96" s="52"/>
     </row>
     <row r="97" spans="2:14">
       <c r="B97" s="51"/>
-      <c r="C97" s="72"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="72"/>
-      <c r="I97" s="72"/>
-      <c r="J97" s="72"/>
-      <c r="K97" s="72" t="s">
-        <v>454</v>
-      </c>
-      <c r="L97" s="72"/>
-      <c r="M97" s="72"/>
       <c r="N97" s="52"/>
     </row>
     <row r="98" spans="2:14">
       <c r="B98" s="51"/>
-      <c r="C98" s="72"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="72"/>
-      <c r="H98" s="72"/>
-      <c r="I98" s="72"/>
-      <c r="J98" s="72"/>
-      <c r="K98" s="72"/>
-      <c r="L98" s="72"/>
-      <c r="M98" s="72"/>
+      <c r="C98" t="s">
+        <v>451</v>
+      </c>
+      <c r="E98" t="s">
+        <v>457</v>
+      </c>
       <c r="N98" s="52"/>
     </row>
     <row r="99" spans="2:14">
       <c r="B99" s="51"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="72"/>
-      <c r="H99" s="72"/>
-      <c r="I99" s="72"/>
-      <c r="J99" s="72"/>
-      <c r="K99" s="72"/>
-      <c r="L99" s="72"/>
-      <c r="M99" s="72"/>
       <c r="N99" s="52"/>
     </row>
     <row r="100" spans="2:14">
       <c r="B100" s="51"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="72"/>
-      <c r="I100" s="72"/>
-      <c r="J100" s="72"/>
-      <c r="K100" s="72"/>
-      <c r="L100" s="72"/>
-      <c r="M100" s="72"/>
       <c r="N100" s="52"/>
     </row>
     <row r="101" spans="2:14">
       <c r="B101" s="51"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
-      <c r="K101" s="72"/>
-      <c r="L101" s="72"/>
-      <c r="M101" s="72"/>
       <c r="N101" s="52"/>
     </row>
     <row r="102" spans="2:14">
       <c r="B102" s="51"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="72"/>
-      <c r="H102" s="72"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="72"/>
-      <c r="K102" s="72"/>
-      <c r="L102" s="72"/>
-      <c r="M102" s="72"/>
+      <c r="K102" t="s">
+        <v>452</v>
+      </c>
       <c r="N102" s="52"/>
     </row>
     <row r="103" spans="2:14">
       <c r="B103" s="51"/>
-      <c r="C103" s="72"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="72"/>
-      <c r="H103" s="72"/>
-      <c r="I103" s="72"/>
-      <c r="J103" s="72"/>
-      <c r="K103" s="72"/>
-      <c r="L103" s="72"/>
-      <c r="M103" s="72"/>
       <c r="N103" s="52"/>
     </row>
-    <row r="104" spans="2:14" ht="14.5" thickBot="1">
-      <c r="B104" s="53"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="55"/>
-    </row>
-    <row r="107" spans="2:14" ht="14.5" thickBot="1"/>
+    <row r="104" spans="2:14">
+      <c r="B104" s="51"/>
+      <c r="N104" s="52"/>
+    </row>
+    <row r="105" spans="2:14">
+      <c r="B105" s="51"/>
+      <c r="N105" s="52"/>
+    </row>
+    <row r="106" spans="2:14">
+      <c r="B106" s="51"/>
+      <c r="N106" s="52"/>
+    </row>
+    <row r="107" spans="2:14">
+      <c r="B107" s="51"/>
+      <c r="N107" s="52"/>
+    </row>
     <row r="108" spans="2:14">
-      <c r="B108" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49"/>
-      <c r="E108" s="49"/>
-      <c r="F108" s="49"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="49"/>
-      <c r="I108" s="49"/>
-      <c r="J108" s="49"/>
-      <c r="K108" s="49"/>
-      <c r="L108" s="49"/>
-      <c r="M108" s="49"/>
-      <c r="N108" s="50"/>
-    </row>
-    <row r="109" spans="2:14">
-      <c r="B109" s="51"/>
-      <c r="C109" s="72" t="s">
-        <v>456</v>
-      </c>
-      <c r="D109" s="72"/>
-      <c r="E109" s="72" t="s">
-        <v>457</v>
-      </c>
-      <c r="F109" s="72"/>
-      <c r="G109" s="72"/>
-      <c r="H109" s="72"/>
-      <c r="I109" s="72"/>
-      <c r="J109" s="72"/>
-      <c r="K109" s="72"/>
-      <c r="L109" s="72"/>
-      <c r="M109" s="72"/>
-      <c r="N109" s="52"/>
-    </row>
-    <row r="110" spans="2:14">
-      <c r="B110" s="51"/>
-      <c r="C110" s="72"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="72"/>
-      <c r="G110" s="72"/>
-      <c r="H110" s="72"/>
-      <c r="I110" s="72"/>
-      <c r="J110" s="72"/>
-      <c r="K110" s="72"/>
-      <c r="L110" s="72"/>
-      <c r="M110" s="72"/>
-      <c r="N110" s="52"/>
-    </row>
-    <row r="111" spans="2:14">
-      <c r="B111" s="51"/>
-      <c r="C111" s="72"/>
-      <c r="D111" s="72"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="72"/>
-      <c r="G111" s="72"/>
-      <c r="H111" s="72"/>
-      <c r="I111" s="72"/>
-      <c r="J111" s="72"/>
-      <c r="K111" s="72"/>
-      <c r="L111" s="72"/>
-      <c r="M111" s="72"/>
-      <c r="N111" s="52"/>
-    </row>
-    <row r="112" spans="2:14">
-      <c r="B112" s="51"/>
-      <c r="C112" s="72"/>
-      <c r="D112" s="72"/>
-      <c r="E112" s="72"/>
-      <c r="F112" s="72"/>
-      <c r="G112" s="72"/>
-      <c r="H112" s="72"/>
-      <c r="I112" s="72"/>
-      <c r="J112" s="72"/>
-      <c r="K112" s="72"/>
-      <c r="L112" s="72"/>
-      <c r="M112" s="72"/>
-      <c r="N112" s="52"/>
-    </row>
+      <c r="B108" s="51"/>
+      <c r="N108" s="52"/>
+    </row>
+    <row r="109" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B109" s="53"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="54"/>
+      <c r="M109" s="54"/>
+      <c r="N109" s="55"/>
+    </row>
+    <row r="112" spans="2:14" ht="14.5" thickBot="1"/>
     <row r="113" spans="2:14">
-      <c r="B113" s="51"/>
-      <c r="C113" s="72"/>
-      <c r="D113" s="72"/>
-      <c r="E113" s="72"/>
-      <c r="F113" s="72"/>
-      <c r="G113" s="72"/>
-      <c r="H113" s="72"/>
-      <c r="I113" s="72"/>
-      <c r="J113" s="72"/>
-      <c r="K113" s="72"/>
-      <c r="L113" s="72"/>
-      <c r="M113" s="72"/>
-      <c r="N113" s="52"/>
+      <c r="B113" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="49"/>
+      <c r="I113" s="49"/>
+      <c r="J113" s="49"/>
+      <c r="K113" s="49"/>
+      <c r="L113" s="49"/>
+      <c r="M113" s="49"/>
+      <c r="N113" s="50"/>
     </row>
     <row r="114" spans="2:14">
       <c r="B114" s="51"/>
-      <c r="C114" s="72"/>
-      <c r="D114" s="72"/>
-      <c r="E114" s="72"/>
-      <c r="F114" s="72"/>
-      <c r="G114" s="72"/>
-      <c r="H114" s="72"/>
-      <c r="I114" s="72"/>
-      <c r="J114" s="72"/>
-      <c r="K114" s="72"/>
-      <c r="L114" s="72"/>
-      <c r="M114" s="72"/>
+      <c r="C114" t="s">
+        <v>454</v>
+      </c>
+      <c r="E114" t="s">
+        <v>455</v>
+      </c>
       <c r="N114" s="52"/>
     </row>
     <row r="115" spans="2:14">
       <c r="B115" s="51"/>
-      <c r="C115" s="72"/>
-      <c r="D115" s="72"/>
-      <c r="E115" s="72"/>
-      <c r="F115" s="72"/>
-      <c r="G115" s="72"/>
-      <c r="H115" s="72"/>
-      <c r="I115" s="72"/>
-      <c r="J115" s="72"/>
-      <c r="K115" s="72"/>
-      <c r="L115" s="72"/>
-      <c r="M115" s="72"/>
       <c r="N115" s="52"/>
     </row>
     <row r="116" spans="2:14">
       <c r="B116" s="51"/>
-      <c r="C116" s="72"/>
-      <c r="D116" s="72"/>
-      <c r="E116" s="72"/>
-      <c r="F116" s="72"/>
-      <c r="G116" s="72"/>
-      <c r="H116" s="72"/>
-      <c r="I116" s="72"/>
-      <c r="J116" s="72"/>
-      <c r="K116" s="72"/>
-      <c r="L116" s="72"/>
-      <c r="M116" s="72"/>
       <c r="N116" s="52"/>
     </row>
     <row r="117" spans="2:14">
       <c r="B117" s="51"/>
-      <c r="C117" s="72"/>
-      <c r="D117" s="72"/>
-      <c r="E117" s="72"/>
-      <c r="F117" s="72"/>
-      <c r="G117" s="72"/>
-      <c r="H117" s="72"/>
-      <c r="I117" s="72"/>
-      <c r="J117" s="72"/>
-      <c r="K117" s="72"/>
-      <c r="L117" s="72"/>
-      <c r="M117" s="72"/>
       <c r="N117" s="52"/>
     </row>
     <row r="118" spans="2:14">
       <c r="B118" s="51"/>
-      <c r="C118" s="72"/>
-      <c r="D118" s="72"/>
-      <c r="E118" s="72"/>
-      <c r="F118" s="72"/>
-      <c r="G118" s="72"/>
-      <c r="H118" s="72"/>
-      <c r="I118" s="72"/>
-      <c r="J118" s="72"/>
-      <c r="K118" s="72"/>
-      <c r="L118" s="72"/>
-      <c r="M118" s="72"/>
       <c r="N118" s="52"/>
     </row>
     <row r="119" spans="2:14">
       <c r="B119" s="51"/>
-      <c r="C119" s="72"/>
-      <c r="D119" s="72"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="72"/>
-      <c r="G119" s="72"/>
-      <c r="H119" s="72"/>
-      <c r="I119" s="72"/>
-      <c r="J119" s="72"/>
-      <c r="K119" s="72"/>
-      <c r="L119" s="72"/>
-      <c r="M119" s="72"/>
       <c r="N119" s="52"/>
     </row>
     <row r="120" spans="2:14">
       <c r="B120" s="51"/>
-      <c r="C120" s="72"/>
-      <c r="D120" s="72"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="72"/>
-      <c r="H120" s="72"/>
-      <c r="I120" s="72"/>
-      <c r="J120" s="72"/>
-      <c r="K120" s="72"/>
-      <c r="L120" s="72"/>
-      <c r="M120" s="72"/>
       <c r="N120" s="52"/>
     </row>
     <row r="121" spans="2:14">
       <c r="B121" s="51"/>
-      <c r="C121" s="72"/>
-      <c r="D121" s="72"/>
-      <c r="E121" s="72"/>
-      <c r="F121" s="72"/>
-      <c r="G121" s="72"/>
-      <c r="H121" s="72"/>
-      <c r="I121" s="72"/>
-      <c r="J121" s="72"/>
-      <c r="K121" s="72"/>
-      <c r="L121" s="72"/>
-      <c r="M121" s="72"/>
       <c r="N121" s="52"/>
     </row>
     <row r="122" spans="2:14">
       <c r="B122" s="51"/>
-      <c r="C122" s="72"/>
-      <c r="D122" s="72"/>
-      <c r="E122" s="72"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="72"/>
-      <c r="H122" s="72"/>
-      <c r="I122" s="72"/>
-      <c r="J122" s="72"/>
-      <c r="K122" s="72"/>
-      <c r="L122" s="72"/>
-      <c r="M122" s="72"/>
       <c r="N122" s="52"/>
     </row>
     <row r="123" spans="2:14">
       <c r="B123" s="51"/>
-      <c r="C123" s="72"/>
-      <c r="D123" s="72"/>
-      <c r="E123" s="72"/>
-      <c r="F123" s="72"/>
-      <c r="G123" s="72"/>
-      <c r="H123" s="72"/>
-      <c r="I123" s="72"/>
-      <c r="J123" s="72"/>
-      <c r="K123" s="72"/>
-      <c r="L123" s="72" t="s">
-        <v>461</v>
-      </c>
-      <c r="M123" s="72"/>
       <c r="N123" s="52"/>
     </row>
     <row r="124" spans="2:14">
       <c r="B124" s="51"/>
-      <c r="C124" s="72"/>
-      <c r="D124" s="72"/>
-      <c r="E124" s="72"/>
-      <c r="F124" s="72"/>
-      <c r="G124" s="72"/>
-      <c r="H124" s="72"/>
-      <c r="I124" s="72"/>
-      <c r="J124" s="72"/>
-      <c r="K124" s="72"/>
-      <c r="L124" s="72"/>
-      <c r="M124" s="72" t="s">
-        <v>462</v>
-      </c>
       <c r="N124" s="52"/>
     </row>
     <row r="125" spans="2:14">
       <c r="B125" s="51"/>
-      <c r="C125" s="72"/>
-      <c r="D125" s="72"/>
-      <c r="E125" s="72"/>
-      <c r="F125" s="72"/>
-      <c r="G125" s="72"/>
-      <c r="H125" s="72"/>
-      <c r="I125" s="72"/>
-      <c r="J125" s="72"/>
-      <c r="K125" s="72"/>
-      <c r="L125" s="72"/>
-      <c r="M125" s="72"/>
       <c r="N125" s="52"/>
     </row>
     <row r="126" spans="2:14">
       <c r="B126" s="51"/>
-      <c r="C126" s="72"/>
-      <c r="D126" s="72"/>
-      <c r="E126" s="72"/>
-      <c r="F126" s="72"/>
-      <c r="G126" s="72"/>
-      <c r="H126" s="72"/>
-      <c r="I126" s="72"/>
-      <c r="J126" s="72"/>
-      <c r="K126" s="72"/>
-      <c r="L126" s="72"/>
-      <c r="M126" s="72"/>
       <c r="N126" s="52"/>
     </row>
     <row r="127" spans="2:14">
       <c r="B127" s="51"/>
-      <c r="C127" s="72"/>
-      <c r="D127" s="72"/>
-      <c r="E127" s="72"/>
-      <c r="F127" s="72"/>
-      <c r="G127" s="72"/>
-      <c r="H127" s="72"/>
-      <c r="I127" s="72"/>
-      <c r="J127" s="72"/>
-      <c r="K127" s="72"/>
-      <c r="L127" s="72"/>
-      <c r="M127" s="72"/>
       <c r="N127" s="52"/>
     </row>
     <row r="128" spans="2:14">
       <c r="B128" s="51"/>
-      <c r="C128" s="72"/>
-      <c r="D128" s="72"/>
-      <c r="E128" s="72"/>
-      <c r="F128" s="72"/>
-      <c r="G128" s="72"/>
-      <c r="H128" s="72"/>
-      <c r="I128" s="72"/>
-      <c r="J128" s="72"/>
-      <c r="K128" s="72"/>
-      <c r="L128" s="72"/>
-      <c r="M128" s="72"/>
+      <c r="L128" t="s">
+        <v>459</v>
+      </c>
       <c r="N128" s="52"/>
     </row>
     <row r="129" spans="2:14">
       <c r="B129" s="51"/>
-      <c r="C129" s="72"/>
-      <c r="D129" s="72"/>
-      <c r="E129" s="72"/>
-      <c r="F129" s="72"/>
-      <c r="G129" s="72"/>
-      <c r="H129" s="72"/>
-      <c r="I129" s="72"/>
-      <c r="J129" s="72"/>
-      <c r="K129" s="72"/>
-      <c r="L129" s="72"/>
-      <c r="M129" s="72"/>
+      <c r="M129" t="s">
+        <v>460</v>
+      </c>
       <c r="N129" s="52"/>
     </row>
     <row r="130" spans="2:14">
       <c r="B130" s="51"/>
-      <c r="C130" s="72"/>
-      <c r="D130" s="72"/>
-      <c r="E130" s="72"/>
-      <c r="F130" s="72"/>
-      <c r="G130" s="72"/>
-      <c r="H130" s="72"/>
-      <c r="I130" s="72"/>
-      <c r="J130" s="72"/>
-      <c r="K130" s="72"/>
-      <c r="L130" s="72"/>
-      <c r="M130" s="72"/>
       <c r="N130" s="52"/>
     </row>
     <row r="131" spans="2:14">
       <c r="B131" s="51"/>
-      <c r="C131" s="72"/>
-      <c r="D131" s="72"/>
-      <c r="E131" s="72"/>
-      <c r="F131" s="72"/>
-      <c r="G131" s="72"/>
-      <c r="H131" s="72"/>
-      <c r="I131" s="72"/>
-      <c r="J131" s="72"/>
-      <c r="K131" s="72"/>
-      <c r="L131" s="72"/>
-      <c r="M131" s="72"/>
       <c r="N131" s="52"/>
     </row>
     <row r="132" spans="2:14">
       <c r="B132" s="51"/>
-      <c r="C132" s="72"/>
-      <c r="D132" s="72"/>
-      <c r="E132" s="72"/>
-      <c r="F132" s="72"/>
-      <c r="G132" s="72"/>
-      <c r="H132" s="72"/>
-      <c r="I132" s="72"/>
-      <c r="J132" s="72"/>
-      <c r="K132" s="72"/>
-      <c r="L132" s="72"/>
-      <c r="M132" s="72"/>
       <c r="N132" s="52"/>
     </row>
     <row r="133" spans="2:14">
       <c r="B133" s="51"/>
-      <c r="C133" s="72"/>
-      <c r="D133" s="72"/>
-      <c r="E133" s="72"/>
-      <c r="F133" s="72"/>
-      <c r="G133" s="72"/>
-      <c r="H133" s="72"/>
-      <c r="I133" s="72"/>
-      <c r="J133" s="72"/>
-      <c r="K133" s="72"/>
-      <c r="L133" s="72"/>
-      <c r="M133" s="72"/>
       <c r="N133" s="52"/>
     </row>
     <row r="134" spans="2:14">
       <c r="B134" s="51"/>
-      <c r="C134" s="72"/>
-      <c r="D134" s="72"/>
-      <c r="E134" s="72"/>
-      <c r="F134" s="72"/>
-      <c r="G134" s="72"/>
-      <c r="H134" s="72"/>
-      <c r="I134" s="72"/>
-      <c r="J134" s="72"/>
-      <c r="K134" s="72"/>
-      <c r="L134" s="72"/>
-      <c r="M134" s="72"/>
       <c r="N134" s="52"/>
     </row>
     <row r="135" spans="2:14">
       <c r="B135" s="51"/>
-      <c r="C135" s="72"/>
-      <c r="D135" s="72"/>
-      <c r="E135" s="72"/>
-      <c r="F135" s="72"/>
-      <c r="G135" s="72"/>
-      <c r="H135" s="72"/>
-      <c r="I135" s="72"/>
-      <c r="J135" s="72"/>
-      <c r="K135" s="72"/>
-      <c r="L135" s="72"/>
-      <c r="M135" s="72"/>
       <c r="N135" s="52"/>
     </row>
     <row r="136" spans="2:14">
       <c r="B136" s="51"/>
-      <c r="C136" s="72"/>
-      <c r="D136" s="72"/>
-      <c r="E136" s="72"/>
-      <c r="F136" s="72"/>
-      <c r="G136" s="72"/>
-      <c r="H136" s="72"/>
-      <c r="I136" s="72"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="72"/>
-      <c r="L136" s="72"/>
-      <c r="M136" s="72"/>
       <c r="N136" s="52"/>
     </row>
     <row r="137" spans="2:14">
       <c r="B137" s="51"/>
-      <c r="C137" s="72"/>
-      <c r="D137" s="72"/>
-      <c r="E137" s="72"/>
-      <c r="F137" s="72"/>
-      <c r="G137" s="72"/>
-      <c r="H137" s="72"/>
-      <c r="I137" s="72"/>
-      <c r="J137" s="72"/>
-      <c r="K137" s="72"/>
-      <c r="L137" s="72"/>
-      <c r="M137" s="72"/>
       <c r="N137" s="52"/>
     </row>
     <row r="138" spans="2:14">
       <c r="B138" s="51"/>
-      <c r="C138" s="72"/>
-      <c r="D138" s="72"/>
-      <c r="E138" s="72"/>
-      <c r="F138" s="72"/>
-      <c r="G138" s="72"/>
-      <c r="H138" s="72"/>
-      <c r="I138" s="72"/>
-      <c r="J138" s="72"/>
-      <c r="K138" s="72"/>
-      <c r="L138" s="72"/>
-      <c r="M138" s="72"/>
       <c r="N138" s="52"/>
     </row>
     <row r="139" spans="2:14">
       <c r="B139" s="51"/>
-      <c r="C139" s="72"/>
-      <c r="D139" s="72"/>
-      <c r="E139" s="72"/>
-      <c r="F139" s="72"/>
-      <c r="G139" s="72"/>
-      <c r="H139" s="72"/>
-      <c r="I139" s="72"/>
-      <c r="J139" s="72"/>
-      <c r="K139" s="72"/>
-      <c r="L139" s="72"/>
-      <c r="M139" s="72"/>
       <c r="N139" s="52"/>
     </row>
     <row r="140" spans="2:14">
       <c r="B140" s="51"/>
-      <c r="C140" s="72"/>
-      <c r="D140" s="72"/>
-      <c r="E140" s="72"/>
-      <c r="F140" s="72"/>
-      <c r="G140" s="72"/>
-      <c r="H140" s="72"/>
-      <c r="I140" s="72"/>
-      <c r="J140" s="72"/>
-      <c r="K140" s="72"/>
-      <c r="L140" s="72"/>
-      <c r="M140" s="72"/>
       <c r="N140" s="52"/>
     </row>
     <row r="141" spans="2:14">
       <c r="B141" s="51"/>
-      <c r="C141" s="72"/>
-      <c r="D141" s="72"/>
-      <c r="E141" s="72"/>
-      <c r="F141" s="72"/>
-      <c r="G141" s="72"/>
-      <c r="H141" s="72"/>
-      <c r="I141" s="72"/>
-      <c r="J141" s="72"/>
-      <c r="K141" s="72"/>
-      <c r="L141" s="72"/>
-      <c r="M141" s="72"/>
       <c r="N141" s="52"/>
     </row>
     <row r="142" spans="2:14">
       <c r="B142" s="51"/>
-      <c r="C142" s="72"/>
-      <c r="D142" s="72"/>
-      <c r="E142" s="72"/>
-      <c r="F142" s="72"/>
-      <c r="G142" s="72"/>
-      <c r="H142" s="72"/>
-      <c r="I142" s="72"/>
-      <c r="J142" s="72"/>
-      <c r="K142" s="72"/>
-      <c r="L142" s="72"/>
-      <c r="M142" s="72"/>
       <c r="N142" s="52"/>
     </row>
     <row r="143" spans="2:14">
       <c r="B143" s="51"/>
-      <c r="C143" s="72"/>
-      <c r="D143" s="72"/>
-      <c r="E143" s="72"/>
-      <c r="F143" s="72"/>
-      <c r="G143" s="72"/>
-      <c r="H143" s="72"/>
-      <c r="I143" s="72"/>
-      <c r="J143" s="72"/>
-      <c r="K143" s="72"/>
-      <c r="L143" s="72"/>
-      <c r="M143" s="72"/>
       <c r="N143" s="52"/>
     </row>
     <row r="144" spans="2:14">
       <c r="B144" s="51"/>
-      <c r="C144" s="72"/>
-      <c r="D144" s="72"/>
-      <c r="E144" s="72"/>
-      <c r="F144" s="72"/>
-      <c r="G144" s="72"/>
-      <c r="H144" s="72"/>
-      <c r="I144" s="72"/>
-      <c r="J144" s="72"/>
-      <c r="K144" s="72"/>
-      <c r="L144" s="72"/>
-      <c r="M144" s="72"/>
       <c r="N144" s="52"/>
     </row>
     <row r="145" spans="2:14">
       <c r="B145" s="51"/>
-      <c r="C145" s="72"/>
-      <c r="D145" s="72"/>
-      <c r="E145" s="72"/>
-      <c r="F145" s="72"/>
-      <c r="G145" s="72"/>
-      <c r="H145" s="72"/>
-      <c r="I145" s="72"/>
-      <c r="J145" s="72"/>
-      <c r="K145" s="72"/>
-      <c r="L145" s="72"/>
-      <c r="M145" s="72"/>
       <c r="N145" s="52"/>
     </row>
     <row r="146" spans="2:14">
       <c r="B146" s="51"/>
-      <c r="C146" s="72"/>
-      <c r="D146" s="72"/>
-      <c r="E146" s="72"/>
-      <c r="F146" s="72"/>
-      <c r="G146" s="72"/>
-      <c r="H146" s="72"/>
-      <c r="I146" s="72"/>
-      <c r="J146" s="72"/>
-      <c r="K146" s="72"/>
-      <c r="L146" s="72"/>
-      <c r="M146" s="72"/>
       <c r="N146" s="52"/>
     </row>
-    <row r="147" spans="2:14">
-      <c r="B147" s="51"/>
-      <c r="C147" s="72"/>
-      <c r="D147" s="72"/>
-      <c r="E147" s="72"/>
-      <c r="F147" s="72"/>
-      <c r="G147" s="72"/>
-      <c r="H147" s="72"/>
-      <c r="I147" s="72"/>
-      <c r="J147" s="72"/>
-      <c r="K147" s="72"/>
-      <c r="L147" s="72"/>
-      <c r="M147" s="72"/>
-      <c r="N147" s="52"/>
-    </row>
-    <row r="148" spans="2:14">
-      <c r="B148" s="51"/>
-      <c r="C148" s="72"/>
-      <c r="D148" s="72"/>
-      <c r="E148" s="72"/>
-      <c r="F148" s="72"/>
-      <c r="G148" s="72"/>
-      <c r="H148" s="72"/>
-      <c r="I148" s="72"/>
-      <c r="J148" s="72"/>
-      <c r="K148" s="72"/>
-      <c r="L148" s="72"/>
-      <c r="M148" s="72"/>
-      <c r="N148" s="52"/>
-    </row>
-    <row r="149" spans="2:14" ht="14.5" thickBot="1">
-      <c r="B149" s="53"/>
-      <c r="C149" s="54"/>
-      <c r="D149" s="54"/>
-      <c r="E149" s="54"/>
-      <c r="F149" s="54"/>
-      <c r="G149" s="54"/>
-      <c r="H149" s="54"/>
-      <c r="I149" s="54"/>
-      <c r="J149" s="54"/>
-      <c r="K149" s="54"/>
-      <c r="L149" s="54"/>
-      <c r="M149" s="54"/>
-      <c r="N149" s="55"/>
+    <row r="147" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B147" s="53"/>
+      <c r="C147" s="54"/>
+      <c r="D147" s="54"/>
+      <c r="E147" s="54"/>
+      <c r="F147" s="54"/>
+      <c r="G147" s="54"/>
+      <c r="H147" s="54"/>
+      <c r="I147" s="54"/>
+      <c r="J147" s="54"/>
+      <c r="K147" s="54"/>
+      <c r="L147" s="54"/>
+      <c r="M147" s="54"/>
+      <c r="N147" s="55"/>
+    </row>
+    <row r="148" spans="2:14" ht="14.5" thickBot="1"/>
+    <row r="149" spans="2:14">
+      <c r="B149" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="C149" s="49"/>
+      <c r="D149" s="49"/>
+      <c r="E149" s="49"/>
+      <c r="F149" s="49"/>
+      <c r="G149" s="49"/>
+      <c r="H149" s="49"/>
+      <c r="I149" s="49"/>
+      <c r="J149" s="49"/>
+      <c r="K149" s="49"/>
+      <c r="L149" s="49"/>
+      <c r="M149" s="49"/>
+      <c r="N149" s="50"/>
+    </row>
+    <row r="150" spans="2:14">
+      <c r="B150" s="51" t="s">
+        <v>463</v>
+      </c>
+      <c r="C150" s="75"/>
+      <c r="D150" s="75"/>
+      <c r="E150" s="75"/>
+      <c r="F150" s="75"/>
+      <c r="G150" s="75"/>
+      <c r="H150" s="75"/>
+      <c r="I150" s="75"/>
+      <c r="J150" s="75"/>
+      <c r="K150" s="75"/>
+      <c r="L150" s="75"/>
+      <c r="M150" s="75"/>
+      <c r="N150" s="52"/>
+    </row>
+    <row r="151" spans="2:14">
+      <c r="B151" s="51"/>
+      <c r="C151" s="75"/>
+      <c r="D151" s="75"/>
+      <c r="E151" s="75"/>
+      <c r="F151" s="75"/>
+      <c r="G151" s="75"/>
+      <c r="H151" s="75"/>
+      <c r="I151" s="75"/>
+      <c r="J151" s="75"/>
+      <c r="K151" s="75"/>
+      <c r="L151" s="75"/>
+      <c r="M151" s="75"/>
+      <c r="N151" s="52"/>
+    </row>
+    <row r="152" spans="2:14">
+      <c r="B152" s="51"/>
+      <c r="C152" s="75"/>
+      <c r="D152" s="75"/>
+      <c r="E152" s="75"/>
+      <c r="F152" s="75"/>
+      <c r="G152" s="75"/>
+      <c r="H152" s="75"/>
+      <c r="I152" s="75"/>
+      <c r="J152" s="75"/>
+      <c r="K152" s="75"/>
+      <c r="L152" s="75"/>
+      <c r="M152" s="75"/>
+      <c r="N152" s="52"/>
+    </row>
+    <row r="153" spans="2:14">
+      <c r="B153" s="51"/>
+      <c r="C153" s="75"/>
+      <c r="D153" s="75"/>
+      <c r="E153" s="75"/>
+      <c r="F153" s="75"/>
+      <c r="G153" s="75"/>
+      <c r="H153" s="75"/>
+      <c r="I153" s="75"/>
+      <c r="J153" s="75"/>
+      <c r="K153" s="75"/>
+      <c r="L153" s="75"/>
+      <c r="M153" s="75"/>
+      <c r="N153" s="52"/>
+    </row>
+    <row r="154" spans="2:14">
+      <c r="B154" s="51"/>
+      <c r="C154" s="75"/>
+      <c r="D154" s="75"/>
+      <c r="E154" s="75"/>
+      <c r="F154" s="75"/>
+      <c r="G154" s="75"/>
+      <c r="H154" s="75"/>
+      <c r="I154" s="75"/>
+      <c r="J154" s="75"/>
+      <c r="K154" s="75"/>
+      <c r="L154" s="75"/>
+      <c r="M154" s="75"/>
+      <c r="N154" s="52"/>
+    </row>
+    <row r="155" spans="2:14">
+      <c r="B155" s="51"/>
+      <c r="C155" s="75"/>
+      <c r="D155" s="75"/>
+      <c r="E155" s="75"/>
+      <c r="F155" s="75"/>
+      <c r="G155" s="75"/>
+      <c r="H155" s="75"/>
+      <c r="I155" s="75"/>
+      <c r="J155" s="75"/>
+      <c r="K155" s="75"/>
+      <c r="L155" s="75"/>
+      <c r="M155" s="75"/>
+      <c r="N155" s="52"/>
+    </row>
+    <row r="156" spans="2:14">
+      <c r="B156" s="51"/>
+      <c r="C156" s="75"/>
+      <c r="D156" s="75"/>
+      <c r="E156" s="75"/>
+      <c r="F156" s="75"/>
+      <c r="G156" s="75"/>
+      <c r="H156" s="75"/>
+      <c r="I156" s="75"/>
+      <c r="J156" s="75"/>
+      <c r="K156" s="75"/>
+      <c r="L156" s="75"/>
+      <c r="M156" s="75"/>
+      <c r="N156" s="52"/>
+    </row>
+    <row r="157" spans="2:14">
+      <c r="B157" s="51"/>
+      <c r="C157" s="75"/>
+      <c r="D157" s="75"/>
+      <c r="E157" s="75"/>
+      <c r="F157" s="75"/>
+      <c r="G157" s="75"/>
+      <c r="H157" s="75"/>
+      <c r="I157" s="75"/>
+      <c r="J157" s="75"/>
+      <c r="K157" s="75"/>
+      <c r="L157" s="75"/>
+      <c r="M157" s="75"/>
+      <c r="N157" s="52"/>
+    </row>
+    <row r="158" spans="2:14">
+      <c r="B158" s="51"/>
+      <c r="C158" s="75"/>
+      <c r="D158" s="75"/>
+      <c r="E158" s="75"/>
+      <c r="F158" s="75"/>
+      <c r="G158" s="75"/>
+      <c r="H158" s="75"/>
+      <c r="I158" s="75"/>
+      <c r="J158" s="75"/>
+      <c r="K158" s="75"/>
+      <c r="L158" s="75"/>
+      <c r="M158" s="75"/>
+      <c r="N158" s="52"/>
+    </row>
+    <row r="159" spans="2:14">
+      <c r="B159" s="51"/>
+      <c r="C159" s="75"/>
+      <c r="D159" s="75"/>
+      <c r="E159" s="75"/>
+      <c r="F159" s="75"/>
+      <c r="G159" s="75"/>
+      <c r="H159" s="75"/>
+      <c r="I159" s="75"/>
+      <c r="J159" s="75"/>
+      <c r="K159" s="75"/>
+      <c r="L159" s="75"/>
+      <c r="M159" s="75"/>
+      <c r="N159" s="52"/>
+    </row>
+    <row r="160" spans="2:14">
+      <c r="B160" s="51"/>
+      <c r="C160" s="75"/>
+      <c r="D160" s="75"/>
+      <c r="E160" s="75"/>
+      <c r="F160" s="75"/>
+      <c r="G160" s="75"/>
+      <c r="H160" s="75"/>
+      <c r="I160" s="75"/>
+      <c r="J160" s="75"/>
+      <c r="K160" s="75"/>
+      <c r="L160" s="75"/>
+      <c r="M160" s="75"/>
+      <c r="N160" s="52"/>
+    </row>
+    <row r="161" spans="2:14">
+      <c r="B161" s="51"/>
+      <c r="C161" s="75"/>
+      <c r="D161" s="75"/>
+      <c r="E161" s="75"/>
+      <c r="F161" s="75"/>
+      <c r="G161" s="75"/>
+      <c r="H161" s="75"/>
+      <c r="I161" s="75"/>
+      <c r="J161" s="75"/>
+      <c r="K161" s="75"/>
+      <c r="L161" s="75"/>
+      <c r="M161" s="75"/>
+      <c r="N161" s="52"/>
+    </row>
+    <row r="162" spans="2:14">
+      <c r="B162" s="51"/>
+      <c r="C162" s="75"/>
+      <c r="D162" s="75"/>
+      <c r="E162" s="75"/>
+      <c r="F162" s="75"/>
+      <c r="G162" s="75"/>
+      <c r="H162" s="75"/>
+      <c r="I162" s="75"/>
+      <c r="J162" s="75"/>
+      <c r="K162" s="75"/>
+      <c r="L162" s="75"/>
+      <c r="M162" s="75"/>
+      <c r="N162" s="52"/>
+    </row>
+    <row r="163" spans="2:14">
+      <c r="B163" s="51"/>
+      <c r="C163" s="75"/>
+      <c r="D163" s="75"/>
+      <c r="E163" s="75"/>
+      <c r="F163" s="75"/>
+      <c r="G163" s="75"/>
+      <c r="H163" s="75"/>
+      <c r="I163" s="75"/>
+      <c r="J163" s="75"/>
+      <c r="K163" s="75"/>
+      <c r="L163" s="75"/>
+      <c r="M163" s="75"/>
+      <c r="N163" s="52"/>
+    </row>
+    <row r="164" spans="2:14">
+      <c r="B164" s="51"/>
+      <c r="C164" s="75"/>
+      <c r="D164" s="75"/>
+      <c r="E164" s="75"/>
+      <c r="F164" s="75"/>
+      <c r="G164" s="75"/>
+      <c r="H164" s="75"/>
+      <c r="I164" s="75"/>
+      <c r="J164" s="75"/>
+      <c r="K164" s="75"/>
+      <c r="L164" s="75"/>
+      <c r="M164" s="75"/>
+      <c r="N164" s="52"/>
+    </row>
+    <row r="165" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B165" s="53"/>
+      <c r="C165" s="54"/>
+      <c r="D165" s="54"/>
+      <c r="E165" s="54"/>
+      <c r="F165" s="54"/>
+      <c r="G165" s="54"/>
+      <c r="H165" s="54"/>
+      <c r="I165" s="54"/>
+      <c r="J165" s="54"/>
+      <c r="K165" s="54"/>
+      <c r="L165" s="54"/>
+      <c r="M165" s="54"/>
+      <c r="N165" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14325,8 +13732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B172"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -15424,7 +14831,7 @@
   </sheetPr>
   <dimension ref="A2:I272"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A87" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>

--- a/res/環境設定.xlsx
+++ b/res/環境設定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\0407\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7970829-DBC1-44A6-8774-B88169596DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA02FBE-88EA-4001-95BB-6B8EE1D11AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25000" windowHeight="15620" tabRatio="690" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="690" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="499">
   <si>
     <t>MYSQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7375,12 +7375,135 @@
     <t>在数据库里面建一张表  t_company</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>按功能分，表的种类有三种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マスタテーブル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定数表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101：中古交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102：组织活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103：情感交友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在数据库其他表里存放的是1，101  之类的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面上用于下拉列表单选复选比较多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランザクションテーブル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务表，就是经常需要增删改的表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有主KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无主KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来转存数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一时保存临时数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放CSV文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一時テーブル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/resources/templates/company/companylist.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1。在画面上增加追加按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2。响应画面请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3。追加画面的HTML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/resources/templates/company/addCompany.html</t>
+  </si>
+  <si>
+    <t>4。在controller里响应save的表单提交请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5。在service里增加save方法（接口和实现类）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7627,8 +7750,17 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7686,6 +7818,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7835,7 +7973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7936,6 +8074,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11884,6 +12024,876 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>72637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>169895</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>27120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626C3293-5FBC-E8F4-5B46-2489B83E8FBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="786423" y="30181406"/>
+          <a:ext cx="6842280" cy="2416330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>205153</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>72673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149927</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>39077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87EA5FAF-94AC-27B5-2865-41A7C8C60189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="864576" y="33346673"/>
+          <a:ext cx="6744159" cy="3131635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>454269</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>53731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102576</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>112346</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F411F2FC-9C9F-217F-AB48-940543600507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2432538" y="31217577"/>
+          <a:ext cx="5128846" cy="937846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341922</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>151423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>503114</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA179167-19FF-442B-B0A5-2557A0E24891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1660768" y="35535577"/>
+          <a:ext cx="5641731" cy="478692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200270</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>71995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>255109</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>134452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0BDAED-2267-B673-6793-BBEAA644687D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="859693" y="37038764"/>
+          <a:ext cx="8173070" cy="4282765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>258885</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>16918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>86260</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>141835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26774929-1AE0-6089-4C93-E631BF2C4F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918308" y="42083226"/>
+          <a:ext cx="4648490" cy="1531686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>75773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>508565</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>78634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF0122D-8435-B2F2-52C6-DE7705D9752D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1348154" y="44428081"/>
+          <a:ext cx="2662680" cy="2640553"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31049</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>53730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297962</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>56287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50400CB-8CC9-8D01-3D92-EF85850E34D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1349895" y="48978038"/>
+          <a:ext cx="4428605" cy="2288557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>512885</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>649654</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="流程图: 过程 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FE3D43-C7E1-5D26-EC18-0D1803045930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1831731" y="46403846"/>
+          <a:ext cx="1660769" cy="234462"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205155</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581269</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="流程图: 过程 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03852379-9998-4EA4-8D9F-601A3181ED57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3707424" y="37567577"/>
+          <a:ext cx="4992076" cy="3780692"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>512883</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>156308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542193</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>53731</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="流程图: 过程 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C2942B-E5ED-41CD-8FDA-C5D79B980D83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1831729" y="42750154"/>
+          <a:ext cx="2212733" cy="249115"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400539</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>58616</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="对话气泡: 圆角矩形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62518E6E-D859-2523-AB95-292817B84035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5221654" y="42129807"/>
+          <a:ext cx="1636347" cy="551962"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -122898"/>
+            <a:gd name="adj2" fmla="val 84122"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参照</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>356578</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>53731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14655</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>78154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="对话气泡: 圆角矩形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB66D2B-FBCF-4E01-A62D-F6BD054D1A72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5837116" y="42823423"/>
+          <a:ext cx="1636347" cy="551962"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -126779"/>
+            <a:gd name="adj2" fmla="val 41644"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>重定向，执行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>list</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>请求，最后跳转到一览画面。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>59591</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>10746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400539</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>112346</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="流程图: 过程 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AB5CA9-5DE3-495D-9FA1-629D7DC03CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2037860" y="43132131"/>
+          <a:ext cx="2524371" cy="277446"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12138,7 +13148,40 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -12654,10 +13697,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F938AA3D-E6B8-4855-9471-AF6CED83BFE8}">
-  <dimension ref="A26:N165"/>
+  <dimension ref="A26:N266"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -12718,6 +13761,11 @@
     <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="77" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -13219,7 +14267,7 @@
         <v>454</v>
       </c>
       <c r="E114" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="N114" s="52"/>
     </row>
@@ -13394,230 +14442,65 @@
       <c r="B150" s="51" t="s">
         <v>463</v>
       </c>
-      <c r="C150" s="75"/>
-      <c r="D150" s="75"/>
-      <c r="E150" s="75"/>
-      <c r="F150" s="75"/>
-      <c r="G150" s="75"/>
-      <c r="H150" s="75"/>
-      <c r="I150" s="75"/>
-      <c r="J150" s="75"/>
-      <c r="K150" s="75"/>
-      <c r="L150" s="75"/>
-      <c r="M150" s="75"/>
       <c r="N150" s="52"/>
     </row>
     <row r="151" spans="2:14">
       <c r="B151" s="51"/>
-      <c r="C151" s="75"/>
-      <c r="D151" s="75"/>
-      <c r="E151" s="75"/>
-      <c r="F151" s="75"/>
-      <c r="G151" s="75"/>
-      <c r="H151" s="75"/>
-      <c r="I151" s="75"/>
-      <c r="J151" s="75"/>
-      <c r="K151" s="75"/>
-      <c r="L151" s="75"/>
-      <c r="M151" s="75"/>
       <c r="N151" s="52"/>
     </row>
     <row r="152" spans="2:14">
       <c r="B152" s="51"/>
-      <c r="C152" s="75"/>
-      <c r="D152" s="75"/>
-      <c r="E152" s="75"/>
-      <c r="F152" s="75"/>
-      <c r="G152" s="75"/>
-      <c r="H152" s="75"/>
-      <c r="I152" s="75"/>
-      <c r="J152" s="75"/>
-      <c r="K152" s="75"/>
-      <c r="L152" s="75"/>
-      <c r="M152" s="75"/>
       <c r="N152" s="52"/>
     </row>
     <row r="153" spans="2:14">
       <c r="B153" s="51"/>
-      <c r="C153" s="75"/>
-      <c r="D153" s="75"/>
-      <c r="E153" s="75"/>
-      <c r="F153" s="75"/>
-      <c r="G153" s="75"/>
-      <c r="H153" s="75"/>
-      <c r="I153" s="75"/>
-      <c r="J153" s="75"/>
-      <c r="K153" s="75"/>
-      <c r="L153" s="75"/>
-      <c r="M153" s="75"/>
       <c r="N153" s="52"/>
     </row>
     <row r="154" spans="2:14">
       <c r="B154" s="51"/>
-      <c r="C154" s="75"/>
-      <c r="D154" s="75"/>
-      <c r="E154" s="75"/>
-      <c r="F154" s="75"/>
-      <c r="G154" s="75"/>
-      <c r="H154" s="75"/>
-      <c r="I154" s="75"/>
-      <c r="J154" s="75"/>
-      <c r="K154" s="75"/>
-      <c r="L154" s="75"/>
-      <c r="M154" s="75"/>
       <c r="N154" s="52"/>
     </row>
     <row r="155" spans="2:14">
       <c r="B155" s="51"/>
-      <c r="C155" s="75"/>
-      <c r="D155" s="75"/>
-      <c r="E155" s="75"/>
-      <c r="F155" s="75"/>
-      <c r="G155" s="75"/>
-      <c r="H155" s="75"/>
-      <c r="I155" s="75"/>
-      <c r="J155" s="75"/>
-      <c r="K155" s="75"/>
-      <c r="L155" s="75"/>
-      <c r="M155" s="75"/>
       <c r="N155" s="52"/>
     </row>
     <row r="156" spans="2:14">
       <c r="B156" s="51"/>
-      <c r="C156" s="75"/>
-      <c r="D156" s="75"/>
-      <c r="E156" s="75"/>
-      <c r="F156" s="75"/>
-      <c r="G156" s="75"/>
-      <c r="H156" s="75"/>
-      <c r="I156" s="75"/>
-      <c r="J156" s="75"/>
-      <c r="K156" s="75"/>
-      <c r="L156" s="75"/>
-      <c r="M156" s="75"/>
       <c r="N156" s="52"/>
     </row>
     <row r="157" spans="2:14">
       <c r="B157" s="51"/>
-      <c r="C157" s="75"/>
-      <c r="D157" s="75"/>
-      <c r="E157" s="75"/>
-      <c r="F157" s="75"/>
-      <c r="G157" s="75"/>
-      <c r="H157" s="75"/>
-      <c r="I157" s="75"/>
-      <c r="J157" s="75"/>
-      <c r="K157" s="75"/>
-      <c r="L157" s="75"/>
-      <c r="M157" s="75"/>
       <c r="N157" s="52"/>
     </row>
     <row r="158" spans="2:14">
       <c r="B158" s="51"/>
-      <c r="C158" s="75"/>
-      <c r="D158" s="75"/>
-      <c r="E158" s="75"/>
-      <c r="F158" s="75"/>
-      <c r="G158" s="75"/>
-      <c r="H158" s="75"/>
-      <c r="I158" s="75"/>
-      <c r="J158" s="75"/>
-      <c r="K158" s="75"/>
-      <c r="L158" s="75"/>
-      <c r="M158" s="75"/>
       <c r="N158" s="52"/>
     </row>
     <row r="159" spans="2:14">
       <c r="B159" s="51"/>
-      <c r="C159" s="75"/>
-      <c r="D159" s="75"/>
-      <c r="E159" s="75"/>
-      <c r="F159" s="75"/>
-      <c r="G159" s="75"/>
-      <c r="H159" s="75"/>
-      <c r="I159" s="75"/>
-      <c r="J159" s="75"/>
-      <c r="K159" s="75"/>
-      <c r="L159" s="75"/>
-      <c r="M159" s="75"/>
       <c r="N159" s="52"/>
     </row>
     <row r="160" spans="2:14">
       <c r="B160" s="51"/>
-      <c r="C160" s="75"/>
-      <c r="D160" s="75"/>
-      <c r="E160" s="75"/>
-      <c r="F160" s="75"/>
-      <c r="G160" s="75"/>
-      <c r="H160" s="75"/>
-      <c r="I160" s="75"/>
-      <c r="J160" s="75"/>
-      <c r="K160" s="75"/>
-      <c r="L160" s="75"/>
-      <c r="M160" s="75"/>
       <c r="N160" s="52"/>
     </row>
-    <row r="161" spans="2:14">
+    <row r="161" spans="1:14">
       <c r="B161" s="51"/>
-      <c r="C161" s="75"/>
-      <c r="D161" s="75"/>
-      <c r="E161" s="75"/>
-      <c r="F161" s="75"/>
-      <c r="G161" s="75"/>
-      <c r="H161" s="75"/>
-      <c r="I161" s="75"/>
-      <c r="J161" s="75"/>
-      <c r="K161" s="75"/>
-      <c r="L161" s="75"/>
-      <c r="M161" s="75"/>
       <c r="N161" s="52"/>
     </row>
-    <row r="162" spans="2:14">
+    <row r="162" spans="1:14">
       <c r="B162" s="51"/>
-      <c r="C162" s="75"/>
-      <c r="D162" s="75"/>
-      <c r="E162" s="75"/>
-      <c r="F162" s="75"/>
-      <c r="G162" s="75"/>
-      <c r="H162" s="75"/>
-      <c r="I162" s="75"/>
-      <c r="J162" s="75"/>
-      <c r="K162" s="75"/>
-      <c r="L162" s="75"/>
-      <c r="M162" s="75"/>
       <c r="N162" s="52"/>
     </row>
-    <row r="163" spans="2:14">
+    <row r="163" spans="1:14">
       <c r="B163" s="51"/>
-      <c r="C163" s="75"/>
-      <c r="D163" s="75"/>
-      <c r="E163" s="75"/>
-      <c r="F163" s="75"/>
-      <c r="G163" s="75"/>
-      <c r="H163" s="75"/>
-      <c r="I163" s="75"/>
-      <c r="J163" s="75"/>
-      <c r="K163" s="75"/>
-      <c r="L163" s="75"/>
-      <c r="M163" s="75"/>
       <c r="N163" s="52"/>
     </row>
-    <row r="164" spans="2:14">
+    <row r="164" spans="1:14">
       <c r="B164" s="51"/>
-      <c r="C164" s="75"/>
-      <c r="D164" s="75"/>
-      <c r="E164" s="75"/>
-      <c r="F164" s="75"/>
-      <c r="G164" s="75"/>
-      <c r="H164" s="75"/>
-      <c r="I164" s="75"/>
-      <c r="J164" s="75"/>
-      <c r="K164" s="75"/>
-      <c r="L164" s="75"/>
-      <c r="M164" s="75"/>
       <c r="N164" s="52"/>
     </row>
-    <row r="165" spans="2:14" ht="14.5" thickBot="1">
+    <row r="165" spans="1:14" ht="14.5" thickBot="1">
       <c r="B165" s="53"/>
       <c r="C165" s="54"/>
       <c r="D165" s="54"/>
@@ -13631,6 +14514,66 @@
       <c r="L165" s="54"/>
       <c r="M165" s="54"/>
       <c r="N165" s="55"/>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" s="77" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="B168" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="B169" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="C249" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3">
+      <c r="C266" t="s">
+        <v>457</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13732,7 +14675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
@@ -14829,10 +15772,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A2:I272"/>
+  <dimension ref="A2:I297"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView topLeftCell="A278" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D290" sqref="D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -14840,7 +15783,7 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="22.08203125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
@@ -16238,6 +17181,147 @@
       <c r="B272" s="64" t="s">
         <v>359</v>
       </c>
+    </row>
+    <row r="277" spans="2:6">
+      <c r="B277" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" ht="14.5" thickBot="1">
+      <c r="C278" t="s">
+        <v>470</v>
+      </c>
+      <c r="D278" t="s">
+        <v>469</v>
+      </c>
+      <c r="E278" t="s">
+        <v>471</v>
+      </c>
+      <c r="F278" s="76" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6">
+      <c r="D279" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="E279" s="49"/>
+      <c r="F279" s="50"/>
+    </row>
+    <row r="280" spans="2:6">
+      <c r="D280" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="E280" s="75"/>
+      <c r="F280" s="52"/>
+    </row>
+    <row r="281" spans="2:6">
+      <c r="D281" s="51"/>
+      <c r="E281" s="75" t="s">
+        <v>472</v>
+      </c>
+      <c r="F281" s="52"/>
+    </row>
+    <row r="282" spans="2:6">
+      <c r="D282" s="51"/>
+      <c r="E282" s="75" t="s">
+        <v>473</v>
+      </c>
+      <c r="F282" s="52"/>
+    </row>
+    <row r="283" spans="2:6">
+      <c r="D283" s="51"/>
+      <c r="E283" s="75"/>
+      <c r="F283" s="52"/>
+    </row>
+    <row r="284" spans="2:6">
+      <c r="D284" s="51"/>
+      <c r="E284" s="75" t="s">
+        <v>474</v>
+      </c>
+      <c r="F284" s="52"/>
+    </row>
+    <row r="285" spans="2:6">
+      <c r="D285" s="51"/>
+      <c r="E285" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="F285" s="52"/>
+    </row>
+    <row r="286" spans="2:6" ht="14.5" thickBot="1">
+      <c r="D286" s="53"/>
+      <c r="E286" s="54" t="s">
+        <v>476</v>
+      </c>
+      <c r="F286" s="55"/>
+    </row>
+    <row r="288" spans="2:6" ht="14.5" thickBot="1">
+      <c r="D288" t="s">
+        <v>480</v>
+      </c>
+      <c r="E288" t="s">
+        <v>479</v>
+      </c>
+      <c r="F288" s="76" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="289" spans="3:6">
+      <c r="D289" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="E289" s="49"/>
+      <c r="F289" s="50"/>
+    </row>
+    <row r="290" spans="3:6">
+      <c r="D290" s="51"/>
+      <c r="E290" s="75"/>
+      <c r="F290" s="52"/>
+    </row>
+    <row r="291" spans="3:6" ht="14.5" thickBot="1">
+      <c r="D291" s="53"/>
+      <c r="E291" s="54"/>
+      <c r="F291" s="55"/>
+    </row>
+    <row r="293" spans="3:6" ht="14.5" thickBot="1">
+      <c r="C293" t="s">
+        <v>489</v>
+      </c>
+      <c r="D293" t="s">
+        <v>488</v>
+      </c>
+      <c r="E293" t="s">
+        <v>482</v>
+      </c>
+      <c r="F293" s="76" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="294" spans="3:6">
+      <c r="D294" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="E294" s="49"/>
+      <c r="F294" s="50"/>
+    </row>
+    <row r="295" spans="3:6">
+      <c r="D295" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="E295" s="75"/>
+      <c r="F295" s="52"/>
+    </row>
+    <row r="296" spans="3:6">
+      <c r="D296" s="51" t="s">
+        <v>487</v>
+      </c>
+      <c r="E296" s="75"/>
+      <c r="F296" s="52"/>
+    </row>
+    <row r="297" spans="3:6" ht="14.5" thickBot="1">
+      <c r="D297" s="53"/>
+      <c r="E297" s="54"/>
+      <c r="F297" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/res/環境設定.xlsx
+++ b/res/環境設定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\0407\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA02FBE-88EA-4001-95BB-6B8EE1D11AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80130599-6572-4EBA-9C94-59F13C6D3042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="690" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="523">
   <si>
     <t>MYSQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7498,12 +7498,202 @@
     <t>5。在service里增加save方法（接口和实现类）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://github.com/dbtoolsserver03/takada/commit/c9e604d50276869a7e98b790a60271a84c3e903d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.修改menu.html文件</t>
+  </si>
+  <si>
+    <t>https://github.com/dbtoolsserver03/takada/commit/2c5613ded5a6798e0f6d6e2f48607bf9d6f16fcb</t>
+  </si>
+  <si>
+    <t>02.使用WebMvcConfigurer，不经过Control 直接跳转到HTML</t>
+  </si>
+  <si>
+    <t>https://github.com/dbtoolsserver03/takada/commit/6012a1659380f874d2108bd8bb274652540cbff1</t>
+  </si>
+  <si>
+    <t>03。一览</t>
+  </si>
+  <si>
+    <t>https://github.com/dbtoolsserver03/takada/commit/3040fba4b7fb5b18294ac90f71aae1cf5e6ce53c</t>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th:action="@{/submitForm}"</t>
+  </si>
+  <si>
+    <t>更新操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>th:href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>@{/company/detail(id=${obj.id})}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th:href</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/company/detail(id=${obj.id})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1。更新操作事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2。响应更新请求处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/java/com/baizhi/controller/CompanyController.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3。更新画面作成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ems-thymeleaf/src/main/resources/templates/company/updateCompany.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新需要主KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3。对提交的表单，进行处理追加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4。SERVICE里追加更新操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给HTML画面放数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回HTML画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7759,6 +7949,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF569CD6"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFCE9178"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -7973,7 +8181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -8073,9 +8281,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11549,13 +11758,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>55562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>298235</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11593,13 +11802,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>23811</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>59532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>186531</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>5623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11637,14 +11846,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>52215</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>52216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11681,14 +11890,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>35217</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>436562</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>154165</xdr:rowOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>154166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11725,14 +11934,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>72002</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>43657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>322221</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>23882</xdr:rowOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>23883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11769,14 +11978,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>162721</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>124685</xdr:rowOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>124686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11813,13 +12022,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>325437</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>134937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>182563</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11866,13 +12075,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>151423</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>11159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>264927</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>4885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12028,14 +12237,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>72637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>169895</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>27120</xdr:rowOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>27121</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12072,14 +12281,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>205153</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>72673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>149927</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>39077</xdr:rowOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>39078</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12116,13 +12325,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>454269</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>53731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>102576</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>112346</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12182,13 +12391,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>341922</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>151423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>503114</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>102577</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12248,13 +12457,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>200270</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>71995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>255109</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>134452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12292,13 +12501,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>258885</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>16918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>86260</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>141835</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12336,14 +12545,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>75773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>508565</xdr:colOff>
-      <xdr:row>264</xdr:row>
-      <xdr:rowOff>78634</xdr:rowOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>78633</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12380,13 +12589,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>31049</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>53730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>297962</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>56287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12424,14 +12633,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>512885</xdr:colOff>
-      <xdr:row>260</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>649654</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12446,8 +12655,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1831731" y="46403846"/>
-          <a:ext cx="1660769" cy="234462"/>
+          <a:off x="1831731" y="48176962"/>
+          <a:ext cx="1660769" cy="234461"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -12490,13 +12699,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>205155</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>73269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>581269</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>161192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12556,13 +12765,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>512883</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>156308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>542193</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>53731</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12622,13 +12831,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>400539</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>58616</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>87923</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12719,13 +12928,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>356578</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>53731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>14655</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>78154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12832,13 +13041,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>59591</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>10746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>400539</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>112346</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12892,6 +13101,402 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>591039</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>161482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>617293</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>20700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE258F22-4BE4-7A88-3760-BADDED59BEF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1250462" y="52602713"/>
+          <a:ext cx="7485062" cy="1090141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>156308</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>122117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>468923</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>122117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="流程图: 过程 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB707796-587F-4BF8-83E6-605860581D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2999154" y="53090886"/>
+          <a:ext cx="4269154" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83039</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>163380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>446475</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>120538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485F9A99-128A-5641-6D31-4A5DC030CB21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1401885" y="55339995"/>
+          <a:ext cx="5184552" cy="2594850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647261</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>39076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>284491</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C083F1AB-54F6-2E9E-5362-EBB9F139502B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1306684" y="59455538"/>
+          <a:ext cx="7755461" cy="4068886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>151423</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>429847</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF51B28F-C06D-9777-51CE-EC270FAD1CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1470269" y="59680231"/>
+          <a:ext cx="3780693" cy="288192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175847</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>42601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EAFE94-52CD-AE91-4EA2-90A5C099714D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1318846" y="64359692"/>
+          <a:ext cx="4337539" cy="2504447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>649654</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>547077</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>141983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46061E75-A31F-2A10-FA1B-770566620D26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1309077" y="67187885"/>
+          <a:ext cx="3399692" cy="2237483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>43961</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>151363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50DBC5DD-D99E-D3E6-E8CD-5A5DCAFFAA0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1318846" y="69635077"/>
+          <a:ext cx="4865077" cy="854748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13697,10 +14302,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F938AA3D-E6B8-4855-9471-AF6CED83BFE8}">
-  <dimension ref="A26:N266"/>
+  <dimension ref="A26:O392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A293" sqref="A293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -13738,278 +14343,216 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:6">
       <c r="E33" s="71" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:6">
       <c r="F35" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:6">
       <c r="F36" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:6">
       <c r="F37" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="77" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" s="76" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:6">
       <c r="B40" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="C41" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="C42" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="C44" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="C45" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="C47" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="C48" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
-      <c r="C41" t="s">
+    <row r="51" spans="2:14">
+      <c r="C51" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="14.5" thickBot="1">
-      <c r="B43" t="s">
+    <row r="53" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B53" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
-      <c r="B44" s="48" t="s">
+    <row r="54" spans="2:14">
+      <c r="B54" s="48" t="s">
         <v>426</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="50"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="B45" s="51"/>
-      <c r="C45" t="s">
-        <v>461</v>
-      </c>
-      <c r="N45" s="52"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="B46" s="51"/>
-      <c r="N46" s="52"/>
-    </row>
-    <row r="47" spans="1:14" ht="20">
-      <c r="B47" s="51"/>
-      <c r="D47" s="72" t="s">
-        <v>415</v>
-      </c>
-      <c r="N47" s="52"/>
-    </row>
-    <row r="48" spans="1:14" ht="20">
-      <c r="B48" s="51"/>
-      <c r="D48" s="72" t="s">
-        <v>416</v>
-      </c>
-      <c r="N48" s="52"/>
-    </row>
-    <row r="49" spans="2:14" ht="20">
-      <c r="B49" s="51"/>
-      <c r="D49" s="72" t="s">
-        <v>417</v>
-      </c>
-      <c r="N49" s="52"/>
-    </row>
-    <row r="50" spans="2:14" ht="20">
-      <c r="B50" s="51"/>
-      <c r="D50" s="72" t="s">
-        <v>418</v>
-      </c>
-      <c r="N50" s="52"/>
-    </row>
-    <row r="51" spans="2:14" ht="20">
-      <c r="B51" s="51"/>
-      <c r="D51" s="72" t="s">
-        <v>419</v>
-      </c>
-      <c r="N51" s="52"/>
-    </row>
-    <row r="52" spans="2:14" ht="20">
-      <c r="B52" s="51"/>
-      <c r="D52" s="73" t="s">
-        <v>420</v>
-      </c>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="52"/>
-    </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="51"/>
-      <c r="N53" s="52"/>
-    </row>
-    <row r="54" spans="2:14">
-      <c r="B54" s="51"/>
-      <c r="D54" t="s">
-        <v>421</v>
-      </c>
-      <c r="E54" t="s">
-        <v>422</v>
-      </c>
-      <c r="N54" s="52"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="50"/>
     </row>
     <row r="55" spans="2:14">
       <c r="B55" s="51"/>
-      <c r="D55" t="s">
-        <v>423</v>
-      </c>
-      <c r="E55" t="s">
-        <v>424</v>
+      <c r="C55" t="s">
+        <v>461</v>
       </c>
       <c r="N55" s="52"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="51" t="s">
-        <v>425</v>
-      </c>
+      <c r="B56" s="51"/>
       <c r="N56" s="52"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" ht="20">
       <c r="B57" s="51"/>
-      <c r="C57" t="s">
-        <v>462</v>
+      <c r="D57" s="72" t="s">
+        <v>415</v>
       </c>
       <c r="N57" s="52"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" ht="20">
       <c r="B58" s="51"/>
-      <c r="D58" t="s">
-        <v>427</v>
+      <c r="D58" s="72" t="s">
+        <v>416</v>
       </c>
       <c r="N58" s="52"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" ht="20">
       <c r="B59" s="51"/>
+      <c r="D59" s="72" t="s">
+        <v>417</v>
+      </c>
       <c r="N59" s="52"/>
     </row>
-    <row r="60" spans="2:14">
-      <c r="B60" s="51" t="s">
-        <v>428</v>
+    <row r="60" spans="2:14" ht="20">
+      <c r="B60" s="51"/>
+      <c r="D60" s="72" t="s">
+        <v>418</v>
       </c>
       <c r="N60" s="52"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" ht="20">
       <c r="B61" s="51"/>
+      <c r="D61" s="72" t="s">
+        <v>419</v>
+      </c>
       <c r="N61" s="52"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" ht="20">
       <c r="B62" s="51"/>
-      <c r="C62" t="s">
-        <v>430</v>
-      </c>
-      <c r="I62" t="s">
-        <v>432</v>
-      </c>
+      <c r="D62" s="73" t="s">
+        <v>420</v>
+      </c>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
       <c r="N62" s="52"/>
     </row>
     <row r="63" spans="2:14">
       <c r="B63" s="51"/>
-      <c r="C63" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
       <c r="N63" s="52"/>
     </row>
-    <row r="64" spans="2:14" ht="14.5" thickBot="1">
-      <c r="B64" s="53"/>
-      <c r="C64" s="74" t="s">
-        <v>431</v>
-      </c>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74" t="s">
-        <v>433</v>
-      </c>
-      <c r="J64" s="74"/>
-      <c r="K64" s="74"/>
-      <c r="L64" s="74"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="55"/>
-    </row>
-    <row r="65" spans="2:14" ht="14.5" thickBot="1"/>
+    <row r="64" spans="2:14">
+      <c r="B64" s="51"/>
+      <c r="D64" t="s">
+        <v>421</v>
+      </c>
+      <c r="E64" t="s">
+        <v>422</v>
+      </c>
+      <c r="N64" s="52"/>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" s="51"/>
+      <c r="D65" t="s">
+        <v>423</v>
+      </c>
+      <c r="E65" t="s">
+        <v>424</v>
+      </c>
+      <c r="N65" s="52"/>
+    </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="50"/>
+      <c r="B66" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="N66" s="52"/>
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="51"/>
       <c r="C67" t="s">
-        <v>437</v>
-      </c>
-      <c r="E67" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="N67" s="52"/>
     </row>
     <row r="68" spans="2:14">
       <c r="B68" s="51"/>
+      <c r="D68" t="s">
+        <v>427</v>
+      </c>
       <c r="N68" s="52"/>
     </row>
     <row r="69" spans="2:14">
       <c r="B69" s="51"/>
-      <c r="D69" t="s">
-        <v>439</v>
-      </c>
       <c r="N69" s="52"/>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="51"/>
-      <c r="E70" t="s">
-        <v>440</v>
+      <c r="B70" s="51" t="s">
+        <v>428</v>
       </c>
       <c r="N70" s="52"/>
     </row>
@@ -14019,64 +14562,103 @@
     </row>
     <row r="72" spans="2:14">
       <c r="B72" s="51"/>
+      <c r="C72" t="s">
+        <v>430</v>
+      </c>
+      <c r="I72" t="s">
+        <v>432</v>
+      </c>
       <c r="N72" s="52"/>
     </row>
     <row r="73" spans="2:14">
       <c r="B73" s="51"/>
+      <c r="C73" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
       <c r="N73" s="52"/>
     </row>
-    <row r="74" spans="2:14">
-      <c r="B74" s="51"/>
-      <c r="N74" s="52"/>
-    </row>
-    <row r="75" spans="2:14">
-      <c r="B75" s="51"/>
-      <c r="D75" t="s">
-        <v>438</v>
-      </c>
-      <c r="N75" s="52"/>
-    </row>
+    <row r="74" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B74" s="53"/>
+      <c r="C74" s="74" t="s">
+        <v>431</v>
+      </c>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="J74" s="74"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="74"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="55"/>
+    </row>
+    <row r="75" spans="2:14" ht="14.5" thickBot="1"/>
     <row r="76" spans="2:14">
-      <c r="B76" s="51"/>
-      <c r="E76" t="s">
-        <v>441</v>
-      </c>
-      <c r="N76" s="52"/>
+      <c r="B76" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="50"/>
     </row>
     <row r="77" spans="2:14">
       <c r="B77" s="51"/>
+      <c r="C77" t="s">
+        <v>437</v>
+      </c>
+      <c r="E77" t="s">
+        <v>458</v>
+      </c>
       <c r="N77" s="52"/>
     </row>
     <row r="78" spans="2:14">
       <c r="B78" s="51"/>
-      <c r="K78" t="s">
-        <v>442</v>
-      </c>
       <c r="N78" s="52"/>
     </row>
     <row r="79" spans="2:14">
       <c r="B79" s="51"/>
-      <c r="L79" t="s">
-        <v>443</v>
+      <c r="D79" t="s">
+        <v>439</v>
       </c>
       <c r="N79" s="52"/>
     </row>
     <row r="80" spans="2:14">
       <c r="B80" s="51"/>
+      <c r="E80" t="s">
+        <v>440</v>
+      </c>
       <c r="N80" s="52"/>
     </row>
     <row r="81" spans="2:14">
       <c r="B81" s="51"/>
-      <c r="K81" t="s">
-        <v>444</v>
-      </c>
       <c r="N81" s="52"/>
     </row>
     <row r="82" spans="2:14">
       <c r="B82" s="51"/>
-      <c r="L82" t="s">
-        <v>445</v>
-      </c>
       <c r="N82" s="52"/>
     </row>
     <row r="83" spans="2:14">
@@ -14085,74 +14667,56 @@
     </row>
     <row r="84" spans="2:14">
       <c r="B84" s="51"/>
-      <c r="K84" t="s">
-        <v>446</v>
-      </c>
       <c r="N84" s="52"/>
     </row>
     <row r="85" spans="2:14">
       <c r="B85" s="51"/>
-      <c r="L85" t="s">
-        <v>447</v>
+      <c r="D85" t="s">
+        <v>438</v>
       </c>
       <c r="N85" s="52"/>
     </row>
     <row r="86" spans="2:14">
       <c r="B86" s="51"/>
+      <c r="E86" t="s">
+        <v>441</v>
+      </c>
       <c r="N86" s="52"/>
     </row>
-    <row r="87" spans="2:14" ht="14.5" thickBot="1">
-      <c r="B87" s="53"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="54"/>
-      <c r="N87" s="55"/>
-    </row>
-    <row r="88" spans="2:14" ht="14.5" thickBot="1"/>
+    <row r="87" spans="2:14">
+      <c r="B87" s="51"/>
+      <c r="N87" s="52"/>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="B88" s="51"/>
+      <c r="K88" t="s">
+        <v>442</v>
+      </c>
+      <c r="N88" s="52"/>
+    </row>
     <row r="89" spans="2:14">
-      <c r="B89" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="49"/>
-      <c r="K89" s="49"/>
-      <c r="L89" s="49"/>
-      <c r="M89" s="49"/>
-      <c r="N89" s="50"/>
+      <c r="B89" s="51"/>
+      <c r="L89" t="s">
+        <v>443</v>
+      </c>
+      <c r="N89" s="52"/>
     </row>
     <row r="90" spans="2:14">
       <c r="B90" s="51"/>
-      <c r="C90" t="s">
-        <v>449</v>
-      </c>
       <c r="N90" s="52"/>
     </row>
     <row r="91" spans="2:14">
       <c r="B91" s="51"/>
-      <c r="C91" t="s">
-        <v>450</v>
-      </c>
-      <c r="E91" t="s">
-        <v>456</v>
+      <c r="K91" t="s">
+        <v>444</v>
       </c>
       <c r="N91" s="52"/>
     </row>
     <row r="92" spans="2:14">
       <c r="B92" s="51"/>
+      <c r="L92" t="s">
+        <v>445</v>
+      </c>
       <c r="N92" s="52"/>
     </row>
     <row r="93" spans="2:14">
@@ -14161,47 +14725,74 @@
     </row>
     <row r="94" spans="2:14">
       <c r="B94" s="51"/>
+      <c r="K94" t="s">
+        <v>446</v>
+      </c>
       <c r="N94" s="52"/>
     </row>
     <row r="95" spans="2:14">
       <c r="B95" s="51"/>
+      <c r="L95" t="s">
+        <v>447</v>
+      </c>
       <c r="N95" s="52"/>
     </row>
     <row r="96" spans="2:14">
       <c r="B96" s="51"/>
       <c r="N96" s="52"/>
     </row>
-    <row r="97" spans="2:14">
-      <c r="B97" s="51"/>
-      <c r="N97" s="52"/>
-    </row>
-    <row r="98" spans="2:14">
-      <c r="B98" s="51"/>
-      <c r="C98" t="s">
-        <v>451</v>
-      </c>
-      <c r="E98" t="s">
-        <v>457</v>
-      </c>
-      <c r="N98" s="52"/>
-    </row>
+    <row r="97" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B97" s="53"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="54"/>
+      <c r="M97" s="54"/>
+      <c r="N97" s="55"/>
+    </row>
+    <row r="98" spans="2:14" ht="14.5" thickBot="1"/>
     <row r="99" spans="2:14">
-      <c r="B99" s="51"/>
-      <c r="N99" s="52"/>
+      <c r="B99" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="50"/>
     </row>
     <row r="100" spans="2:14">
       <c r="B100" s="51"/>
+      <c r="C100" t="s">
+        <v>449</v>
+      </c>
       <c r="N100" s="52"/>
     </row>
     <row r="101" spans="2:14">
       <c r="B101" s="51"/>
+      <c r="C101" t="s">
+        <v>450</v>
+      </c>
+      <c r="E101" t="s">
+        <v>456</v>
+      </c>
       <c r="N101" s="52"/>
     </row>
     <row r="102" spans="2:14">
       <c r="B102" s="51"/>
-      <c r="K102" t="s">
-        <v>452</v>
-      </c>
       <c r="N102" s="52"/>
     </row>
     <row r="103" spans="2:14">
@@ -14226,49 +14817,39 @@
     </row>
     <row r="108" spans="2:14">
       <c r="B108" s="51"/>
+      <c r="C108" t="s">
+        <v>451</v>
+      </c>
+      <c r="E108" t="s">
+        <v>457</v>
+      </c>
       <c r="N108" s="52"/>
     </row>
-    <row r="109" spans="2:14" ht="14.5" thickBot="1">
-      <c r="B109" s="53"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="55"/>
-    </row>
-    <row r="112" spans="2:14" ht="14.5" thickBot="1"/>
+    <row r="109" spans="2:14">
+      <c r="B109" s="51"/>
+      <c r="N109" s="52"/>
+    </row>
+    <row r="110" spans="2:14">
+      <c r="B110" s="51"/>
+      <c r="N110" s="52"/>
+    </row>
+    <row r="111" spans="2:14">
+      <c r="B111" s="51"/>
+      <c r="N111" s="52"/>
+    </row>
+    <row r="112" spans="2:14">
+      <c r="B112" s="51"/>
+      <c r="K112" t="s">
+        <v>452</v>
+      </c>
+      <c r="N112" s="52"/>
+    </row>
     <row r="113" spans="2:14">
-      <c r="B113" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="49"/>
-      <c r="G113" s="49"/>
-      <c r="H113" s="49"/>
-      <c r="I113" s="49"/>
-      <c r="J113" s="49"/>
-      <c r="K113" s="49"/>
-      <c r="L113" s="49"/>
-      <c r="M113" s="49"/>
-      <c r="N113" s="50"/>
+      <c r="B113" s="51"/>
+      <c r="N113" s="52"/>
     </row>
     <row r="114" spans="2:14">
       <c r="B114" s="51"/>
-      <c r="C114" t="s">
-        <v>454</v>
-      </c>
-      <c r="E114" t="s">
-        <v>490</v>
-      </c>
       <c r="N114" s="52"/>
     </row>
     <row r="115" spans="2:14">
@@ -14287,28 +14868,47 @@
       <c r="B118" s="51"/>
       <c r="N118" s="52"/>
     </row>
-    <row r="119" spans="2:14">
-      <c r="B119" s="51"/>
-      <c r="N119" s="52"/>
-    </row>
-    <row r="120" spans="2:14">
-      <c r="B120" s="51"/>
-      <c r="N120" s="52"/>
-    </row>
-    <row r="121" spans="2:14">
-      <c r="B121" s="51"/>
-      <c r="N121" s="52"/>
-    </row>
-    <row r="122" spans="2:14">
-      <c r="B122" s="51"/>
-      <c r="N122" s="52"/>
-    </row>
+    <row r="119" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B119" s="53"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="54"/>
+      <c r="M119" s="54"/>
+      <c r="N119" s="55"/>
+    </row>
+    <row r="122" spans="2:14" ht="14.5" thickBot="1"/>
     <row r="123" spans="2:14">
-      <c r="B123" s="51"/>
-      <c r="N123" s="52"/>
+      <c r="B123" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="C123" s="49"/>
+      <c r="D123" s="49"/>
+      <c r="E123" s="49"/>
+      <c r="F123" s="49"/>
+      <c r="G123" s="49"/>
+      <c r="H123" s="49"/>
+      <c r="I123" s="49"/>
+      <c r="J123" s="49"/>
+      <c r="K123" s="49"/>
+      <c r="L123" s="49"/>
+      <c r="M123" s="49"/>
+      <c r="N123" s="50"/>
     </row>
     <row r="124" spans="2:14">
       <c r="B124" s="51"/>
+      <c r="C124" t="s">
+        <v>454</v>
+      </c>
+      <c r="E124" t="s">
+        <v>490</v>
+      </c>
       <c r="N124" s="52"/>
     </row>
     <row r="125" spans="2:14">
@@ -14325,16 +14925,10 @@
     </row>
     <row r="128" spans="2:14">
       <c r="B128" s="51"/>
-      <c r="L128" t="s">
-        <v>459</v>
-      </c>
       <c r="N128" s="52"/>
     </row>
     <row r="129" spans="2:14">
       <c r="B129" s="51"/>
-      <c r="M129" t="s">
-        <v>460</v>
-      </c>
       <c r="N129" s="52"/>
     </row>
     <row r="130" spans="2:14">
@@ -14371,10 +14965,16 @@
     </row>
     <row r="138" spans="2:14">
       <c r="B138" s="51"/>
+      <c r="L138" t="s">
+        <v>459</v>
+      </c>
       <c r="N138" s="52"/>
     </row>
     <row r="139" spans="2:14">
       <c r="B139" s="51"/>
+      <c r="M139" t="s">
+        <v>460</v>
+      </c>
       <c r="N139" s="52"/>
     </row>
     <row r="140" spans="2:14">
@@ -14405,43 +15005,20 @@
       <c r="B146" s="51"/>
       <c r="N146" s="52"/>
     </row>
-    <row r="147" spans="2:14" ht="14.5" thickBot="1">
-      <c r="B147" s="53"/>
-      <c r="C147" s="54"/>
-      <c r="D147" s="54"/>
-      <c r="E147" s="54"/>
-      <c r="F147" s="54"/>
-      <c r="G147" s="54"/>
-      <c r="H147" s="54"/>
-      <c r="I147" s="54"/>
-      <c r="J147" s="54"/>
-      <c r="K147" s="54"/>
-      <c r="L147" s="54"/>
-      <c r="M147" s="54"/>
-      <c r="N147" s="55"/>
-    </row>
-    <row r="148" spans="2:14" ht="14.5" thickBot="1"/>
+    <row r="147" spans="2:14">
+      <c r="B147" s="51"/>
+      <c r="N147" s="52"/>
+    </row>
+    <row r="148" spans="2:14">
+      <c r="B148" s="51"/>
+      <c r="N148" s="52"/>
+    </row>
     <row r="149" spans="2:14">
-      <c r="B149" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="C149" s="49"/>
-      <c r="D149" s="49"/>
-      <c r="E149" s="49"/>
-      <c r="F149" s="49"/>
-      <c r="G149" s="49"/>
-      <c r="H149" s="49"/>
-      <c r="I149" s="49"/>
-      <c r="J149" s="49"/>
-      <c r="K149" s="49"/>
-      <c r="L149" s="49"/>
-      <c r="M149" s="49"/>
-      <c r="N149" s="50"/>
+      <c r="B149" s="51"/>
+      <c r="N149" s="52"/>
     </row>
     <row r="150" spans="2:14">
-      <c r="B150" s="51" t="s">
-        <v>463</v>
-      </c>
+      <c r="B150" s="51"/>
       <c r="N150" s="52"/>
     </row>
     <row r="151" spans="2:14">
@@ -14468,110 +15045,1038 @@
       <c r="B156" s="51"/>
       <c r="N156" s="52"/>
     </row>
-    <row r="157" spans="2:14">
-      <c r="B157" s="51"/>
-      <c r="N157" s="52"/>
-    </row>
-    <row r="158" spans="2:14">
-      <c r="B158" s="51"/>
-      <c r="N158" s="52"/>
-    </row>
+    <row r="157" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B157" s="53"/>
+      <c r="C157" s="54"/>
+      <c r="D157" s="54"/>
+      <c r="E157" s="54"/>
+      <c r="F157" s="54"/>
+      <c r="G157" s="54"/>
+      <c r="H157" s="54"/>
+      <c r="I157" s="54"/>
+      <c r="J157" s="54"/>
+      <c r="K157" s="54"/>
+      <c r="L157" s="54"/>
+      <c r="M157" s="54"/>
+      <c r="N157" s="55"/>
+    </row>
+    <row r="158" spans="2:14" ht="14.5" thickBot="1"/>
     <row r="159" spans="2:14">
-      <c r="B159" s="51"/>
-      <c r="N159" s="52"/>
+      <c r="B159" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="C159" s="49"/>
+      <c r="D159" s="49"/>
+      <c r="E159" s="49"/>
+      <c r="F159" s="49"/>
+      <c r="G159" s="49"/>
+      <c r="H159" s="49"/>
+      <c r="I159" s="49"/>
+      <c r="J159" s="49"/>
+      <c r="K159" s="49"/>
+      <c r="L159" s="49"/>
+      <c r="M159" s="49"/>
+      <c r="N159" s="50"/>
     </row>
     <row r="160" spans="2:14">
-      <c r="B160" s="51"/>
+      <c r="B160" s="51" t="s">
+        <v>463</v>
+      </c>
       <c r="N160" s="52"/>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="2:14">
       <c r="B161" s="51"/>
       <c r="N161" s="52"/>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="2:14">
       <c r="B162" s="51"/>
       <c r="N162" s="52"/>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="2:14">
       <c r="B163" s="51"/>
       <c r="N163" s="52"/>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="2:14">
       <c r="B164" s="51"/>
       <c r="N164" s="52"/>
     </row>
-    <row r="165" spans="1:14" ht="14.5" thickBot="1">
-      <c r="B165" s="53"/>
-      <c r="C165" s="54"/>
-      <c r="D165" s="54"/>
-      <c r="E165" s="54"/>
-      <c r="F165" s="54"/>
-      <c r="G165" s="54"/>
-      <c r="H165" s="54"/>
-      <c r="I165" s="54"/>
-      <c r="J165" s="54"/>
-      <c r="K165" s="54"/>
-      <c r="L165" s="54"/>
-      <c r="M165" s="54"/>
-      <c r="N165" s="55"/>
-    </row>
-    <row r="167" spans="1:14">
-      <c r="A167" s="77" t="s">
+    <row r="165" spans="2:14">
+      <c r="B165" s="51"/>
+      <c r="N165" s="52"/>
+    </row>
+    <row r="166" spans="2:14">
+      <c r="B166" s="51"/>
+      <c r="N166" s="52"/>
+    </row>
+    <row r="167" spans="2:14">
+      <c r="B167" s="51"/>
+      <c r="N167" s="52"/>
+    </row>
+    <row r="168" spans="2:14">
+      <c r="B168" s="51"/>
+      <c r="N168" s="52"/>
+    </row>
+    <row r="169" spans="2:14">
+      <c r="B169" s="51"/>
+      <c r="N169" s="52"/>
+    </row>
+    <row r="170" spans="2:14">
+      <c r="B170" s="51"/>
+      <c r="N170" s="52"/>
+    </row>
+    <row r="171" spans="2:14">
+      <c r="B171" s="51"/>
+      <c r="N171" s="52"/>
+    </row>
+    <row r="172" spans="2:14">
+      <c r="B172" s="51"/>
+      <c r="N172" s="52"/>
+    </row>
+    <row r="173" spans="2:14">
+      <c r="B173" s="51"/>
+      <c r="N173" s="52"/>
+    </row>
+    <row r="174" spans="2:14">
+      <c r="B174" s="51"/>
+      <c r="N174" s="52"/>
+    </row>
+    <row r="175" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B175" s="53"/>
+      <c r="C175" s="54"/>
+      <c r="D175" s="54"/>
+      <c r="E175" s="54"/>
+      <c r="F175" s="54"/>
+      <c r="G175" s="54"/>
+      <c r="H175" s="54"/>
+      <c r="I175" s="54"/>
+      <c r="J175" s="54"/>
+      <c r="K175" s="54"/>
+      <c r="L175" s="54"/>
+      <c r="M175" s="54"/>
+      <c r="N175" s="55"/>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="76" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="168" spans="1:14">
-      <c r="B168" t="s">
+      <c r="B177" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="B178" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
-      <c r="B169" t="s">
+    <row r="179" spans="1:2">
+      <c r="B179" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
-      <c r="B186" t="s">
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
-      <c r="B187" t="s">
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="207" spans="2:2">
-      <c r="B207" t="s">
+    <row r="217" spans="2:15">
+      <c r="B217" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
-      <c r="B208" t="s">
+    <row r="218" spans="2:15">
+      <c r="B218" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
-      <c r="B235" t="s">
+    <row r="222" spans="2:15">
+      <c r="O222" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
-      <c r="B236" t="s">
+    <row r="246" spans="2:2">
+      <c r="B246" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="247" spans="2:3">
-      <c r="B247" t="s">
+    <row r="257" spans="2:3">
+      <c r="B257" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="249" spans="2:3">
-      <c r="C249" t="s">
+    <row r="259" spans="2:3">
+      <c r="C259" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="266" spans="3:3">
-      <c r="C266" t="s">
+    <row r="276" spans="3:3">
+      <c r="C276" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13">
+      <c r="A292" s="76" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" ht="14.5" thickBot="1">
+      <c r="B294" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13">
+      <c r="B295" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="C295" s="49"/>
+      <c r="D295" s="49"/>
+      <c r="E295" s="49"/>
+      <c r="F295" s="49"/>
+      <c r="G295" s="49"/>
+      <c r="H295" s="49"/>
+      <c r="I295" s="49"/>
+      <c r="J295" s="49"/>
+      <c r="K295" s="49"/>
+      <c r="L295" s="49"/>
+      <c r="M295" s="50"/>
+    </row>
+    <row r="296" spans="1:13">
+      <c r="B296" s="51"/>
+      <c r="C296" s="77"/>
+      <c r="D296" s="77"/>
+      <c r="E296" s="77"/>
+      <c r="F296" s="77"/>
+      <c r="G296" s="77"/>
+      <c r="H296" s="77"/>
+      <c r="I296" s="77"/>
+      <c r="J296" s="77"/>
+      <c r="K296" s="77"/>
+      <c r="L296" s="77"/>
+      <c r="M296" s="52"/>
+    </row>
+    <row r="297" spans="1:13">
+      <c r="B297" s="51"/>
+      <c r="C297" s="77"/>
+      <c r="D297" s="77"/>
+      <c r="E297" s="77"/>
+      <c r="F297" s="77"/>
+      <c r="G297" s="77"/>
+      <c r="H297" s="77"/>
+      <c r="I297" s="77"/>
+      <c r="J297" s="77"/>
+      <c r="K297" s="77"/>
+      <c r="L297" s="77"/>
+      <c r="M297" s="52"/>
+    </row>
+    <row r="298" spans="1:13">
+      <c r="B298" s="51"/>
+      <c r="C298" s="77"/>
+      <c r="D298" s="77"/>
+      <c r="E298" s="77"/>
+      <c r="F298" s="77"/>
+      <c r="G298" s="77"/>
+      <c r="H298" s="77"/>
+      <c r="I298" s="77"/>
+      <c r="J298" s="77"/>
+      <c r="K298" s="77"/>
+      <c r="L298" s="77"/>
+      <c r="M298" s="52"/>
+    </row>
+    <row r="299" spans="1:13">
+      <c r="B299" s="51"/>
+      <c r="C299" s="77"/>
+      <c r="D299" s="77"/>
+      <c r="E299" s="77"/>
+      <c r="F299" s="77"/>
+      <c r="G299" s="77"/>
+      <c r="H299" s="77"/>
+      <c r="I299" s="77"/>
+      <c r="J299" s="77"/>
+      <c r="K299" s="77"/>
+      <c r="L299" s="77"/>
+      <c r="M299" s="52"/>
+    </row>
+    <row r="300" spans="1:13">
+      <c r="B300" s="51"/>
+      <c r="C300" s="77"/>
+      <c r="D300" s="77"/>
+      <c r="E300" s="77"/>
+      <c r="F300" s="77"/>
+      <c r="G300" s="77"/>
+      <c r="H300" s="77"/>
+      <c r="I300" s="77"/>
+      <c r="J300" s="77"/>
+      <c r="K300" s="77"/>
+      <c r="L300" s="77"/>
+      <c r="M300" s="52"/>
+    </row>
+    <row r="301" spans="1:13">
+      <c r="B301" s="51"/>
+      <c r="C301" s="77"/>
+      <c r="D301" s="77"/>
+      <c r="E301" s="77"/>
+      <c r="F301" s="77"/>
+      <c r="G301" s="77"/>
+      <c r="H301" s="77"/>
+      <c r="I301" s="77"/>
+      <c r="J301" s="77"/>
+      <c r="K301" s="77"/>
+      <c r="L301" s="77"/>
+      <c r="M301" s="52"/>
+    </row>
+    <row r="302" spans="1:13">
+      <c r="B302" s="51"/>
+      <c r="C302" s="77"/>
+      <c r="D302" s="77"/>
+      <c r="E302" s="77"/>
+      <c r="F302" s="77"/>
+      <c r="G302" s="77"/>
+      <c r="H302" s="77"/>
+      <c r="I302" s="77"/>
+      <c r="J302" s="77"/>
+      <c r="K302" s="77"/>
+      <c r="L302" s="77"/>
+      <c r="M302" s="52"/>
+    </row>
+    <row r="303" spans="1:13">
+      <c r="B303" s="51"/>
+      <c r="C303" s="77"/>
+      <c r="D303" s="77"/>
+      <c r="E303" s="77"/>
+      <c r="F303" s="77"/>
+      <c r="G303" s="77"/>
+      <c r="H303" s="77"/>
+      <c r="I303" s="77"/>
+      <c r="J303" s="77"/>
+      <c r="K303" s="77"/>
+      <c r="L303" s="77"/>
+      <c r="M303" s="52"/>
+    </row>
+    <row r="304" spans="1:13" ht="20">
+      <c r="B304" s="51"/>
+      <c r="C304" s="78" t="s">
+        <v>509</v>
+      </c>
+      <c r="D304" s="77"/>
+      <c r="E304" s="77"/>
+      <c r="F304" s="77"/>
+      <c r="G304" s="77"/>
+      <c r="H304" s="77"/>
+      <c r="I304" s="77"/>
+      <c r="J304" s="77"/>
+      <c r="K304" s="77"/>
+      <c r="L304" s="77"/>
+      <c r="M304" s="52"/>
+    </row>
+    <row r="305" spans="2:13">
+      <c r="B305" s="51"/>
+      <c r="C305" s="77"/>
+      <c r="D305" s="77"/>
+      <c r="E305" s="77"/>
+      <c r="F305" s="77"/>
+      <c r="G305" s="77"/>
+      <c r="H305" s="77"/>
+      <c r="I305" s="77"/>
+      <c r="J305" s="77"/>
+      <c r="K305" s="77"/>
+      <c r="L305" s="77"/>
+      <c r="M305" s="52"/>
+    </row>
+    <row r="306" spans="2:13">
+      <c r="B306" s="51"/>
+      <c r="C306" s="77"/>
+      <c r="D306" s="77" t="s">
+        <v>510</v>
+      </c>
+      <c r="E306" s="77"/>
+      <c r="F306" s="77"/>
+      <c r="G306" s="77"/>
+      <c r="H306" s="77"/>
+      <c r="I306" s="77"/>
+      <c r="J306" s="77"/>
+      <c r="K306" s="77"/>
+      <c r="L306" s="77"/>
+      <c r="M306" s="52"/>
+    </row>
+    <row r="307" spans="2:13" ht="14.5" thickBot="1">
+      <c r="B307" s="53"/>
+      <c r="C307" s="54" t="s">
+        <v>512</v>
+      </c>
+      <c r="D307" s="54" t="s">
+        <v>511</v>
+      </c>
+      <c r="E307" s="54"/>
+      <c r="F307" s="54"/>
+      <c r="G307" s="54"/>
+      <c r="H307" s="54"/>
+      <c r="I307" s="54"/>
+      <c r="J307" s="54"/>
+      <c r="K307" s="54"/>
+      <c r="L307" s="54"/>
+      <c r="M307" s="55"/>
+    </row>
+    <row r="309" spans="2:13" ht="14.5" thickBot="1">
+      <c r="B309" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="310" spans="2:13">
+      <c r="B310" s="48"/>
+      <c r="C310" s="49"/>
+      <c r="D310" s="49"/>
+      <c r="E310" s="49"/>
+      <c r="F310" s="49"/>
+      <c r="G310" s="49"/>
+      <c r="H310" s="49"/>
+      <c r="I310" s="49"/>
+      <c r="J310" s="50"/>
+    </row>
+    <row r="311" spans="2:13">
+      <c r="B311" s="51" t="s">
+        <v>515</v>
+      </c>
+      <c r="C311" s="77"/>
+      <c r="D311" s="77"/>
+      <c r="E311" s="77"/>
+      <c r="F311" s="77"/>
+      <c r="G311" s="77"/>
+      <c r="H311" s="77"/>
+      <c r="I311" s="77"/>
+      <c r="J311" s="52"/>
+    </row>
+    <row r="312" spans="2:13">
+      <c r="B312" s="51"/>
+      <c r="C312" s="77"/>
+      <c r="D312" s="77"/>
+      <c r="E312" s="77"/>
+      <c r="F312" s="77"/>
+      <c r="G312" s="77"/>
+      <c r="H312" s="77"/>
+      <c r="I312" s="77"/>
+      <c r="J312" s="52"/>
+    </row>
+    <row r="313" spans="2:13">
+      <c r="B313" s="51"/>
+      <c r="C313" s="77"/>
+      <c r="D313" s="77"/>
+      <c r="E313" s="77"/>
+      <c r="F313" s="77"/>
+      <c r="G313" s="77"/>
+      <c r="H313" s="77"/>
+      <c r="I313" s="77"/>
+      <c r="J313" s="52"/>
+    </row>
+    <row r="314" spans="2:13">
+      <c r="B314" s="51"/>
+      <c r="C314" s="77"/>
+      <c r="D314" s="77"/>
+      <c r="E314" s="77"/>
+      <c r="F314" s="77"/>
+      <c r="G314" s="77"/>
+      <c r="H314" s="77"/>
+      <c r="I314" s="77"/>
+      <c r="J314" s="52"/>
+    </row>
+    <row r="315" spans="2:13">
+      <c r="B315" s="51"/>
+      <c r="C315" s="77"/>
+      <c r="D315" s="77"/>
+      <c r="E315" s="77"/>
+      <c r="F315" s="77"/>
+      <c r="G315" s="77"/>
+      <c r="H315" s="77"/>
+      <c r="I315" s="77"/>
+      <c r="J315" s="52"/>
+    </row>
+    <row r="316" spans="2:13">
+      <c r="B316" s="51"/>
+      <c r="C316" s="77"/>
+      <c r="D316" s="77"/>
+      <c r="E316" s="77"/>
+      <c r="F316" s="77"/>
+      <c r="G316" s="77"/>
+      <c r="H316" s="77"/>
+      <c r="I316" s="77"/>
+      <c r="J316" s="52"/>
+    </row>
+    <row r="317" spans="2:13">
+      <c r="B317" s="51"/>
+      <c r="C317" s="77"/>
+      <c r="D317" s="77"/>
+      <c r="E317" s="77"/>
+      <c r="F317" s="77"/>
+      <c r="G317" s="77"/>
+      <c r="H317" s="77"/>
+      <c r="I317" s="77"/>
+      <c r="J317" s="52"/>
+    </row>
+    <row r="318" spans="2:13">
+      <c r="B318" s="51"/>
+      <c r="C318" s="77"/>
+      <c r="D318" s="77"/>
+      <c r="E318" s="77"/>
+      <c r="F318" s="77"/>
+      <c r="G318" s="77"/>
+      <c r="H318" s="77"/>
+      <c r="I318" s="77"/>
+      <c r="J318" s="52"/>
+    </row>
+    <row r="319" spans="2:13">
+      <c r="B319" s="51"/>
+      <c r="C319" s="77"/>
+      <c r="D319" s="77"/>
+      <c r="E319" s="77"/>
+      <c r="F319" s="77"/>
+      <c r="G319" s="77"/>
+      <c r="H319" s="77"/>
+      <c r="I319" s="77"/>
+      <c r="J319" s="52"/>
+    </row>
+    <row r="320" spans="2:13">
+      <c r="B320" s="51"/>
+      <c r="C320" s="77"/>
+      <c r="D320" s="77"/>
+      <c r="E320" s="77"/>
+      <c r="F320" s="77"/>
+      <c r="G320" s="77"/>
+      <c r="H320" s="77"/>
+      <c r="I320" s="77"/>
+      <c r="J320" s="52"/>
+    </row>
+    <row r="321" spans="2:14">
+      <c r="B321" s="51"/>
+      <c r="C321" s="77"/>
+      <c r="D321" s="77"/>
+      <c r="E321" s="77"/>
+      <c r="F321" s="77"/>
+      <c r="G321" s="77"/>
+      <c r="H321" s="77"/>
+      <c r="I321" s="77"/>
+      <c r="J321" s="52"/>
+    </row>
+    <row r="322" spans="2:14">
+      <c r="B322" s="51"/>
+      <c r="C322" s="77"/>
+      <c r="D322" s="77"/>
+      <c r="E322" s="77"/>
+      <c r="F322" s="77"/>
+      <c r="G322" s="77"/>
+      <c r="H322" s="77"/>
+      <c r="I322" s="77"/>
+      <c r="J322" s="52"/>
+    </row>
+    <row r="323" spans="2:14">
+      <c r="B323" s="51"/>
+      <c r="C323" s="77"/>
+      <c r="D323" s="77"/>
+      <c r="E323" s="77"/>
+      <c r="F323" s="77"/>
+      <c r="G323" s="77"/>
+      <c r="H323" s="77"/>
+      <c r="I323" s="77"/>
+      <c r="J323" s="52"/>
+    </row>
+    <row r="324" spans="2:14">
+      <c r="B324" s="51"/>
+      <c r="C324" s="77"/>
+      <c r="D324" s="77"/>
+      <c r="E324" s="77"/>
+      <c r="F324" s="77"/>
+      <c r="G324" s="77"/>
+      <c r="H324" s="77"/>
+      <c r="I324" s="77"/>
+      <c r="J324" s="52"/>
+    </row>
+    <row r="325" spans="2:14">
+      <c r="B325" s="51"/>
+      <c r="C325" s="77"/>
+      <c r="D325" s="77"/>
+      <c r="E325" s="77"/>
+      <c r="F325" s="77"/>
+      <c r="G325" s="77"/>
+      <c r="H325" s="77"/>
+      <c r="I325" s="77"/>
+      <c r="J325" s="52"/>
+    </row>
+    <row r="326" spans="2:14">
+      <c r="B326" s="51"/>
+      <c r="C326" s="77"/>
+      <c r="D326" s="77"/>
+      <c r="E326" s="77"/>
+      <c r="F326" s="77"/>
+      <c r="G326" s="77"/>
+      <c r="H326" s="77"/>
+      <c r="I326" s="77"/>
+      <c r="J326" s="52"/>
+    </row>
+    <row r="327" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B327" s="53"/>
+      <c r="C327" s="54"/>
+      <c r="D327" s="54"/>
+      <c r="E327" s="54"/>
+      <c r="F327" s="54"/>
+      <c r="G327" s="54"/>
+      <c r="H327" s="54"/>
+      <c r="I327" s="54"/>
+      <c r="J327" s="55"/>
+    </row>
+    <row r="330" spans="2:14">
+      <c r="B330" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="331" spans="2:14" ht="14.5" thickBot="1"/>
+    <row r="332" spans="2:14">
+      <c r="B332" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="C332" s="49"/>
+      <c r="D332" s="49"/>
+      <c r="E332" s="49"/>
+      <c r="F332" s="49"/>
+      <c r="G332" s="49"/>
+      <c r="H332" s="49"/>
+      <c r="I332" s="49"/>
+      <c r="J332" s="49"/>
+      <c r="K332" s="49"/>
+      <c r="L332" s="49"/>
+      <c r="M332" s="49"/>
+      <c r="N332" s="50"/>
+    </row>
+    <row r="333" spans="2:14">
+      <c r="B333" s="51"/>
+      <c r="C333" s="77"/>
+      <c r="D333" s="77"/>
+      <c r="E333" s="77"/>
+      <c r="F333" s="77"/>
+      <c r="G333" s="77"/>
+      <c r="H333" s="77"/>
+      <c r="I333" s="77"/>
+      <c r="J333" s="77"/>
+      <c r="K333" s="77"/>
+      <c r="L333" s="77"/>
+      <c r="M333" s="77"/>
+      <c r="N333" s="52"/>
+    </row>
+    <row r="334" spans="2:14">
+      <c r="B334" s="51" t="s">
+        <v>518</v>
+      </c>
+      <c r="C334" s="77"/>
+      <c r="D334" s="77"/>
+      <c r="E334" s="77"/>
+      <c r="F334" s="77"/>
+      <c r="G334" s="77"/>
+      <c r="H334" s="77"/>
+      <c r="I334" s="77"/>
+      <c r="J334" s="77"/>
+      <c r="K334" s="77"/>
+      <c r="L334" s="77"/>
+      <c r="M334" s="77"/>
+      <c r="N334" s="52"/>
+    </row>
+    <row r="335" spans="2:14">
+      <c r="B335" s="51"/>
+      <c r="C335" s="77"/>
+      <c r="D335" s="77"/>
+      <c r="E335" s="77"/>
+      <c r="F335" s="77"/>
+      <c r="G335" s="77"/>
+      <c r="H335" s="77"/>
+      <c r="I335" s="77"/>
+      <c r="J335" s="77"/>
+      <c r="K335" s="77"/>
+      <c r="L335" s="77"/>
+      <c r="M335" s="77"/>
+      <c r="N335" s="52"/>
+    </row>
+    <row r="336" spans="2:14">
+      <c r="B336" s="51"/>
+      <c r="C336" s="77"/>
+      <c r="D336" s="77"/>
+      <c r="E336" s="77"/>
+      <c r="F336" s="77"/>
+      <c r="G336" s="77"/>
+      <c r="H336" s="77"/>
+      <c r="I336" s="77"/>
+      <c r="J336" s="77"/>
+      <c r="K336" s="77"/>
+      <c r="L336" s="77"/>
+      <c r="M336" s="77"/>
+      <c r="N336" s="52"/>
+    </row>
+    <row r="337" spans="2:14">
+      <c r="B337" s="51"/>
+      <c r="C337" s="77"/>
+      <c r="D337" s="77"/>
+      <c r="E337" s="77"/>
+      <c r="F337" s="77"/>
+      <c r="G337" s="77"/>
+      <c r="H337" s="77"/>
+      <c r="I337" s="77"/>
+      <c r="J337" s="77"/>
+      <c r="K337" s="77"/>
+      <c r="L337" s="77"/>
+      <c r="M337" s="77"/>
+      <c r="N337" s="52"/>
+    </row>
+    <row r="338" spans="2:14">
+      <c r="B338" s="51"/>
+      <c r="C338" s="77"/>
+      <c r="D338" s="77"/>
+      <c r="E338" s="77"/>
+      <c r="F338" s="77"/>
+      <c r="G338" s="77"/>
+      <c r="H338" s="77"/>
+      <c r="I338" s="77"/>
+      <c r="J338" s="77"/>
+      <c r="K338" s="77"/>
+      <c r="L338" s="77"/>
+      <c r="M338" s="77"/>
+      <c r="N338" s="52"/>
+    </row>
+    <row r="339" spans="2:14">
+      <c r="B339" s="51"/>
+      <c r="C339" s="77"/>
+      <c r="D339" s="77"/>
+      <c r="E339" s="77"/>
+      <c r="F339" s="77"/>
+      <c r="G339" s="77"/>
+      <c r="H339" s="77"/>
+      <c r="I339" s="77"/>
+      <c r="J339" s="77"/>
+      <c r="K339" s="77"/>
+      <c r="L339" s="77"/>
+      <c r="M339" s="77"/>
+      <c r="N339" s="52"/>
+    </row>
+    <row r="340" spans="2:14">
+      <c r="B340" s="51"/>
+      <c r="C340" s="77"/>
+      <c r="D340" s="77"/>
+      <c r="E340" s="77"/>
+      <c r="F340" s="77"/>
+      <c r="G340" s="77"/>
+      <c r="H340" s="77"/>
+      <c r="I340" s="77"/>
+      <c r="J340" s="77"/>
+      <c r="K340" s="77"/>
+      <c r="L340" s="77"/>
+      <c r="M340" s="77"/>
+      <c r="N340" s="52"/>
+    </row>
+    <row r="341" spans="2:14">
+      <c r="B341" s="51"/>
+      <c r="C341" s="77"/>
+      <c r="D341" s="77"/>
+      <c r="E341" s="77"/>
+      <c r="F341" s="77"/>
+      <c r="G341" s="77"/>
+      <c r="H341" s="77"/>
+      <c r="I341" s="77"/>
+      <c r="J341" s="77"/>
+      <c r="K341" s="77"/>
+      <c r="L341" s="77"/>
+      <c r="M341" s="77"/>
+      <c r="N341" s="52"/>
+    </row>
+    <row r="342" spans="2:14">
+      <c r="B342" s="51"/>
+      <c r="C342" s="77"/>
+      <c r="D342" s="77"/>
+      <c r="E342" s="77"/>
+      <c r="F342" s="77"/>
+      <c r="G342" s="77"/>
+      <c r="H342" s="77"/>
+      <c r="I342" s="77"/>
+      <c r="J342" s="77"/>
+      <c r="K342" s="77"/>
+      <c r="L342" s="77"/>
+      <c r="M342" s="77"/>
+      <c r="N342" s="52"/>
+    </row>
+    <row r="343" spans="2:14">
+      <c r="B343" s="51"/>
+      <c r="C343" s="77"/>
+      <c r="D343" s="77"/>
+      <c r="E343" s="77"/>
+      <c r="F343" s="77"/>
+      <c r="G343" s="77"/>
+      <c r="H343" s="77"/>
+      <c r="I343" s="77"/>
+      <c r="J343" s="77"/>
+      <c r="K343" s="77"/>
+      <c r="L343" s="77"/>
+      <c r="M343" s="77"/>
+      <c r="N343" s="52"/>
+    </row>
+    <row r="344" spans="2:14">
+      <c r="B344" s="51"/>
+      <c r="C344" s="77"/>
+      <c r="D344" s="77"/>
+      <c r="E344" s="77"/>
+      <c r="F344" s="77"/>
+      <c r="G344" s="77"/>
+      <c r="H344" s="77"/>
+      <c r="I344" s="77"/>
+      <c r="J344" s="77"/>
+      <c r="K344" s="77"/>
+      <c r="L344" s="77"/>
+      <c r="M344" s="77"/>
+      <c r="N344" s="52"/>
+    </row>
+    <row r="345" spans="2:14">
+      <c r="B345" s="51"/>
+      <c r="C345" s="77"/>
+      <c r="D345" s="77"/>
+      <c r="E345" s="77"/>
+      <c r="F345" s="77"/>
+      <c r="G345" s="77"/>
+      <c r="H345" s="77"/>
+      <c r="I345" s="77"/>
+      <c r="J345" s="77"/>
+      <c r="K345" s="77"/>
+      <c r="L345" s="77"/>
+      <c r="M345" s="77"/>
+      <c r="N345" s="52"/>
+    </row>
+    <row r="346" spans="2:14">
+      <c r="B346" s="51"/>
+      <c r="C346" s="77"/>
+      <c r="D346" s="77"/>
+      <c r="E346" s="77"/>
+      <c r="F346" s="77"/>
+      <c r="G346" s="77"/>
+      <c r="H346" s="77"/>
+      <c r="I346" s="77"/>
+      <c r="J346" s="77"/>
+      <c r="K346" s="77"/>
+      <c r="L346" s="77"/>
+      <c r="M346" s="77"/>
+      <c r="N346" s="52"/>
+    </row>
+    <row r="347" spans="2:14">
+      <c r="B347" s="51"/>
+      <c r="C347" s="77"/>
+      <c r="D347" s="77"/>
+      <c r="E347" s="77"/>
+      <c r="F347" s="77"/>
+      <c r="G347" s="77"/>
+      <c r="H347" s="77"/>
+      <c r="I347" s="77"/>
+      <c r="J347" s="77"/>
+      <c r="K347" s="77"/>
+      <c r="L347" s="77"/>
+      <c r="M347" s="77"/>
+      <c r="N347" s="52"/>
+    </row>
+    <row r="348" spans="2:14">
+      <c r="B348" s="51"/>
+      <c r="C348" s="77"/>
+      <c r="D348" s="77"/>
+      <c r="E348" s="77"/>
+      <c r="F348" s="77"/>
+      <c r="G348" s="77"/>
+      <c r="H348" s="77"/>
+      <c r="I348" s="77"/>
+      <c r="J348" s="77"/>
+      <c r="K348" s="77"/>
+      <c r="L348" s="77"/>
+      <c r="M348" s="77"/>
+      <c r="N348" s="52"/>
+    </row>
+    <row r="349" spans="2:14">
+      <c r="B349" s="51"/>
+      <c r="C349" s="77"/>
+      <c r="D349" s="77"/>
+      <c r="E349" s="77"/>
+      <c r="F349" s="77"/>
+      <c r="G349" s="77"/>
+      <c r="H349" s="77"/>
+      <c r="I349" s="77"/>
+      <c r="J349" s="77"/>
+      <c r="K349" s="77"/>
+      <c r="L349" s="77"/>
+      <c r="M349" s="77"/>
+      <c r="N349" s="52"/>
+    </row>
+    <row r="350" spans="2:14">
+      <c r="B350" s="51"/>
+      <c r="C350" s="77"/>
+      <c r="D350" s="77"/>
+      <c r="E350" s="77"/>
+      <c r="F350" s="77"/>
+      <c r="G350" s="77"/>
+      <c r="H350" s="77"/>
+      <c r="I350" s="77"/>
+      <c r="J350" s="77"/>
+      <c r="K350" s="77"/>
+      <c r="L350" s="77"/>
+      <c r="M350" s="77"/>
+      <c r="N350" s="52"/>
+    </row>
+    <row r="351" spans="2:14">
+      <c r="B351" s="51"/>
+      <c r="C351" s="77"/>
+      <c r="D351" s="77"/>
+      <c r="E351" s="77"/>
+      <c r="F351" s="77"/>
+      <c r="G351" s="77"/>
+      <c r="H351" s="77"/>
+      <c r="I351" s="77"/>
+      <c r="J351" s="77"/>
+      <c r="K351" s="77"/>
+      <c r="L351" s="77"/>
+      <c r="M351" s="77"/>
+      <c r="N351" s="52"/>
+    </row>
+    <row r="352" spans="2:14">
+      <c r="B352" s="51"/>
+      <c r="C352" s="77"/>
+      <c r="D352" s="77"/>
+      <c r="E352" s="77"/>
+      <c r="F352" s="77"/>
+      <c r="G352" s="77"/>
+      <c r="H352" s="77"/>
+      <c r="I352" s="77"/>
+      <c r="J352" s="77"/>
+      <c r="K352" s="77"/>
+      <c r="L352" s="77"/>
+      <c r="M352" s="77"/>
+      <c r="N352" s="52"/>
+    </row>
+    <row r="353" spans="2:14">
+      <c r="B353" s="51"/>
+      <c r="C353" s="77"/>
+      <c r="D353" s="77"/>
+      <c r="E353" s="77"/>
+      <c r="F353" s="77"/>
+      <c r="G353" s="77"/>
+      <c r="H353" s="77"/>
+      <c r="I353" s="77"/>
+      <c r="J353" s="77"/>
+      <c r="K353" s="77"/>
+      <c r="L353" s="77"/>
+      <c r="M353" s="77"/>
+      <c r="N353" s="52"/>
+    </row>
+    <row r="354" spans="2:14">
+      <c r="B354" s="51"/>
+      <c r="C354" s="77"/>
+      <c r="D354" s="77"/>
+      <c r="E354" s="77"/>
+      <c r="F354" s="77"/>
+      <c r="G354" s="77"/>
+      <c r="H354" s="77"/>
+      <c r="I354" s="77"/>
+      <c r="J354" s="77"/>
+      <c r="K354" s="77"/>
+      <c r="L354" s="77"/>
+      <c r="M354" s="77"/>
+      <c r="N354" s="52"/>
+    </row>
+    <row r="355" spans="2:14">
+      <c r="B355" s="51"/>
+      <c r="C355" s="77"/>
+      <c r="D355" s="77"/>
+      <c r="E355" s="77"/>
+      <c r="F355" s="77"/>
+      <c r="G355" s="77"/>
+      <c r="H355" s="77"/>
+      <c r="I355" s="77"/>
+      <c r="J355" s="77"/>
+      <c r="K355" s="77"/>
+      <c r="L355" s="77"/>
+      <c r="M355" s="77"/>
+      <c r="N355" s="52"/>
+    </row>
+    <row r="356" spans="2:14">
+      <c r="B356" s="51"/>
+      <c r="C356" s="77"/>
+      <c r="D356" s="77"/>
+      <c r="E356" s="77"/>
+      <c r="F356" s="77"/>
+      <c r="G356" s="77"/>
+      <c r="H356" s="77"/>
+      <c r="I356" s="77"/>
+      <c r="J356" s="77"/>
+      <c r="K356" s="77"/>
+      <c r="L356" s="77"/>
+      <c r="M356" s="77"/>
+      <c r="N356" s="52"/>
+    </row>
+    <row r="357" spans="2:14">
+      <c r="B357" s="51"/>
+      <c r="C357" s="77"/>
+      <c r="D357" s="77"/>
+      <c r="E357" s="77"/>
+      <c r="F357" s="77"/>
+      <c r="G357" s="77"/>
+      <c r="H357" s="77"/>
+      <c r="I357" s="77"/>
+      <c r="J357" s="77"/>
+      <c r="K357" s="77"/>
+      <c r="L357" s="77"/>
+      <c r="M357" s="77"/>
+      <c r="N357" s="52"/>
+    </row>
+    <row r="358" spans="2:14" ht="14.5" thickBot="1">
+      <c r="B358" s="53"/>
+      <c r="C358" s="54"/>
+      <c r="D358" s="54"/>
+      <c r="E358" s="54"/>
+      <c r="F358" s="54"/>
+      <c r="G358" s="54"/>
+      <c r="H358" s="54"/>
+      <c r="I358" s="54"/>
+      <c r="J358" s="54"/>
+      <c r="K358" s="54"/>
+      <c r="L358" s="54"/>
+      <c r="M358" s="54"/>
+      <c r="N358" s="55"/>
+    </row>
+    <row r="360" spans="2:14">
+      <c r="B360" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="361" spans="2:14">
+      <c r="B361" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="373" spans="2:10">
+      <c r="J373" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="374" spans="2:10">
+      <c r="J374" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="377" spans="2:10">
+      <c r="B377" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="378" spans="2:10">
+      <c r="B378" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392" t="s">
         <v>457</v>
       </c>
     </row>
@@ -14579,10 +16084,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E33" r:id="rId1" display="XXXController里的@RequestMapping" xr:uid="{2B8AFF28-4FA0-46AE-8C59-F00E6AD20AE3}"/>
+    <hyperlink ref="B177" r:id="rId2" xr:uid="{D0FDC06A-FE28-42E2-850B-75F848CEE1C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -17197,7 +18703,7 @@
       <c r="E278" t="s">
         <v>471</v>
       </c>
-      <c r="F278" s="76" t="s">
+      <c r="F278" s="75" t="s">
         <v>483</v>
       </c>
     </row>
@@ -17212,38 +18718,36 @@
       <c r="D280" s="51" t="s">
         <v>478</v>
       </c>
-      <c r="E280" s="75"/>
       <c r="F280" s="52"/>
     </row>
     <row r="281" spans="2:6">
       <c r="D281" s="51"/>
-      <c r="E281" s="75" t="s">
+      <c r="E281" t="s">
         <v>472</v>
       </c>
       <c r="F281" s="52"/>
     </row>
     <row r="282" spans="2:6">
       <c r="D282" s="51"/>
-      <c r="E282" s="75" t="s">
+      <c r="E282" t="s">
         <v>473</v>
       </c>
       <c r="F282" s="52"/>
     </row>
     <row r="283" spans="2:6">
       <c r="D283" s="51"/>
-      <c r="E283" s="75"/>
       <c r="F283" s="52"/>
     </row>
     <row r="284" spans="2:6">
       <c r="D284" s="51"/>
-      <c r="E284" s="75" t="s">
+      <c r="E284" t="s">
         <v>474</v>
       </c>
       <c r="F284" s="52"/>
     </row>
     <row r="285" spans="2:6">
       <c r="D285" s="51"/>
-      <c r="E285" s="75" t="s">
+      <c r="E285" t="s">
         <v>475</v>
       </c>
       <c r="F285" s="52"/>
@@ -17262,7 +18766,7 @@
       <c r="E288" t="s">
         <v>479</v>
       </c>
-      <c r="F288" s="76" t="s">
+      <c r="F288" s="75" t="s">
         <v>483</v>
       </c>
     </row>
@@ -17275,7 +18779,6 @@
     </row>
     <row r="290" spans="3:6">
       <c r="D290" s="51"/>
-      <c r="E290" s="75"/>
       <c r="F290" s="52"/>
     </row>
     <row r="291" spans="3:6" ht="14.5" thickBot="1">
@@ -17293,7 +18796,7 @@
       <c r="E293" t="s">
         <v>482</v>
       </c>
-      <c r="F293" s="76" t="s">
+      <c r="F293" s="75" t="s">
         <v>484</v>
       </c>
     </row>
@@ -17308,14 +18811,12 @@
       <c r="D295" s="51" t="s">
         <v>486</v>
       </c>
-      <c r="E295" s="75"/>
       <c r="F295" s="52"/>
     </row>
     <row r="296" spans="3:6">
       <c r="D296" s="51" t="s">
         <v>487</v>
       </c>
-      <c r="E296" s="75"/>
       <c r="F296" s="52"/>
     </row>
     <row r="297" spans="3:6" ht="14.5" thickBot="1">
